--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:56</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:56</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:56</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:56</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:56</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Amera</t>
+          <t>Azamara Onward</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Azamara Onward</t>
+          <t>Amera</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1244,12 +1244,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1458,27 +1458,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GSL Melita (PP)</t>
+          <t>Morning Ninni</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 18 2026  6:00PM</t>
+          <t>Feb 19 2026  1:30AM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1495,27 +1495,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>MSC Jessenia R (SC)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 18 2026  7:10PM</t>
+          <t>Feb 19 2026  2:00AM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1532,27 +1532,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pride C</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 18 2026  8:30PM</t>
+          <t>Feb 19 2026  5:15AM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1569,27 +1569,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Morning Ninni</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 19 2026  1:30AM</t>
+          <t>Feb 19 2026  5:30AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1606,27 +1606,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MSC Jessenia R (SC)</t>
+          <t>Viking Venus (P)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 19 2026  4:30AM</t>
+          <t>Feb 19 2026  6:30AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1643,27 +1643,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 19 2026  5:15AM</t>
+          <t>Feb 19 2026  7:15AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1680,27 +1680,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Ac Kathryn</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 19 2026  5:30AM</t>
+          <t>Feb 19 2026  9:30AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1717,27 +1717,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Viking Venus (P)</t>
+          <t>Mount Aso</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 19 2026  6:30AM</t>
+          <t>Feb 19 2026 11:30AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Kwinana</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Yarraville 5</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1754,27 +1754,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>YM Evolution (PP)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feb 19 2026  7:15AM</t>
+          <t>Feb 19 2026 12:30PM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Kaohsiung</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1791,27 +1791,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mount Aso</t>
+          <t>Pride C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 19 2026 11:30AM</t>
+          <t>Feb 19 2026  1:30PM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kwinana</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Yarraville 5</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1828,27 +1828,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>YM Evolution (PP)</t>
+          <t>MSC Shahar</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 19 2026 12:30PM</t>
+          <t>Feb 19 2026  2:30PM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kaohsiung</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1902,27 +1902,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nabucco</t>
+          <t>Xin Lan Zhou (PP)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 19 2026  5:30PM</t>
+          <t>Feb 19 2026  8:30PM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1939,12 +1939,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MSC Shahar</t>
+          <t>Nabucco</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feb 19 2026  8:30PM</t>
+          <t>Feb 20 2026  1:30AM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1954,12 +1954,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -1976,27 +1976,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Xin Lan Zhou (PP)</t>
+          <t>TP Endurance (T)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feb 19 2026  8:30PM</t>
+          <t>Feb 20 2026  1:30AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Esperance</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2013,27 +2013,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TP Endurance (T)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feb 20 2026  1:30AM</t>
+          <t>Feb 20 2026  4:45AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Esperance</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2050,27 +2050,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feb 20 2026  4:45AM</t>
+          <t>Feb 20 2026  5:15AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2087,27 +2087,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Feb 20 2026  5:15AM</t>
+          <t>Feb 20 2026  5:30AM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2124,27 +2124,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Ruby Ace</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Feb 20 2026  5:30AM</t>
+          <t>Feb 20 2026  6:30AM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feb 20 2026  6:30AM</t>
+          <t>Feb 20 2026  7:00AM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2198,27 +2198,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ruby Ace</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Feb 20 2026  6:30AM</t>
+          <t>Feb 20 2026  7:30AM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2309,27 +2309,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ac Kathryn</t>
+          <t>Norse Teshima</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Feb 20 2026  4:45PM</t>
+          <t>Feb 20 2026  6:15PM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2346,27 +2346,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Norse Teshima</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Feb 20 2026  6:15PM</t>
+          <t>Feb 20 2026  6:45PM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2383,27 +2383,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>ALS Hercules (PP)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Feb 20 2026  6:45PM</t>
+          <t>Feb 20 2026  8:30PM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ALS Hercules (PP)</t>
+          <t>OOCL Kuala Lumpur (PP)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Feb 20 2026  8:30PM</t>
+          <t>Feb 20 2026 11:00PM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2435,12 +2435,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2457,27 +2457,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>OOCL Kuala Lumpur (PP)</t>
+          <t>Dynagreen</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Feb 20 2026 11:00PM</t>
+          <t>Feb 20 2026 11:45PM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Bulk Grain 3</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2494,27 +2494,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Dynagreen</t>
+          <t>Coral Chief (SC)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Feb 20 2026 11:45PM</t>
+          <t>Feb 21 2026  4:30AM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bulk Grain 3</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Coral Chief (SC)</t>
+          <t>Kota Laris</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2541,17 +2541,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kota Laris</t>
+          <t>Seagull (PP)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2578,17 +2578,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2605,27 +2605,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Seagull (PP)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Feb 21 2026  4:30AM</t>
+          <t>Feb 21 2026  5:15AM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2642,27 +2642,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Feb 21 2026  5:15AM</t>
+          <t>Feb 21 2026  5:30AM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2679,12 +2679,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Feb 21 2026  5:30AM</t>
+          <t>Feb 21 2026  6:56AM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2694,12 +2694,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2716,27 +2716,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Latika Naree</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Feb 21 2026  6:56AM</t>
+          <t>Feb 21 2026 10:42PM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Feb 21 2026  8:30PM</t>
+          <t>Feb 22 2026  2:31AM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2790,27 +2790,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Latika Naree</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Feb 21 2026 10:42PM</t>
+          <t>Feb 22 2026  4:26AM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Feb 22 2026  4:26AM</t>
+          <t>Feb 22 2026  5:30AM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2842,12 +2842,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2864,27 +2864,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Meghna Star</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Feb 22 2026  5:30AM</t>
+          <t>Feb 22 2026  5:35AM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2901,27 +2901,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Meghna Star</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Feb 22 2026  5:35AM</t>
+          <t>Feb 22 2026  6:40AM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2938,27 +2938,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Taokas Wisdom (SC)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Feb 22 2026  6:40AM</t>
+          <t>Feb 22 2026  8:35AM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -2975,27 +2975,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Taokas Wisdom (SC)</t>
+          <t>Golden Axis (T)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Feb 22 2026  8:35AM</t>
+          <t>Feb 22 2026  2:30PM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Bluff</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Bay Anchorage inner</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3007,32 +3007,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AAL Brisbane (SC)</t>
+          <t>Great Vanguard (SC)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-17 19:52:00</t>
+          <t>Feb 22 2026  3:30PM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Taicang</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Appleton Dock C</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3049,27 +3049,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Akuna</t>
+          <t>AAL Brisbane (SC)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-16 04:54:00</t>
+          <t>2026-02-17 19:52:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Taicang</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3086,27 +3086,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Alani</t>
+          <t>Akuna</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-18 11:36:00</t>
+          <t>2026-02-16 04:54:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3123,27 +3123,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Androklis</t>
+          <t>Alani</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-17 06:03:00</t>
+          <t>2026-02-18 11:36:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3160,27 +3160,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Andromeda Spirit</t>
+          <t>Androklis</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-18 05:20:00</t>
+          <t>2026-02-17 06:03:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Port Moresby</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3197,27 +3197,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A-Rex Dexterity</t>
+          <t>Andromeda Spirit</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-15 19:28:00</t>
+          <t>2026-02-18 05:20:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Port Moresby</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3234,27 +3234,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Astro Altair (SC)</t>
+          <t>A-Rex Dexterity</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-17 02:58:00</t>
+          <t>2026-02-15 19:28:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3271,27 +3271,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CMA CGM Pregolia</t>
+          <t>Astro Altair (SC)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-15 01:00:00</t>
+          <t>2026-02-17 02:58:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3308,27 +3308,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cosco Aden</t>
+          <t>Broadgate</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-17 07:40:00</t>
+          <t>2026-02-18 16:40:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3345,27 +3345,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Dione Leader</t>
+          <t>CMA CGM Pregolia</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-17 22:00:00</t>
+          <t>2026-02-15 01:00:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3382,27 +3382,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Edgar Oldendorff</t>
+          <t>Cosco Aden</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-14 15:37:00</t>
+          <t>2026-02-17 07:40:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3419,27 +3419,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Esteem Cowboy (T)</t>
+          <t>Dione Leader</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-15 10:21:00</t>
+          <t>2026-02-17 22:00:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Seria</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3456,27 +3456,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Golden Sagittarius (T)</t>
+          <t>Esteem Cowboy (T)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-17 13:12:00</t>
+          <t>2026-02-15 10:21:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Seria</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3493,27 +3493,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Golden Sagittarius (T)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-16 17:07:00</t>
+          <t>2026-02-17 13:12:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3530,27 +3530,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GSL Dorothea (PP)</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-15 06:18:00</t>
+          <t>2026-02-16 17:07:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3567,27 +3567,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Guo Hai Lian 801</t>
+          <t>GSL Dorothea (PP)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-16 07:00:00</t>
+          <t>2026-02-15 06:18:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3604,27 +3604,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ile D'Yeu</t>
+          <t>Guo Hai Lian 801</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-16 11:10:00</t>
+          <t>2026-02-16 07:00:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Victoria Dock</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3641,27 +3641,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Ile D'Yeu</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-18 06:24:00</t>
+          <t>2026-02-16 11:10:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Victoria Dock</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-15 06:58:00</t>
+          <t>2026-02-18 06:24:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3715,27 +3715,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MSC Anusha III</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-18 10:05:00</t>
+          <t>2026-02-15 06:58:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3752,12 +3752,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Noordam (P)</t>
+          <t>MSC Anusha III</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-17 08:17:00</t>
+          <t>2026-02-18 10:05:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3767,12 +3767,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3789,12 +3789,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>OOCL Miami (PP)</t>
+          <t>Noordam (P)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-17 04:52:00</t>
+          <t>2026-02-17 08:17:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3804,12 +3804,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3826,27 +3826,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>OOCL Panama</t>
+          <t>OOCL Miami (PP)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-14 18:35:00</t>
+          <t>2026-02-17 04:52:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3937,27 +3937,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Rong Hua Wan (T)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-17 06:54:00</t>
+          <t>2026-02-18 14:23:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -3974,27 +3974,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Seaspan Hamburg</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-16 14:36:00</t>
+          <t>2026-02-17 06:54:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -4011,27 +4011,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Seaspan Hamburg</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-17 08:30:00</t>
+          <t>2026-02-16 14:36:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-14 19:00:00</t>
+          <t>2026-02-16 05:59:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-16 05:59:00</t>
+          <t>2026-02-17 08:30:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -4364,7 +4364,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-18 13:52</t>
+          <t>2026-02-18 18:57</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,37 +473,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Atlantic Dawn</t>
+          <t>Celebrity Edge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sat 21 Feb16:00</t>
+          <t>Sun 22 Feb04:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Port Douglas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Glebe Island 1 (GLB1)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-18 18:56</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -515,12 +515,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Celebrity Edge</t>
+          <t>Arcadia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sun 22 Feb04:30</t>
+          <t>Sun 22 Feb04:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -530,12 +530,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Port Douglas</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Athol Bay Anchorage (ATH4A)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-18 18:56</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -557,37 +557,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arcadia</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sun 22 Feb04:45</t>
+          <t>Sun 22 Feb09:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Athol Bay Anchorage (ATH4A)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-18 18:56</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -599,37 +599,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sun 22 Feb09:30</t>
+          <t>Mon 23 Feb04:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-18 18:56</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -641,37 +641,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Hafnia Raven</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 23 Feb04:45</t>
+          <t>Mon 23 Feb06:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Gore Cove 1 (GOR1)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Tanker (unspecified)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-18 18:56</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -683,37 +683,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hafnia Raven</t>
+          <t>Seabourn Sojourn</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 23 Feb06:00</t>
+          <t>Tue 24 Feb05:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>06:55</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Stewart Island</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gore Cove 1 (GOR1)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tanker (unspecified)</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -725,12 +725,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tue 24 Feb05:00</t>
+          <t>Thu 26 Feb05:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Stewart Island</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -767,27 +767,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Viking Orion</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Thu 26 Feb05:00</t>
+          <t>Thu 26 Feb06:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -809,37 +809,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Viking Orion</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Thu 26 Feb06:00</t>
+          <t>Thu 26 Feb08:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -851,37 +851,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Thu 26 Feb08:30</t>
+          <t>Fri 27 Feb04:45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -893,27 +893,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fri 27 Feb04:45</t>
+          <t>Sat 28 Feb02:15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>03:05</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -935,27 +935,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sat 28 Feb02:15</t>
+          <t>Sat 28 Feb04:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>03:05</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -977,37 +977,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sat 28 Feb04:30</t>
+          <t>Sat 28 Feb12:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1019,37 +1019,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sat 28 Feb12:00</t>
+          <t>Sun 1 Mar05:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1061,27 +1061,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Crystal Serenity</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sun 1 Mar05:00</t>
+          <t>Sun 1 Mar06:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Athol Bay Anchorage (ATH4A)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1103,27 +1103,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Crystal Serenity</t>
+          <t>Coral Princess</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sun 1 Mar06:00</t>
+          <t>Mon 2 Mar04:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Athol Bay Anchorage (ATH4A)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1145,27 +1145,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Coral Princess</t>
+          <t>Amera</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mon 2 Mar04:30</t>
+          <t>Mon 2 Mar06:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1229,27 +1229,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Amera</t>
+          <t>MSC Magnifica</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mon 2 Mar06:00</t>
+          <t>Tue 3 Mar05:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1271,22 +1271,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MSC Magnifica</t>
+          <t>Queen Mary 2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tue 3 Mar05:00</t>
+          <t>Wed 4 Mar04:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1313,37 +1313,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Queen Mary 2</t>
+          <t>CSL Reliance</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Wed 4 Mar04:00</t>
+          <t>Wed 4 Mar12:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Bulk Carrier, Self-discharging</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1355,37 +1355,79 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CSL Reliance</t>
+          <t>Norwegian Spirit</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Wed 4 Mar12:00</t>
+          <t>Thu 5 Mar04:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bulk Carrier, Self-discharging</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Carnival Splendor</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Thu 5 Mar05:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>05:30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Tangalooma</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Overseas Passenger Terminal (SCPT)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Passenger/Cruise</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,27 +1500,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Morning Ninni</t>
+          <t>Ac Kathryn</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 19 2026  1:30AM</t>
+          <t>Feb 19 2026 11:30AM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1495,27 +1537,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MSC Jessenia R (SC)</t>
+          <t>YM Evolution (PP)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 19 2026  2:00AM</t>
+          <t>Feb 19 2026 12:00PM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Kaohsiung</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1532,27 +1574,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Taokas Wisdom (SC)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 19 2026  5:15AM</t>
+          <t>Feb 19 2026 12:15PM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1569,27 +1611,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Pride C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 19 2026  5:30AM</t>
+          <t>Feb 19 2026  1:30PM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1606,27 +1648,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Viking Venus (P)</t>
+          <t>MSC Shahar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 19 2026  6:30AM</t>
+          <t>Feb 19 2026  2:30PM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1643,27 +1685,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Green Anax (T)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 19 2026  7:15AM</t>
+          <t>Feb 19 2026  4:00PM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Puerto Rosales/Bahia Blanca</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Geelong Refinery4</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1680,27 +1722,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ac Kathryn</t>
+          <t>Xin Lan Zhou (PP)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 19 2026  9:30AM</t>
+          <t>Feb 19 2026  8:30PM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1717,27 +1759,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mount Aso</t>
+          <t>TP Endurance (T)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 19 2026 11:30AM</t>
+          <t>Feb 20 2026 12:30AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kwinana</t>
+          <t>Esperance</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Yarraville 5</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1754,27 +1796,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>YM Evolution (PP)</t>
+          <t>Nabucco</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feb 19 2026 12:30PM</t>
+          <t>Feb 20 2026  1:30AM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kaohsiung</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1791,27 +1833,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pride C</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 19 2026  1:30PM</t>
+          <t>Feb 20 2026  4:45AM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1828,27 +1870,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MSC Shahar</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 19 2026  2:30PM</t>
+          <t>Feb 20 2026  5:15AM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1865,27 +1907,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Green Anax (T)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feb 19 2026  4:00PM</t>
+          <t>Feb 20 2026  5:30AM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Puerto Rosales/Bahia Blanca</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Geelong Refinery4</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1902,27 +1944,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Xin Lan Zhou (PP)</t>
+          <t>Ruby Ace</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 19 2026  8:30PM</t>
+          <t>Feb 20 2026  6:30AM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1939,12 +1981,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nabucco</t>
+          <t>Arcadia (P)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feb 20 2026  1:30AM</t>
+          <t>Feb 20 2026  7:00AM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1954,12 +1996,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -1976,27 +2018,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TP Endurance (T)</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feb 20 2026  1:30AM</t>
+          <t>Feb 20 2026  7:30AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Esperance</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2013,27 +2055,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Chang Hang Hao Hai</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feb 20 2026  4:45AM</t>
+          <t>Feb 20 2026 10:15AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2050,27 +2092,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Maersk Inverness</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feb 20 2026  5:15AM</t>
+          <t>Feb 20 2026 12:30PM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2129,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Feb 20 2026  5:30AM</t>
+          <t>Feb 20 2026  5:45PM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2102,12 +2144,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2124,27 +2166,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ruby Ace</t>
+          <t>Norse Teshima</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Feb 20 2026  6:30AM</t>
+          <t>Feb 20 2026  6:15PM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2161,27 +2203,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Arcadia (P)</t>
+          <t>ALS Hercules (PP)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feb 20 2026  7:00AM</t>
+          <t>Feb 20 2026  8:30PM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2198,27 +2240,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>OOCL Kuala Lumpur (PP)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Feb 20 2026  7:30AM</t>
+          <t>Feb 20 2026 11:00PM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2277,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Chang Hang Hao Hai</t>
+          <t>Dynagreen</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Feb 20 2026 10:15AM</t>
+          <t>Feb 20 2026 11:45PM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2250,12 +2292,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Bulk Grain 3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2272,27 +2314,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Maersk Inverness</t>
+          <t>Coral Chief (SC)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Feb 20 2026 12:30PM</t>
+          <t>Feb 21 2026  4:30AM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2309,27 +2351,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Norse Teshima</t>
+          <t>Kota Laris</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Feb 20 2026  6:15PM</t>
+          <t>Feb 21 2026  4:30AM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2346,27 +2388,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Seagull (PP)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Feb 20 2026  6:45PM</t>
+          <t>Feb 21 2026  4:30AM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2383,27 +2425,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ALS Hercules (PP)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Feb 20 2026  8:30PM</t>
+          <t>Feb 21 2026  5:15AM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2462,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>OOCL Kuala Lumpur (PP)</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Feb 20 2026 11:00PM</t>
+          <t>Feb 21 2026  5:30AM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2457,27 +2499,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Dynagreen</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Feb 20 2026 11:45PM</t>
+          <t>Feb 21 2026  6:56AM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bulk Grain 3</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2494,27 +2536,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Coral Chief (SC)</t>
+          <t>Latika Naree</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Feb 21 2026  4:30AM</t>
+          <t>Feb 21 2026 10:42PM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2531,27 +2573,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Kota Laris</t>
+          <t>CMA CGM Red (SC)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Feb 21 2026  4:30AM</t>
+          <t>Feb 22 2026  2:31AM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2568,27 +2610,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Seagull (PP)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Feb 21 2026  4:30AM</t>
+          <t>Feb 22 2026  4:26AM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2605,27 +2647,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Feb 21 2026  5:15AM</t>
+          <t>Feb 22 2026  5:30AM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2642,27 +2684,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Meghna Star</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Feb 21 2026  5:30AM</t>
+          <t>Feb 22 2026  5:35AM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2679,27 +2721,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Feb 21 2026  6:56AM</t>
+          <t>Feb 22 2026  6:40AM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2716,27 +2758,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Latika Naree</t>
+          <t>Golden Axis (T)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Feb 21 2026 10:42PM</t>
+          <t>Feb 22 2026  2:30PM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Bluff</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Bay Anchorage inner</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2753,27 +2795,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CMA CGM Red (SC)</t>
+          <t>Great Vanguard (SC)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Feb 22 2026  2:31AM</t>
+          <t>Feb 22 2026  3:30PM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Appleton Dock C</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2790,27 +2832,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>MSC Bay IV</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Feb 22 2026  4:26AM</t>
+          <t>Feb 22 2026  8:30PM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2827,27 +2869,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>MSC Chulai III</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Feb 22 2026  5:30AM</t>
+          <t>Feb 22 2026  8:30PM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2864,27 +2906,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Meghna Star</t>
+          <t>Esteem Houston (T)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Feb 22 2026  5:35AM</t>
+          <t>Feb 22 2026  9:30PM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2901,27 +2943,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Feb 22 2026  6:40AM</t>
+          <t>Feb 22 2026 10:42PM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2938,27 +2980,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Taokas Wisdom (SC)</t>
+          <t>Esprit Lotus</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Feb 22 2026  8:35AM</t>
+          <t>Feb 23 2026  1:35AM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Kinuura</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Corio Quay North 4</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -2975,27 +3017,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Golden Axis (T)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Feb 22 2026  2:30PM</t>
+          <t>Feb 23 2026  4:26AM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Bluff</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bay Anchorage inner</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3012,27 +3054,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Great Vanguard (SC)</t>
+          <t>Kota Lambai</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Feb 22 2026  3:30PM</t>
+          <t>Feb 23 2026  4:30AM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Appleton Dock C</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3044,32 +3086,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AAL Brisbane (SC)</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-17 19:52:00</t>
+          <t>Feb 23 2026  4:35AM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Taicang</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3081,32 +3123,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Akuna</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-16 04:54:00</t>
+          <t>Feb 23 2026  5:15AM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3118,32 +3160,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Alani</t>
+          <t>Viking Orion (P)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-18 11:36:00</t>
+          <t>Feb 23 2026  6:30AM</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3160,27 +3202,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Androklis</t>
+          <t>AAL Brisbane (SC)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-17 06:03:00</t>
+          <t>2026-02-17 19:52:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Taicang</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3197,27 +3239,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Andromeda Spirit</t>
+          <t>Akuna</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-18 05:20:00</t>
+          <t>2026-02-16 04:54:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Port Moresby</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3234,27 +3276,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A-Rex Dexterity</t>
+          <t>Alani</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-15 19:28:00</t>
+          <t>2026-02-18 11:36:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3271,27 +3313,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Astro Altair (SC)</t>
+          <t>Androklis</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-17 02:58:00</t>
+          <t>2026-02-17 06:03:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3308,27 +3350,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Broadgate</t>
+          <t>Andromeda Spirit</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-18 16:40:00</t>
+          <t>2026-02-18 05:20:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Port Moresby</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3345,27 +3387,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CMA CGM Pregolia</t>
+          <t>A-Rex Dexterity</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-15 01:00:00</t>
+          <t>2026-02-15 19:28:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3382,27 +3424,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cosco Aden</t>
+          <t>Astro Altair (SC)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-17 07:40:00</t>
+          <t>2026-02-17 02:58:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3419,27 +3461,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Dione Leader</t>
+          <t>Broadgate</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-17 22:00:00</t>
+          <t>2026-02-18 16:40:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3456,27 +3498,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Esteem Cowboy (T)</t>
+          <t>Cosco Aden</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-15 10:21:00</t>
+          <t>2026-02-17 07:40:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Seria</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3493,27 +3535,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Golden Sagittarius (T)</t>
+          <t>Dione Leader</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-17 13:12:00</t>
+          <t>2026-02-17 22:00:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3530,27 +3572,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Esteem Cowboy (T)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-16 17:07:00</t>
+          <t>2026-02-15 10:21:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Seria</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3567,27 +3609,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GSL Dorothea (PP)</t>
+          <t>Golden Sagittarius (T)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-15 06:18:00</t>
+          <t>2026-02-17 13:12:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3604,27 +3646,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Guo Hai Lian 801</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-16 07:00:00</t>
+          <t>2026-02-16 17:07:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3641,27 +3683,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ile D'Yeu</t>
+          <t>GSL Melita (PP)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-16 11:10:00</t>
+          <t>2026-02-18 20:10:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Victoria Dock</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3678,27 +3720,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Guo Hai Lian 801</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-18 06:24:00</t>
+          <t>2026-02-16 07:00:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3715,27 +3757,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Ile D'Yeu</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-15 06:58:00</t>
+          <t>2026-02-16 11:10:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Victoria Dock</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3752,27 +3794,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MSC Anusha III</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-18 10:05:00</t>
+          <t>2026-02-18 06:24:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3789,27 +3831,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Noordam (P)</t>
+          <t>Morning Ninni</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-17 08:17:00</t>
+          <t>2026-02-19 03:20:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3826,12 +3868,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>OOCL Miami (PP)</t>
+          <t>MSC Anusha III</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-17 04:52:00</t>
+          <t>2026-02-18 10:05:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3841,12 +3883,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3863,27 +3905,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Paradise Ace</t>
+          <t>MSC Jessenia R (SC)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-18 00:47:00</t>
+          <t>2026-02-19 03:58:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3900,27 +3942,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Parsifal</t>
+          <t>Noordam (P)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-15 04:44:00</t>
+          <t>2026-02-17 08:17:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3937,27 +3979,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Rong Hua Wan (T)</t>
+          <t>OOCL Miami (PP)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-18 14:23:00</t>
+          <t>2026-02-17 04:52:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -3974,27 +4016,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Paradise Ace</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-17 06:54:00</t>
+          <t>2026-02-18 00:47:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -4011,27 +4053,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Seaspan Hamburg</t>
+          <t>Rong Hua Wan (T)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-16 14:36:00</t>
+          <t>2026-02-18 14:23:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -4048,12 +4090,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-16 05:59:00</t>
+          <t>2026-02-19 07:06:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4063,12 +4105,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -4085,12 +4127,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-17 08:30:00</t>
+          <t>2026-02-17 06:54:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4100,12 +4142,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -4122,27 +4164,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Seaspan Hamburg</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-15 07:50:00</t>
+          <t>2026-02-16 14:36:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4201,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-16 18:27:00</t>
+          <t>2026-02-17 08:30:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4179,7 +4221,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -4196,12 +4238,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-18 06:25:00</t>
+          <t>2026-02-18 19:22:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4216,7 +4258,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -4233,27 +4275,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SSI Challenger II (SC)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-15 11:50:00</t>
+          <t>2026-02-16 05:59:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -4270,27 +4312,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>STI Symphony (T)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-16 12:36:00</t>
+          <t>2026-02-18 06:25:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Gellibrand Pier Berth</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -4307,27 +4349,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-17 06:00:00</t>
+          <t>2026-02-19 07:09:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -4344,27 +4386,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Trans Future 7</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-16 04:50:00</t>
+          <t>2026-02-16 18:27:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -4381,27 +4423,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Trans Leader</t>
+          <t>SSI Challenger II (SC)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-16 11:17:00</t>
+          <t>2026-02-15 11:50:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -4418,27 +4460,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>TS Mundra (PP)</t>
+          <t>STI Symphony (T)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-17 22:05:00</t>
+          <t>2026-02-16 12:36:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Gellibrand Pier Berth</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -4455,12 +4497,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-18 05:42:00</t>
+          <t>2026-02-19 05:33:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4475,7 +4517,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -4492,27 +4534,212 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>Tasmanian Achiever 2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2026-02-17 06:00:00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2026-02-19 09:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Trans Future 7</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2026-02-16 04:50:00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 West</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2026-02-19 09:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Trans Leader</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2026-02-16 11:17:00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Webb Dock 3 West</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2026-02-19 09:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>TS Mundra (PP)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2026-02-17 22:05:00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Swanson West 2</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2026-02-19 09:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>Victorian Reliance II</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2026-02-15 07:14:00</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2026-02-18 05:42:00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>Burnie</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Webb Dock 1 East</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>2026-02-18 18:57</t>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2026-02-19 09:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Viking Venus (P)</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2026-02-19 07:04:00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Hobart</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Station Pier Outer West</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4772,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-18 18:57</t>
+          <t>2026-02-19 09:03</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,37 +473,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Celebrity Edge</t>
+          <t>ICS Reliance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sun 22 Feb04:30</t>
+          <t>Sun 22 Feb00:15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Port Douglas</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Gore Cove 2 (GOR2)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Products Tanker</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:39</t>
         </is>
       </c>
     </row>
@@ -515,12 +515,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arcadia</t>
+          <t>Celebrity Edge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sun 22 Feb04:45</t>
+          <t>Sun 22 Feb04:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -530,12 +530,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Port Douglas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Athol Bay Anchorage (ATH4A)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:39</t>
         </is>
       </c>
     </row>
@@ -557,37 +557,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Arcadia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sun 22 Feb09:30</t>
+          <t>Sun 22 Feb04:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Athol Bay Anchorage (ATH4A)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:39</t>
         </is>
       </c>
     </row>
@@ -599,37 +599,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Hafnia Raven</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon 23 Feb04:45</t>
+          <t>Sun 22 Feb09:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Gore Cove 1 (GOR1)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Tanker (unspecified)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:39</t>
         </is>
       </c>
     </row>
@@ -641,37 +641,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hafnia Raven</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 23 Feb06:00</t>
+          <t>Sun 22 Feb09:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>06:55</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gore Cove 1 (GOR1)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tanker (unspecified)</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:39</t>
         </is>
       </c>
     </row>
@@ -683,12 +683,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tue 24 Feb05:00</t>
+          <t>Mon 23 Feb04:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Stewart Island</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:39</t>
         </is>
       </c>
     </row>
@@ -725,12 +725,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Seabourn Sojourn</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Thu 26 Feb05:00</t>
+          <t>Tue 24 Feb05:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Stewart Island</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:39</t>
         </is>
       </c>
     </row>
@@ -767,27 +767,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Viking Orion</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Thu 26 Feb06:00</t>
+          <t>Thu 26 Feb05:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:39</t>
         </is>
       </c>
     </row>
@@ -809,37 +809,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Viking Orion</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Thu 26 Feb08:30</t>
+          <t>Thu 26 Feb06:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:39</t>
         </is>
       </c>
     </row>
@@ -851,37 +851,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fri 27 Feb04:45</t>
+          <t>Thu 26 Feb08:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:39</t>
         </is>
       </c>
     </row>
@@ -893,27 +893,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sat 28 Feb02:15</t>
+          <t>Fri 27 Feb04:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>03:05</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:39</t>
         </is>
       </c>
     </row>
@@ -935,27 +935,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sat 28 Feb04:30</t>
+          <t>Sat 28 Feb02:15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>03:05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:39</t>
         </is>
       </c>
     </row>
@@ -977,37 +977,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sat 28 Feb12:00</t>
+          <t>Sat 28 Feb04:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:39</t>
         </is>
       </c>
     </row>
@@ -1019,37 +1019,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sun 1 Mar05:00</t>
+          <t>Sat 28 Feb12:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:39</t>
         </is>
       </c>
     </row>
@@ -1061,27 +1061,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Crystal Serenity</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sun 1 Mar06:00</t>
+          <t>Sun 1 Mar05:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Athol Bay Anchorage (ATH4A)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1103,27 +1103,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Coral Princess</t>
+          <t>Crystal Serenity</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mon 2 Mar04:30</t>
+          <t>Sun 1 Mar06:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Athol Bay Anchorage (ATH4A)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1145,27 +1145,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Amera</t>
+          <t>Coral Princess</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mon 2 Mar06:00</t>
+          <t>Mon 2 Mar04:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1229,27 +1229,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MSC Magnifica</t>
+          <t>Amera</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tue 3 Mar05:00</t>
+          <t>Mon 2 Mar06:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1271,22 +1271,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Queen Mary 2</t>
+          <t>MSC Magnifica</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Wed 4 Mar04:00</t>
+          <t>Tue 3 Mar05:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1313,37 +1313,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CSL Reliance</t>
+          <t>Queen Mary 2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Wed 4 Mar12:00</t>
+          <t>Wed 4 Mar04:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bulk Carrier, Self-discharging</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1355,37 +1355,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Norwegian Spirit</t>
+          <t>CSL Reliance</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Thu 5 Mar04:00</t>
+          <t>Wed 4 Mar12:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Bulk Carrier, Self-discharging</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1397,37 +1397,121 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Norwegian Spirit</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Thu 5 Mar04:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>04:50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Eden</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>White Bay Cruise Terminal (WHT5)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Passenger/Cruise</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2026-02-19 18:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Carnival Splendor</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Thu 5 Mar05:00</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>05:30</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Tangalooma</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Passenger/Cruise</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2026-02-19 09:03</t>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2026-02-19 18:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Atlantic Dawn</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Thu 5 Mar15:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15:40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Glebe Island 1 (GLB1)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>General Cargo Ship</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1500,27 +1584,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ac Kathryn</t>
+          <t>MSC Shahar</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 19 2026 11:30AM</t>
+          <t>Feb 19 2026 10:30PM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1537,27 +1621,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>YM Evolution (PP)</t>
+          <t>Nabucco</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 19 2026 12:00PM</t>
+          <t>Feb 20 2026 12:01AM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kaohsiung</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1574,27 +1658,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Taokas Wisdom (SC)</t>
+          <t>TP Endurance (T)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 19 2026 12:15PM</t>
+          <t>Feb 20 2026 12:30AM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Esperance</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1611,17 +1695,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pride C</t>
+          <t>Xin Lan Zhou (PP)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 19 2026  1:30PM</t>
+          <t>Feb 20 2026  4:30AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1631,7 +1715,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1648,27 +1732,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MSC Shahar</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 19 2026  2:30PM</t>
+          <t>Feb 20 2026  4:45AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1685,27 +1769,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Green Anax (T)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 19 2026  4:00PM</t>
+          <t>Feb 20 2026  5:15AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Puerto Rosales/Bahia Blanca</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Geelong Refinery4</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1722,27 +1806,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Xin Lan Zhou (PP)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 19 2026  8:30PM</t>
+          <t>Feb 20 2026  5:30AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1759,27 +1843,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TP Endurance (T)</t>
+          <t>Chang Hang Hao Hai</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 20 2026 12:30AM</t>
+          <t>Feb 20 2026  6:30AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Esperance</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1796,27 +1880,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nabucco</t>
+          <t>Ruby Ace</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feb 20 2026  1:30AM</t>
+          <t>Feb 20 2026  6:30AM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1833,27 +1917,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Arcadia (P)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 20 2026  4:45AM</t>
+          <t>Feb 20 2026  7:00AM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1870,27 +1954,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 20 2026  5:15AM</t>
+          <t>Feb 20 2026  7:30AM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1907,27 +1991,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Maersk Inverness</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feb 20 2026  5:30AM</t>
+          <t>Feb 20 2026 12:30PM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1944,27 +2028,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ruby Ace</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 20 2026  6:30AM</t>
+          <t>Feb 20 2026  5:45PM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -1981,27 +2065,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Arcadia (P)</t>
+          <t>ALS Hercules (PP)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feb 20 2026  7:00AM</t>
+          <t>Feb 20 2026  8:30PM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2018,27 +2102,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>OOCL Kuala Lumpur (PP)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feb 20 2026  7:30AM</t>
+          <t>Feb 20 2026 11:00PM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2055,12 +2139,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Chang Hang Hao Hai</t>
+          <t>Dynagreen</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feb 20 2026 10:15AM</t>
+          <t>Feb 21 2026  3:45AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2070,12 +2154,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Bulk Grain 3</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2092,27 +2176,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Maersk Inverness</t>
+          <t>Coral Chief (SC)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feb 20 2026 12:30PM</t>
+          <t>Feb 21 2026  4:30AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2129,27 +2213,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Kota Laris</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Feb 20 2026  5:45PM</t>
+          <t>Feb 21 2026  4:30AM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2166,27 +2250,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Norse Teshima</t>
+          <t>Seagull (PP)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Feb 20 2026  6:15PM</t>
+          <t>Feb 21 2026  4:30AM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2203,27 +2287,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ALS Hercules (PP)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feb 20 2026  8:30PM</t>
+          <t>Feb 21 2026  5:15AM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2240,27 +2324,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>OOCL Kuala Lumpur (PP)</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Feb 20 2026 11:00PM</t>
+          <t>Feb 21 2026  5:30AM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2277,27 +2361,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dynagreen</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Feb 20 2026 11:45PM</t>
+          <t>Feb 21 2026  6:56AM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bulk Grain 3</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2314,27 +2398,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Coral Chief (SC)</t>
+          <t>Norse Teshima</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Feb 21 2026  4:30AM</t>
+          <t>Feb 21 2026 11:15AM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2351,12 +2435,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Kota Laris</t>
+          <t>Crescent River (T)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Feb 21 2026  4:30AM</t>
+          <t>Feb 21 2026  5:30PM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2366,12 +2450,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2388,12 +2472,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Seagull (PP)</t>
+          <t>CMA CGM Red (SC)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Feb 21 2026  4:30AM</t>
+          <t>Feb 22 2026  2:31AM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2403,12 +2487,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2425,27 +2509,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Feb 21 2026  5:15AM</t>
+          <t>Feb 22 2026  4:26AM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2462,12 +2546,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Feb 21 2026  5:30AM</t>
+          <t>Feb 22 2026  5:30AM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2482,7 +2566,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2499,27 +2583,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Feb 21 2026  6:56AM</t>
+          <t>Feb 22 2026  6:40AM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2536,27 +2620,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Latika Naree</t>
+          <t>Great Vanguard (SC)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Feb 21 2026 10:42PM</t>
+          <t>Feb 22 2026  8:30AM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2573,27 +2657,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CMA CGM Red (SC)</t>
+          <t>Latika Naree</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Feb 22 2026  2:31AM</t>
+          <t>Feb 22 2026  9:35AM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2610,27 +2694,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Golden Axis (T)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Feb 22 2026  4:26AM</t>
+          <t>Feb 22 2026  2:30PM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Bluff</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Bay Anchorage inner</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2647,27 +2731,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>MSC Bay IV</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Feb 22 2026  5:30AM</t>
+          <t>Feb 22 2026  8:30PM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2684,27 +2768,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Meghna Star</t>
+          <t>MSC Chulai III</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Feb 22 2026  5:35AM</t>
+          <t>Feb 22 2026  8:30PM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2721,27 +2805,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Esteem Houston (T)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Feb 22 2026  6:40AM</t>
+          <t>Feb 22 2026  9:30PM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2758,27 +2842,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Golden Axis (T)</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Feb 22 2026  2:30PM</t>
+          <t>Feb 22 2026 10:42PM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Bluff</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bay Anchorage inner</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2795,27 +2879,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Great Vanguard (SC)</t>
+          <t>Meghna Star</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Feb 22 2026  3:30PM</t>
+          <t>Feb 22 2026 11:35PM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Appleton Dock C</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2832,27 +2916,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MSC Bay IV</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Feb 22 2026  8:30PM</t>
+          <t>Feb 23 2026  4:26AM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2869,27 +2953,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MSC Chulai III</t>
+          <t>Kota Lambai</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Feb 22 2026  8:30PM</t>
+          <t>Feb 23 2026  4:30AM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2906,27 +2990,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Esteem Houston (T)</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Feb 22 2026  9:30PM</t>
+          <t>Feb 23 2026  4:35AM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2943,27 +3027,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Feb 22 2026 10:42PM</t>
+          <t>Feb 23 2026  5:15AM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -2980,27 +3064,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Esprit Lotus</t>
+          <t>Viking Orion (P)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Feb 23 2026  1:35AM</t>
+          <t>Feb 23 2026  6:30AM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Kinuura</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Corio Quay North 4</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3017,27 +3101,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>OOCL Canada (BM)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:26AM</t>
+          <t>Feb 23 2026  4:30PM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3054,27 +3138,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Kota Lambai</t>
+          <t>Oregon Highway</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:30AM</t>
+          <t>Feb 23 2026  5:30PM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3086,32 +3170,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>AAL Brisbane (SC)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:35AM</t>
+          <t>2026-02-17 19:52:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Taicang</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3123,32 +3207,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Ac Kathryn</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Feb 23 2026  5:15AM</t>
+          <t>2026-02-19 12:21:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3160,32 +3244,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Viking Orion (P)</t>
+          <t>Akuna</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Feb 23 2026  6:30AM</t>
+          <t>2026-02-16 04:54:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3202,27 +3286,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AAL Brisbane (SC)</t>
+          <t>Alani</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-17 19:52:00</t>
+          <t>2026-02-18 11:36:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Taicang</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3239,27 +3323,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Akuna</t>
+          <t>Androklis</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-16 04:54:00</t>
+          <t>2026-02-17 06:03:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3276,17 +3360,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Alani</t>
+          <t>Andromeda Spirit</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-18 11:36:00</t>
+          <t>2026-02-18 05:20:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Port Moresby</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3296,7 +3380,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3313,27 +3397,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Androklis</t>
+          <t>A-Rex Dexterity</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-17 06:03:00</t>
+          <t>2026-02-15 19:28:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3350,27 +3434,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Andromeda Spirit</t>
+          <t>Astro Altair (SC)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-18 05:20:00</t>
+          <t>2026-02-17 02:58:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Port Moresby</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3387,27 +3471,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A-Rex Dexterity</t>
+          <t>Broadgate</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-15 19:28:00</t>
+          <t>2026-02-18 16:40:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3424,27 +3508,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Astro Altair (SC)</t>
+          <t>Cosco Aden</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-17 02:58:00</t>
+          <t>2026-02-17 07:40:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3461,27 +3545,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Broadgate</t>
+          <t>Dione Leader</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-18 16:40:00</t>
+          <t>2026-02-17 22:00:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3498,27 +3582,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cosco Aden</t>
+          <t>Golden Sagittarius (T)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-17 07:40:00</t>
+          <t>2026-02-17 13:12:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3535,27 +3619,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dione Leader</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-17 22:00:00</t>
+          <t>2026-02-16 17:07:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3572,27 +3656,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Esteem Cowboy (T)</t>
+          <t>Green Anax (T)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-15 10:21:00</t>
+          <t>2026-02-19 17:57:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Seria</t>
+          <t>Puerto Rosales/Bahia Blanca</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Geelong Refinery4</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3609,27 +3693,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Golden Sagittarius (T)</t>
+          <t>GSL Melita (PP)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-17 13:12:00</t>
+          <t>2026-02-18 20:10:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3646,27 +3730,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Guo Hai Lian 801</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-16 17:07:00</t>
+          <t>2026-02-16 07:00:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3683,27 +3767,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GSL Melita (PP)</t>
+          <t>Ile D'Yeu</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-18 20:10:00</t>
+          <t>2026-02-16 11:10:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Victoria Dock</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3720,27 +3804,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Guo Hai Lian 801</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-16 07:00:00</t>
+          <t>2026-02-18 06:24:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3757,27 +3841,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ile D'Yeu</t>
+          <t>Morning Ninni</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-16 11:10:00</t>
+          <t>2026-02-19 03:20:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Victoria Dock</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3794,27 +3878,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Mount Aso</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-18 06:24:00</t>
+          <t>2026-02-19 11:20:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Kwinana</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Yarraville 5</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3831,27 +3915,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Morning Ninni</t>
+          <t>MSC Anusha III</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-19 03:20:00</t>
+          <t>2026-02-18 10:05:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3868,12 +3952,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MSC Anusha III</t>
+          <t>MSC Jessenia R (SC)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-18 10:05:00</t>
+          <t>2026-02-19 03:58:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3883,12 +3967,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3905,12 +3989,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MSC Jessenia R (SC)</t>
+          <t>Noordam (P)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-19 03:58:00</t>
+          <t>2026-02-17 08:17:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3920,12 +4004,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3942,12 +4026,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Noordam (P)</t>
+          <t>OOCL Miami (PP)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-17 08:17:00</t>
+          <t>2026-02-17 04:52:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3957,12 +4041,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -3979,27 +4063,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>OOCL Miami (PP)</t>
+          <t>Paradise Ace</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-17 04:52:00</t>
+          <t>2026-02-18 00:47:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4016,27 +4100,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Paradise Ace</t>
+          <t>Pride C</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-18 00:47:00</t>
+          <t>2026-02-19 17:36:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4073,7 +4157,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4179,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-19 07:06:00</t>
+          <t>2026-02-17 06:54:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4110,7 +4194,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4216,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-17 06:54:00</t>
+          <t>2026-02-19 07:06:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4147,7 +4231,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4268,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4305,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4258,7 +4342,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4379,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4332,7 +4416,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4438,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-19 07:09:00</t>
+          <t>2026-02-19 08:16:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4369,7 +4453,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4490,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4423,27 +4507,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SSI Challenger II (SC)</t>
+          <t>STI Symphony (T)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-15 11:50:00</t>
+          <t>2026-02-16 12:36:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Gellibrand Pier Berth</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4460,27 +4544,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>STI Symphony (T)</t>
+          <t>Taokas Wisdom (SC)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-16 12:36:00</t>
+          <t>2026-02-19 13:20:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Gellibrand Pier Berth</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4601,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4554,7 +4638,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4675,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4712,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4749,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4702,7 +4786,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4739,7 +4823,44 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>YM Evolution (PP)</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:20:00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Kaohsiung</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Swanson West 2</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>
@@ -4772,7 +4893,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-19 09:03</t>
+          <t>2026-02-19 18:40</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,12 +473,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ICS Reliance</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sun 22 Feb00:15</t>
+          <t>Sun 22 Feb09:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,17 +493,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gore Cove 2 (GOR2)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Products Tanker</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-19 18:39</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -515,37 +515,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Celebrity Edge</t>
+          <t>Hafnia Raven</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sun 22 Feb04:30</t>
+          <t>Sun 22 Feb09:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Port Douglas</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Gore Cove 1 (GOR1)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Tanker (unspecified)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-19 18:39</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -557,27 +557,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arcadia</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sun 22 Feb04:45</t>
+          <t>Mon 23 Feb04:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Athol Bay Anchorage (ATH4A)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-19 18:39</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -599,37 +599,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hafnia Raven</t>
+          <t>Seabourn Sojourn</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sun 22 Feb09:30</t>
+          <t>Tue 24 Feb05:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Stewart Island</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gore Cove 1 (GOR1)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tanker (unspecified)</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-19 18:39</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -641,37 +641,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sun 22 Feb09:30</t>
+          <t>Thu 26 Feb05:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-19 18:39</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -683,22 +683,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Viking Orion</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 23 Feb04:45</t>
+          <t>Thu 26 Feb06:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-19 18:39</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -725,37 +725,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tue 24 Feb05:00</t>
+          <t>Thu 26 Feb08:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Stewart Island</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-19 18:39</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -767,22 +767,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Thu 26 Feb05:00</t>
+          <t>Fri 27 Feb04:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-19 18:39</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -809,22 +809,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Viking Orion</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Thu 26 Feb06:00</t>
+          <t>Sat 28 Feb02:15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>03:05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-19 18:39</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -851,37 +851,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Thu 26 Feb08:30</t>
+          <t>Sat 28 Feb04:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-19 18:39</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -893,37 +893,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fri 27 Feb04:45</t>
+          <t>Sat 28 Feb12:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-19 18:39</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -935,27 +935,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sat 28 Feb02:15</t>
+          <t>Sun 1 Mar05:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>03:05</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-19 18:39</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -977,27 +977,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Crystal Serenity</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sat 28 Feb04:30</t>
+          <t>Sun 1 Mar06:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Athol Bay Anchorage (ATH4A)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-19 18:39</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1019,37 +1019,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Coral Princess</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sat 28 Feb12:00</t>
+          <t>Mon 2 Mar04:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-19 18:39</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1061,27 +1061,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Azamara Onward</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sun 1 Mar05:00</t>
+          <t>Mon 2 Mar06:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1103,27 +1103,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Crystal Serenity</t>
+          <t>Amera</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sun 1 Mar06:00</t>
+          <t>Mon 2 Mar06:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Athol Bay Anchorage (ATH4A)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Coral Princess</t>
+          <t>MSC Magnifica</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mon 2 Mar04:30</t>
+          <t>Tue 3 Mar05:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1187,27 +1187,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Azamara Onward</t>
+          <t>Queen Mary 2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mon 2 Mar06:00</t>
+          <t>Wed 4 Mar04:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1229,37 +1229,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Amera</t>
+          <t>CSL Reliance</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mon 2 Mar06:00</t>
+          <t>Wed 4 Mar12:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Bulk Carrier, Self-discharging</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1271,27 +1271,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MSC Magnifica</t>
+          <t>Norwegian Spirit</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tue 3 Mar05:00</t>
+          <t>Thu 5 Mar04:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1313,22 +1313,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Queen Mary 2</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Wed 4 Mar04:00</t>
+          <t>Thu 5 Mar05:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1355,37 +1355,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CSL Reliance</t>
+          <t>Atlantic Dawn</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Wed 4 Mar12:00</t>
+          <t>Thu 5 Mar15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>Glebe Island 1 (GLB1)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bulk Carrier, Self-discharging</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1397,27 +1397,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Norwegian Spirit</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Thu 5 Mar04:00</t>
+          <t>Fri 6 Mar05:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Port Arthur</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1427,91 +1427,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Carnival Splendor</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Thu 5 Mar05:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>05:30</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Tangalooma</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Passenger/Cruise</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2026-02-19 18:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Atlantic Dawn</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Thu 5 Mar15:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>15:40</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Glebe Island 1 (GLB1)</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>General Cargo Ship</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1584,27 +1500,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MSC Shahar</t>
+          <t>Maersk Inverness</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 19 2026 10:30PM</t>
+          <t>Feb 20 2026 12:30PM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1621,27 +1537,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nabucco</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 20 2026 12:01AM</t>
+          <t>Feb 20 2026  5:45PM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1658,27 +1574,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TP Endurance (T)</t>
+          <t>Chang Hang Hao Hai</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 20 2026 12:30AM</t>
+          <t>Feb 20 2026  6:15PM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Esperance</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1695,27 +1611,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Xin Lan Zhou (PP)</t>
+          <t>ALS Hercules (PP)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 20 2026  4:30AM</t>
+          <t>Feb 20 2026 11:00PM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1732,27 +1648,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>OOCL Kuala Lumpur (PP)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 20 2026  4:45AM</t>
+          <t>Feb 20 2026 11:00PM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1769,27 +1685,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Dynagreen</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 20 2026  5:15AM</t>
+          <t>Feb 21 2026  3:45AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Bulk Grain 3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1806,27 +1722,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Coral Chief (SC)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 20 2026  5:30AM</t>
+          <t>Feb 21 2026  4:30AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1843,27 +1759,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chang Hang Hao Hai</t>
+          <t>Kota Laris</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 20 2026  6:30AM</t>
+          <t>Feb 21 2026  4:30AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1880,27 +1796,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ruby Ace</t>
+          <t>Seagull (PP)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feb 20 2026  6:30AM</t>
+          <t>Feb 21 2026  4:30AM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1917,27 +1833,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Arcadia (P)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 20 2026  7:00AM</t>
+          <t>Feb 21 2026  5:15AM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1870,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 20 2026  7:30AM</t>
+          <t>Feb 21 2026  5:30AM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1969,12 +1885,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -1991,27 +1907,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Maersk Inverness</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feb 20 2026 12:30PM</t>
+          <t>Feb 21 2026  7:15AM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2028,27 +1944,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Norse Teshima</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 20 2026  5:45PM</t>
+          <t>Feb 21 2026 11:15AM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2065,27 +1981,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ALS Hercules (PP)</t>
+          <t>Crescent River (T)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feb 20 2026  8:30PM</t>
+          <t>Feb 21 2026  5:30PM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2102,27 +2018,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>OOCL Kuala Lumpur (PP)</t>
+          <t>CMA CGM Red (SC)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feb 20 2026 11:00PM</t>
+          <t>Feb 22 2026  2:31AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2139,27 +2055,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Dynagreen</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feb 21 2026  3:45AM</t>
+          <t>Feb 22 2026  4:26AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bulk Grain 3</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2176,27 +2092,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Coral Chief (SC)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feb 21 2026  4:30AM</t>
+          <t>Feb 22 2026  5:30AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2213,27 +2129,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Kota Laris</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Feb 21 2026  4:30AM</t>
+          <t>Feb 22 2026  6:40AM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2250,27 +2166,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Seagull (PP)</t>
+          <t>Great Vanguard (SC)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Feb 21 2026  4:30AM</t>
+          <t>Feb 22 2026  8:30AM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2287,27 +2203,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Latika Naree</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feb 21 2026  5:15AM</t>
+          <t>Feb 22 2026  9:35AM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2240,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Golden Axis (T)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Feb 21 2026  5:30AM</t>
+          <t>Feb 22 2026  2:30PM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Bluff</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Bay Anchorage inner</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2361,27 +2277,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>MSC Bay IV</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Feb 21 2026  6:56AM</t>
+          <t>Feb 22 2026  8:30PM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2398,27 +2314,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Norse Teshima</t>
+          <t>MSC Chulai III</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Feb 21 2026 11:15AM</t>
+          <t>Feb 22 2026  8:30PM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2435,12 +2351,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Crescent River (T)</t>
+          <t>Esteem Houston (T)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Feb 21 2026  5:30PM</t>
+          <t>Feb 22 2026  9:30PM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2450,12 +2366,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2472,27 +2388,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CMA CGM Red (SC)</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Feb 22 2026  2:31AM</t>
+          <t>Feb 22 2026 10:42PM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2509,27 +2425,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Meghna Star</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Feb 22 2026  4:26AM</t>
+          <t>Feb 22 2026 11:35PM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2546,12 +2462,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Feb 22 2026  5:30AM</t>
+          <t>Feb 23 2026  4:26AM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2561,12 +2477,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2583,27 +2499,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>APL New York (BM)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Feb 22 2026  6:40AM</t>
+          <t>Feb 23 2026  4:30AM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2620,27 +2536,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Great Vanguard (SC)</t>
+          <t>Kota Lambai</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Feb 22 2026  8:30AM</t>
+          <t>Feb 23 2026  4:30AM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2657,27 +2573,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Latika Naree</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Feb 22 2026  9:35AM</t>
+          <t>Feb 23 2026  4:35AM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2694,27 +2610,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Golden Axis (T)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Feb 22 2026  2:30PM</t>
+          <t>Feb 23 2026  5:15AM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Bluff</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bay Anchorage inner</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2731,27 +2647,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MSC Bay IV</t>
+          <t>Viking Orion (P)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Feb 22 2026  8:30PM</t>
+          <t>Feb 23 2026  6:30AM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2768,17 +2684,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MSC Chulai III</t>
+          <t>OOCL Canada (BM)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Feb 22 2026  8:30PM</t>
+          <t>Feb 23 2026  4:30PM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2788,7 +2704,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2805,27 +2721,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Esteem Houston (T)</t>
+          <t>Oregon Highway</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Feb 22 2026  9:30PM</t>
+          <t>Feb 23 2026  5:30PM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2842,27 +2758,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>Altair Leader</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Feb 22 2026 10:42PM</t>
+          <t>Feb 23 2026  7:30PM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2879,27 +2795,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Meghna Star</t>
+          <t>CNC Jawa</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Feb 22 2026 11:35PM</t>
+          <t>Feb 23 2026  8:30PM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2916,12 +2832,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:26AM</t>
+          <t>Feb 24 2026  4:26AM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2936,7 +2852,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2953,27 +2869,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Kota Lambai</t>
+          <t>Peter Faber</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:30AM</t>
+          <t>Feb 24 2026  4:30AM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -2990,27 +2906,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:35AM</t>
+          <t>Feb 24 2026  5:30AM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3022,32 +2938,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>AAL Brisbane (SC)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Feb 23 2026  5:15AM</t>
+          <t>2026-02-17 19:52:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Taicang</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3059,32 +2975,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Viking Orion (P)</t>
+          <t>Ac Kathryn</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Feb 23 2026  6:30AM</t>
+          <t>2026-02-19 12:21:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3096,32 +3012,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>OOCL Canada (BM)</t>
+          <t>Alani</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:30PM</t>
+          <t>2026-02-18 11:36:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3133,32 +3049,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Oregon Highway</t>
+          <t>Androklis</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Feb 23 2026  5:30PM</t>
+          <t>2026-02-17 06:03:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3175,27 +3091,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AAL Brisbane (SC)</t>
+          <t>Andromeda Spirit</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-17 19:52:00</t>
+          <t>2026-02-18 05:20:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Taicang</t>
+          <t>Port Moresby</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3212,27 +3128,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ac Kathryn</t>
+          <t>Arcadia (P)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-19 12:21:00</t>
+          <t>2026-02-20 07:45:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3249,27 +3165,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Akuna</t>
+          <t>Astro Altair (SC)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-16 04:54:00</t>
+          <t>2026-02-17 02:58:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3286,27 +3202,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Alani</t>
+          <t>Broadgate</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-18 11:36:00</t>
+          <t>2026-02-18 16:40:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3323,27 +3239,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Androklis</t>
+          <t>Cosco Aden</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-17 06:03:00</t>
+          <t>2026-02-17 07:40:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3360,27 +3276,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Andromeda Spirit</t>
+          <t>Dione Leader</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-18 05:20:00</t>
+          <t>2026-02-17 22:00:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Port Moresby</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3397,27 +3313,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A-Rex Dexterity</t>
+          <t>Golden Sagittarius (T)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-15 19:28:00</t>
+          <t>2026-02-17 13:12:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3434,27 +3350,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Astro Altair (SC)</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-17 02:58:00</t>
+          <t>2026-02-16 17:07:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3471,27 +3387,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Broadgate</t>
+          <t>Green Anax (T)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-18 16:40:00</t>
+          <t>2026-02-19 18:35:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Puerto Rosales/Bahia Blanca</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Geelong Refinery4</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3508,27 +3424,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cosco Aden</t>
+          <t>GSL Melita (PP)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-17 07:40:00</t>
+          <t>2026-02-18 20:10:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3545,27 +3461,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Dione Leader</t>
+          <t>Ile D'Yeu</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-17 22:00:00</t>
+          <t>2026-02-16 11:10:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Victoria Dock</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3582,27 +3498,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Golden Sagittarius (T)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-17 13:12:00</t>
+          <t>2026-02-20 06:45:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3619,12 +3535,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-16 17:07:00</t>
+          <t>2026-02-18 06:24:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3634,12 +3550,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3656,27 +3572,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Green Anax (T)</t>
+          <t>Morning Ninni</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-19 17:57:00</t>
+          <t>2026-02-19 03:20:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Puerto Rosales/Bahia Blanca</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Geelong Refinery4</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3693,27 +3609,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GSL Melita (PP)</t>
+          <t>Mount Aso</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-18 20:10:00</t>
+          <t>2026-02-19 11:20:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Kwinana</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Yarraville 5</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3730,27 +3646,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Guo Hai Lian 801</t>
+          <t>MSC Anusha III</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-16 07:00:00</t>
+          <t>2026-02-18 10:05:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3767,27 +3683,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ile D'Yeu</t>
+          <t>MSC Jessenia R (SC)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-16 11:10:00</t>
+          <t>2026-02-19 03:58:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Victoria Dock</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3804,27 +3720,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>MSC Shahar</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-18 06:24:00</t>
+          <t>2026-02-20 00:42:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3841,17 +3757,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Morning Ninni</t>
+          <t>Nabucco</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-19 03:20:00</t>
+          <t>2026-02-20 01:20:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3861,7 +3777,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3878,27 +3794,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Mount Aso</t>
+          <t>Noordam (P)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-19 11:20:00</t>
+          <t>2026-02-17 08:17:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Kwinana</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Yarraville 5</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3915,12 +3831,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MSC Anusha III</t>
+          <t>OOCL Miami (PP)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-18 10:05:00</t>
+          <t>2026-02-17 04:52:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3930,12 +3846,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3952,27 +3868,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MSC Jessenia R (SC)</t>
+          <t>Paradise Ace</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-19 03:58:00</t>
+          <t>2026-02-18 00:47:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -3989,27 +3905,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Noordam (P)</t>
+          <t>Pride C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-17 08:17:00</t>
+          <t>2026-02-19 16:45:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4026,27 +3942,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>OOCL Miami (PP)</t>
+          <t>Rong Hua Wan (T)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-17 04:52:00</t>
+          <t>2026-02-18 14:23:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4063,27 +3979,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Paradise Ace</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-18 00:47:00</t>
+          <t>2026-02-17 06:54:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4100,27 +4016,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Pride C</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-19 17:36:00</t>
+          <t>2026-02-19 07:06:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4137,27 +4053,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Rong Hua Wan (T)</t>
+          <t>Seaspan Hamburg</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-18 14:23:00</t>
+          <t>2026-02-16 14:36:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4174,12 +4090,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-17 06:54:00</t>
+          <t>2026-02-20 05:58:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4189,12 +4105,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4211,12 +4127,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-19 07:06:00</t>
+          <t>2026-02-17 08:30:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4226,12 +4142,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4248,27 +4164,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Seaspan Hamburg</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-16 14:36:00</t>
+          <t>2026-02-18 19:22:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4201,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-17 08:30:00</t>
+          <t>2026-02-19 08:16:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4305,7 +4221,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4322,12 +4238,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-18 19:22:00</t>
+          <t>2026-02-16 18:27:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4342,7 +4258,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4359,12 +4275,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-16 05:59:00</t>
+          <t>2026-02-18 06:25:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4379,7 +4295,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4396,27 +4312,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>STI Symphony (T)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-18 06:25:00</t>
+          <t>2026-02-16 12:36:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Gellibrand Pier Berth</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4433,27 +4349,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Taokas Wisdom (SC)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-19 08:16:00</t>
+          <t>2026-02-19 13:20:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4470,27 +4386,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-16 18:27:00</t>
+          <t>2026-02-19 05:33:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4507,27 +4423,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>STI Symphony (T)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-16 12:36:00</t>
+          <t>2026-02-17 06:00:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Gellibrand Pier Berth</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4544,27 +4460,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Taokas Wisdom (SC)</t>
+          <t>TP Endurance (T)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-19 13:20:00</t>
+          <t>2026-02-20 03:56:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Esperance</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4581,27 +4497,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Trans Leader</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-19 05:33:00</t>
+          <t>2026-02-16 11:17:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4618,27 +4534,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>TS Mundra (PP)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-02-17 06:00:00</t>
+          <t>2026-02-17 22:05:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4655,27 +4571,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Trans Future 7</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-16 04:50:00</t>
+          <t>2026-02-20 05:43:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4692,27 +4608,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Trans Leader</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-02-16 11:17:00</t>
+          <t>2026-02-18 05:42:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4729,27 +4645,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>TS Mundra (PP)</t>
+          <t>Viking Venus (P)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-02-17 22:05:00</t>
+          <t>2026-02-19 07:04:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4766,27 +4682,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Xin Lan Zhou (PP)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2026-02-18 05:42:00</t>
+          <t>2026-02-20 06:00:00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4803,64 +4719,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Viking Venus (P)</t>
+          <t>YM Evolution (PP)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2026-02-19 07:04:00</t>
+          <t>2026-02-19 14:20:00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Kaohsiung</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>YM Evolution (PP)</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:20:00</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Kaohsiung</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Swanson West 2</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4772,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-19 18:40</t>
+          <t>2026-02-20 09:00</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -515,37 +515,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hafnia Raven</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sun 22 Feb09:30</t>
+          <t>Mon 23 Feb04:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gore Cove 1 (GOR1)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tanker (unspecified)</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -557,12 +557,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Seabourn Sojourn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon 23 Feb04:45</t>
+          <t>Tue 24 Feb05:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -572,12 +572,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Stewart Island</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -599,12 +599,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tue 24 Feb05:00</t>
+          <t>Thu 26 Feb05:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Stewart Island</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -641,27 +641,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Viking Orion</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Thu 26 Feb05:00</t>
+          <t>Thu 26 Feb06:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -683,37 +683,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Viking Orion</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Thu 26 Feb06:00</t>
+          <t>Thu 26 Feb08:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -725,37 +725,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Thu 26 Feb08:30</t>
+          <t>Fri 27 Feb04:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -767,27 +767,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fri 27 Feb04:45</t>
+          <t>Sat 28 Feb02:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>03:05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -809,27 +809,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sat 28 Feb02:15</t>
+          <t>Sat 28 Feb04:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>03:05</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -851,37 +851,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sat 28 Feb04:30</t>
+          <t>Sat 28 Feb12:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -893,37 +893,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sat 28 Feb12:00</t>
+          <t>Sun 1 Mar05:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -935,27 +935,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Crystal Serenity</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sun 1 Mar05:00</t>
+          <t>Sun 1 Mar06:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Athol Bay Anchorage (ATH4A)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -977,27 +977,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Crystal Serenity</t>
+          <t>Coral Princess</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sun 1 Mar06:00</t>
+          <t>Mon 2 Mar04:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Athol Bay Anchorage (ATH4A)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1019,27 +1019,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Coral Princess</t>
+          <t>Azamara Onward</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mon 2 Mar04:30</t>
+          <t>Mon 2 Mar06:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Azamara Onward</t>
+          <t>Amera</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1103,27 +1103,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Amera</t>
+          <t>MSC Magnifica</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mon 2 Mar06:00</t>
+          <t>Tue 3 Mar05:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MSC Magnifica</t>
+          <t>Queen Mary 2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tue 3 Mar05:00</t>
+          <t>Wed 4 Mar04:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1187,37 +1187,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Queen Mary 2</t>
+          <t>CSL Reliance</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Wed 4 Mar04:00</t>
+          <t>Wed 4 Mar12:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Bulk Carrier, Self-discharging</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1229,37 +1229,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CSL Reliance</t>
+          <t>Norwegian Spirit</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Wed 4 Mar12:00</t>
+          <t>Thu 5 Mar04:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bulk Carrier, Self-discharging</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1271,27 +1271,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Norwegian Spirit</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Thu 5 Mar04:00</t>
+          <t>Thu 5 Mar05:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1313,37 +1313,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Atlantic Dawn</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Thu 5 Mar05:00</t>
+          <t>Thu 5 Mar15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 1 (GLB1)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1355,79 +1355,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Atlantic Dawn</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Thu 5 Mar15:00</t>
+          <t>Fri 6 Mar05:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Port Arthur</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Glebe Island 1 (GLB1)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Zaandam</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Fri 6 Mar05:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>05:30</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Port Arthur</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Passenger/Cruise</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1500,12 +1458,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Maersk Inverness</t>
+          <t>OOCL Kuala Lumpur (PP)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 20 2026 12:30PM</t>
+          <t>Feb 20 2026  9:15PM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1515,12 +1473,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1537,27 +1495,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Coral Chief (SC)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 20 2026  5:45PM</t>
+          <t>Feb 21 2026  3:00AM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1574,27 +1532,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chang Hang Hao Hai</t>
+          <t>Kota Laris</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 20 2026  6:15PM</t>
+          <t>Feb 21 2026  4:30AM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1611,27 +1569,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ALS Hercules (PP)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 20 2026 11:00PM</t>
+          <t>Feb 21 2026  5:15AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1648,27 +1606,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OOCL Kuala Lumpur (PP)</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 20 2026 11:00PM</t>
+          <t>Feb 21 2026  5:30AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1685,27 +1643,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dynagreen</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 21 2026  3:45AM</t>
+          <t>Feb 21 2026  7:15AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bulk Grain 3</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1722,27 +1680,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Coral Chief (SC)</t>
+          <t>Norse Teshima</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 21 2026  4:30AM</t>
+          <t>Feb 21 2026  7:30AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1759,27 +1717,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kota Laris</t>
+          <t>Seagull (PP)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 21 2026  4:30AM</t>
+          <t>Feb 21 2026  7:30AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1796,27 +1754,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Seagull (PP)</t>
+          <t>ALS Hercules (PP)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feb 21 2026  4:30AM</t>
+          <t>Feb 21 2026  9:15AM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1833,27 +1791,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Dynagreen</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 21 2026  5:15AM</t>
+          <t>Feb 21 2026  1:15PM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Bulk Grain 3</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1870,27 +1828,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Crescent River (T)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 21 2026  5:30AM</t>
+          <t>Feb 21 2026  5:30PM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1907,27 +1865,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>CMA CGM Red (SC)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feb 21 2026  7:15AM</t>
+          <t>Feb 21 2026 11:00PM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1944,27 +1902,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Norse Teshima</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 21 2026 11:15AM</t>
+          <t>Feb 22 2026  4:26AM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -1981,27 +1939,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Crescent River (T)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feb 21 2026  5:30PM</t>
+          <t>Feb 22 2026  5:30AM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2018,27 +1976,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CMA CGM Red (SC)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feb 22 2026  2:31AM</t>
+          <t>Feb 22 2026  6:40AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2055,27 +2013,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Great Vanguard (SC)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feb 22 2026  4:26AM</t>
+          <t>Feb 22 2026  7:30AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2092,27 +2050,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Golden Axis (T)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feb 22 2026  5:30AM</t>
+          <t>Feb 22 2026  9:30AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Bluff</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Bay Anchorage inner</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2129,27 +2087,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>MSC Bay IV</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Feb 22 2026  6:40AM</t>
+          <t>Feb 22 2026  8:30PM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2166,27 +2124,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Great Vanguard (SC)</t>
+          <t>Esteem Houston (T)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Feb 22 2026  8:30AM</t>
+          <t>Feb 22 2026  9:30PM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2166,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feb 22 2026  9:35AM</t>
+          <t>Feb 22 2026 11:45PM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2223,7 +2181,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2240,27 +2198,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Golden Axis (T)</t>
+          <t>Meghna Star</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Feb 22 2026  2:30PM</t>
+          <t>Feb 23 2026  2:36AM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bluff</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bay Anchorage inner</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2277,27 +2235,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MSC Bay IV</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Feb 22 2026  8:30PM</t>
+          <t>Feb 23 2026  4:26AM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2314,27 +2272,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MSC Chulai III</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Feb 22 2026  8:30PM</t>
+          <t>Feb 23 2026  5:15AM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2351,27 +2309,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Esteem Houston (T)</t>
+          <t>Viking Orion (P)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Feb 22 2026  9:30PM</t>
+          <t>Feb 23 2026  6:30AM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2346,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>Oregon Highway</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Feb 22 2026 10:42PM</t>
+          <t>Feb 23 2026  7:30AM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2425,27 +2383,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Meghna Star</t>
+          <t>OOCL Canada (BM)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Feb 22 2026 11:35PM</t>
+          <t>Feb 23 2026  4:30PM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2462,27 +2420,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>CNC Jawa</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:26AM</t>
+          <t>Feb 23 2026  8:30PM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2499,27 +2457,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>APL New York (BM)</t>
+          <t>Altair Leader</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:30AM</t>
+          <t>Feb 24 2026  3:30AM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2536,27 +2494,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Kota Lambai</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:30AM</t>
+          <t>Feb 24 2026  4:26AM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2573,27 +2531,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:35AM</t>
+          <t>Feb 24 2026  5:30AM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2610,27 +2568,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Peter Faber</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Feb 23 2026  5:15AM</t>
+          <t>Feb 24 2026  7:30AM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2647,27 +2605,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Viking Orion (P)</t>
+          <t>OOCL Houston</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Feb 23 2026  6:30AM</t>
+          <t>Feb 24 2026 11:30AM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2684,27 +2642,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>OOCL Canada (BM)</t>
+          <t>YM Essence (PP)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:30PM</t>
+          <t>Feb 24 2026 12:30PM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Kaohsiung</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2721,27 +2679,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Oregon Highway</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Feb 23 2026  5:30PM</t>
+          <t>Feb 24 2026  2:35PM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2758,27 +2716,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Altair Leader</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Feb 23 2026  7:30PM</t>
+          <t>Feb 24 2026  5:26PM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2790,32 +2748,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CNC Jawa</t>
+          <t>AAL Brisbane (SC)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Feb 23 2026  8:30PM</t>
+          <t>2026-02-17 19:52:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Taicang</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2827,32 +2785,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Ac Kathryn</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Feb 24 2026  4:26AM</t>
+          <t>2026-02-19 12:21:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2864,22 +2822,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Peter Faber</t>
+          <t>Alani</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Feb 24 2026  4:30AM</t>
+          <t>2026-02-18 11:36:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2889,7 +2847,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2901,32 +2859,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Androklis</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:30AM</t>
+          <t>2026-02-17 06:03:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2943,27 +2901,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AAL Brisbane (SC)</t>
+          <t>Andromeda Spirit</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2026-02-17 19:52:00</t>
+          <t>2026-02-18 05:20:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Taicang</t>
+          <t>Port Moresby</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -2980,17 +2938,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ac Kathryn</t>
+          <t>APL New York (BM)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-02-19 12:21:00</t>
+          <t>2026-02-20 16:06:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3000,7 +2958,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3017,27 +2975,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Alani</t>
+          <t>Arcadia (P)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-02-18 11:36:00</t>
+          <t>2026-02-20 08:00:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3054,27 +3012,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Androklis</t>
+          <t>Broadgate</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-17 06:03:00</t>
+          <t>2026-02-18 16:40:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3091,27 +3049,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Andromeda Spirit</t>
+          <t>Cosco Aden</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-18 05:20:00</t>
+          <t>2026-02-17 07:40:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Port Moresby</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3128,27 +3086,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Arcadia (P)</t>
+          <t>Dione Leader</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-20 07:45:00</t>
+          <t>2026-02-17 22:00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3165,27 +3123,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Astro Altair (SC)</t>
+          <t>Golden Sagittarius (T)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-17 02:58:00</t>
+          <t>2026-02-17 13:12:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3202,27 +3160,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Broadgate</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-18 16:40:00</t>
+          <t>2026-02-20 09:50:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3239,27 +3197,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cosco Aden</t>
+          <t>Green Anax (T)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-17 07:40:00</t>
+          <t>2026-02-19 18:35:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Puerto Rosales/Bahia Blanca</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Geelong Refinery4</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3276,27 +3234,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Dione Leader</t>
+          <t>GSL Melita (PP)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-17 22:00:00</t>
+          <t>2026-02-18 20:10:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3313,27 +3271,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Golden Sagittarius (T)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-17 13:12:00</t>
+          <t>2026-02-20 06:45:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3350,12 +3308,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-16 17:07:00</t>
+          <t>2026-02-18 06:24:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3365,12 +3323,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3387,27 +3345,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Green Anax (T)</t>
+          <t>Maersk Inverness</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-19 18:35:00</t>
+          <t>2026-02-20 13:47:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Puerto Rosales/Bahia Blanca</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Geelong Refinery4</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3424,27 +3382,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GSL Melita (PP)</t>
+          <t>Morning Ninni</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-18 20:10:00</t>
+          <t>2026-02-19 03:20:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3461,27 +3419,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ile D'Yeu</t>
+          <t>Mount Aso</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-16 11:10:00</t>
+          <t>2026-02-19 11:20:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Kwinana</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Victoria Dock</t>
+          <t>Yarraville 5</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3498,27 +3456,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>MSC Anusha III</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-20 06:45:00</t>
+          <t>2026-02-18 10:05:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3535,27 +3493,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>MSC Jessenia R (SC)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-18 06:24:00</t>
+          <t>2026-02-19 03:58:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3572,27 +3530,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Morning Ninni</t>
+          <t>MSC Shahar</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-19 03:20:00</t>
+          <t>2026-02-20 00:42:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3609,27 +3567,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mount Aso</t>
+          <t>Nabucco</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-19 11:20:00</t>
+          <t>2026-02-20 01:20:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Kwinana</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Yarraville 5</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3646,12 +3604,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MSC Anusha III</t>
+          <t>Noordam (P)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-18 10:05:00</t>
+          <t>2026-02-17 08:17:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3661,12 +3619,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3683,12 +3641,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MSC Jessenia R (SC)</t>
+          <t>OOCL Miami (PP)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-19 03:58:00</t>
+          <t>2026-02-17 04:52:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3703,7 +3661,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3720,12 +3678,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MSC Shahar</t>
+          <t>Paradise Ace</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-20 00:42:00</t>
+          <t>2026-02-18 00:47:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3735,12 +3693,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3757,27 +3715,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nabucco</t>
+          <t>Pride C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-20 01:20:00</t>
+          <t>2026-02-19 16:45:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3794,27 +3752,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Noordam (P)</t>
+          <t>Rong Hua Wan (T)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-17 08:17:00</t>
+          <t>2026-02-18 14:23:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3831,27 +3789,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>OOCL Miami (PP)</t>
+          <t>Ruby Ace</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-17 04:52:00</t>
+          <t>2026-02-20 09:05:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3868,27 +3826,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Paradise Ace</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-18 00:47:00</t>
+          <t>2026-02-19 07:06:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3905,27 +3863,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Pride C</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-19 16:45:00</t>
+          <t>2026-02-17 06:54:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3942,27 +3900,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Rong Hua Wan (T)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-18 14:23:00</t>
+          <t>2026-02-20 05:58:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -3979,12 +3937,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-17 06:54:00</t>
+          <t>2026-02-17 08:30:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3994,12 +3952,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -4016,12 +3974,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-19 07:06:00</t>
+          <t>2026-02-18 19:22:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4031,12 +3989,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -4053,27 +4011,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Seaspan Hamburg</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-16 14:36:00</t>
+          <t>2026-02-18 06:25:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -4090,12 +4048,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-20 05:58:00</t>
+          <t>2026-02-19 08:16:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4110,7 +4068,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -4127,27 +4085,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Taokas Wisdom (SC)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-17 08:30:00</t>
+          <t>2026-02-19 13:20:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -4164,27 +4122,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-18 19:22:00</t>
+          <t>2026-02-19 05:33:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -4201,27 +4159,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-19 08:16:00</t>
+          <t>2026-02-17 06:00:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -4238,27 +4196,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>TP Endurance (T)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-16 18:27:00</t>
+          <t>2026-02-20 03:56:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Esperance</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -4275,27 +4233,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>TS Mundra (PP)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-18 06:25:00</t>
+          <t>2026-02-17 22:05:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -4312,27 +4270,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>STI Symphony (T)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-16 12:36:00</t>
+          <t>2026-02-18 05:42:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Gellibrand Pier Berth</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -4349,27 +4307,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Taokas Wisdom (SC)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-19 13:20:00</t>
+          <t>2026-02-20 05:43:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -4386,27 +4344,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Viking Venus (P)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-19 05:33:00</t>
+          <t>2026-02-19 07:04:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -4423,27 +4381,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Xin Lan Zhou (PP)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-17 06:00:00</t>
+          <t>2026-02-20 06:00:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -4460,286 +4418,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>TP Endurance (T)</t>
+          <t>YM Evolution (PP)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-20 03:56:00</t>
+          <t>2026-02-19 14:20:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Esperance</t>
+          <t>Kaohsiung</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Trans Leader</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2026-02-16 11:17:00</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Port Kembla</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Webb Dock 3 West</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2026-02-20 09:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>TS Mundra (PP)</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2026-02-17 22:05:00</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Swanson West 2</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>2026-02-20 09:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Victorian Reliance II</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2026-02-20 05:43:00</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Burnie</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Webb Dock 1 East</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>2026-02-20 09:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Victorian Reliance II</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2026-02-18 05:42:00</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Burnie</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Webb Dock 1 East</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2026-02-20 09:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Viking Venus (P)</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2026-02-19 07:04:00</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Hobart</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Station Pier Outer West</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>2026-02-20 09:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Xin Lan Zhou (PP)</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2026-02-20 06:00:00</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Webb Dock 5 East</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>2026-02-20 09:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>YM Evolution (PP)</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:20:00</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Kaohsiung</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Swanson West 2</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>
@@ -4772,7 +4471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-20 09:00</t>
+          <t>2026-02-20 18:38</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -473,37 +473,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sun 22 Feb09:30</t>
+          <t>Mon 23 Feb04:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>04:45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -515,12 +515,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Seabourn Sojourn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 23 Feb04:45</t>
+          <t>Tue 24 Feb05:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -530,12 +530,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Stewart Island</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -557,12 +557,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tue 24 Feb05:00</t>
+          <t>Thu 26 Feb05:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Stewart Island</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -599,27 +599,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Viking Orion</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Thu 26 Feb05:00</t>
+          <t>Thu 26 Feb06:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -641,37 +641,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Viking Orion</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Thu 26 Feb06:00</t>
+          <t>Thu 26 Feb08:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -683,37 +683,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Thu 26 Feb08:30</t>
+          <t>Fri 27 Feb04:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -725,27 +725,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fri 27 Feb04:45</t>
+          <t>Sat 28 Feb02:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>03:05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -767,27 +767,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sat 28 Feb02:15</t>
+          <t>Sat 28 Feb04:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>03:05</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -809,37 +809,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sat 28 Feb04:30</t>
+          <t>Sat 28 Feb12:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -851,37 +851,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sat 28 Feb12:00</t>
+          <t>Sun 1 Mar05:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -893,27 +893,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Crystal Serenity</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sun 1 Mar05:00</t>
+          <t>Sun 1 Mar06:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Athol Bay Anchorage (ATH4A)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -935,27 +935,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Crystal Serenity</t>
+          <t>Coral Princess</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sun 1 Mar06:00</t>
+          <t>Mon 2 Mar04:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Athol Bay Anchorage (ATH4A)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -977,27 +977,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Coral Princess</t>
+          <t>Azamara Onward</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mon 2 Mar04:30</t>
+          <t>Mon 2 Mar06:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Azamara Onward</t>
+          <t>Amera</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1061,27 +1061,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Amera</t>
+          <t>MSC Magnifica</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mon 2 Mar06:00</t>
+          <t>Tue 3 Mar05:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1103,22 +1103,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MSC Magnifica</t>
+          <t>Queen Mary 2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tue 3 Mar05:00</t>
+          <t>Wed 4 Mar04:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1145,37 +1145,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Queen Mary 2</t>
+          <t>CSL Reliance</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wed 4 Mar04:00</t>
+          <t>Wed 4 Mar12:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Bulk Carrier, Self-discharging</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1187,37 +1187,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CSL Reliance</t>
+          <t>Norwegian Spirit</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Wed 4 Mar12:00</t>
+          <t>Thu 5 Mar04:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bulk Carrier, Self-discharging</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1229,27 +1229,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Norwegian Spirit</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Thu 5 Mar04:00</t>
+          <t>Thu 5 Mar05:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1271,37 +1271,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Atlantic Dawn</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Thu 5 Mar05:00</t>
+          <t>Thu 5 Mar15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 1 (GLB1)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1313,37 +1313,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Atlantic Dawn</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Thu 5 Mar15:00</t>
+          <t>Fri 6 Mar05:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Port Arthur</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Glebe Island 1 (GLB1)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1355,27 +1355,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fri 6 Mar05:00</t>
+          <t>Sat 7 Mar05:15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Port Arthur</t>
+          <t>Opua</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,27 +1458,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>OOCL Kuala Lumpur (PP)</t>
+          <t>Dynagreen</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 20 2026  9:15PM</t>
+          <t>Feb 21 2026  1:15PM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Bulk Grain 3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1495,27 +1495,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Coral Chief (SC)</t>
+          <t>Crescent River (T)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 21 2026  3:00AM</t>
+          <t>Feb 21 2026  5:30PM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1532,27 +1532,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kota Laris</t>
+          <t>CMA CGM Red (SC)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 21 2026  4:30AM</t>
+          <t>Feb 21 2026 11:00PM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1569,27 +1569,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 21 2026  5:15AM</t>
+          <t>Feb 22 2026  4:45AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 21 2026  5:30AM</t>
+          <t>Feb 22 2026  5:30AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1643,27 +1643,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 21 2026  7:15AM</t>
+          <t>Feb 22 2026  6:40AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1680,27 +1680,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Norse Teshima</t>
+          <t>Great Vanguard (SC)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 21 2026  7:30AM</t>
+          <t>Feb 22 2026  7:30AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1717,27 +1717,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Seagull (PP)</t>
+          <t>Golden Axis (T)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 21 2026  7:30AM</t>
+          <t>Feb 22 2026  9:30AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Bluff</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Bay Anchorage inner</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1754,27 +1754,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ALS Hercules (PP)</t>
+          <t>MSC Bay IV</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feb 21 2026  9:15AM</t>
+          <t>Feb 22 2026  8:30PM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1791,27 +1791,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dynagreen</t>
+          <t>Esteem Houston (T)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 21 2026  1:15PM</t>
+          <t>Feb 22 2026  9:30PM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bulk Grain 3</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1828,27 +1828,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Crescent River (T)</t>
+          <t>Latika Naree</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 21 2026  5:30PM</t>
+          <t>Feb 22 2026 11:45PM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1865,27 +1865,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CMA CGM Red (SC)</t>
+          <t>Meghna Star</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feb 21 2026 11:00PM</t>
+          <t>Feb 23 2026  2:36AM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1902,12 +1902,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 22 2026  4:26AM</t>
+          <t>Feb 23 2026  4:26AM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1939,27 +1939,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feb 22 2026  5:30AM</t>
+          <t>Feb 23 2026  5:15AM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -1976,27 +1976,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Viking Orion (P)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feb 22 2026  6:40AM</t>
+          <t>Feb 23 2026  6:30AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2013,27 +2013,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Great Vanguard (SC)</t>
+          <t>Oregon Highway</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feb 22 2026  7:30AM</t>
+          <t>Feb 23 2026  7:30AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2050,27 +2050,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Golden Axis (T)</t>
+          <t>OOCL Canada (BM)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feb 22 2026  9:30AM</t>
+          <t>Feb 23 2026  4:30PM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bluff</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bay Anchorage inner</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2087,27 +2087,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MSC Bay IV</t>
+          <t>CNC Jawa</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Feb 22 2026  8:30PM</t>
+          <t>Feb 23 2026  8:30PM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2124,27 +2124,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Esteem Houston (T)</t>
+          <t>Papora Wisdom</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Feb 22 2026  9:30PM</t>
+          <t>Feb 24 2026  1:35AM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Higashishioya</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2161,27 +2161,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Latika Naree</t>
+          <t>Altair Leader</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feb 22 2026 11:45PM</t>
+          <t>Feb 24 2026  3:30AM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2198,27 +2198,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Meghna Star</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Feb 23 2026  2:36AM</t>
+          <t>Feb 24 2026  4:26AM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2235,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:26AM</t>
+          <t>Feb 24 2026  5:30AM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2250,12 +2250,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2272,27 +2272,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Peter Faber</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Feb 23 2026  5:15AM</t>
+          <t>Feb 24 2026  7:30AM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2309,27 +2309,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Viking Orion (P)</t>
+          <t>OOCL Houston</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Feb 23 2026  6:30AM</t>
+          <t>Feb 24 2026 11:30AM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2346,27 +2346,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Oregon Highway</t>
+          <t>YM Essence (PP)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Feb 23 2026  7:30AM</t>
+          <t>Feb 24 2026 12:30PM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Kaohsiung</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2383,27 +2383,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>OOCL Canada (BM)</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:30PM</t>
+          <t>Feb 24 2026  2:35PM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CNC Jawa</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Feb 23 2026  8:30PM</t>
+          <t>Feb 24 2026  5:26PM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2457,27 +2457,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Altair Leader</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Feb 24 2026  3:30AM</t>
+          <t>Feb 24 2026 10:42PM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2494,27 +2494,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Esprit Lotus</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Feb 24 2026  4:26AM</t>
+          <t>Feb 25 2026  1:35AM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Kinuura</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Corio Quay North 4</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2531,27 +2531,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>CSAV Rio Nevado</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:30AM</t>
+          <t>Feb 25 2026  4:30AM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2568,27 +2568,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Peter Faber</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Feb 24 2026  7:30AM</t>
+          <t>Feb 25 2026  5:15AM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2605,27 +2605,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>OOCL Houston</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Feb 24 2026 11:30AM</t>
+          <t>Feb 25 2026  5:30AM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2642,27 +2642,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>YM Essence (PP)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Feb 24 2026 12:30PM</t>
+          <t>Feb 25 2026  6:56AM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Kaohsiung</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2674,32 +2674,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>AAL Brisbane (SC)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Feb 24 2026  2:35PM</t>
+          <t>2026-02-17 19:52:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Taicang</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2711,32 +2711,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Ac Kathryn</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:26PM</t>
+          <t>2026-02-19 12:21:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2753,27 +2753,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AAL Brisbane (SC)</t>
+          <t>Alani</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2026-02-17 19:52:00</t>
+          <t>2026-02-18 11:36:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Taicang</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2790,17 +2790,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ac Kathryn</t>
+          <t>Andromeda Spirit</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2026-02-19 12:21:00</t>
+          <t>2026-02-18 05:20:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Port Moresby</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2827,17 +2827,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Alani</t>
+          <t>APL New York (BM)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2026-02-18 11:36:00</t>
+          <t>2026-02-20 16:06:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2864,27 +2864,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Androklis</t>
+          <t>Arcadia (P)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2026-02-17 06:03:00</t>
+          <t>2026-02-20 08:00:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2901,27 +2901,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Andromeda Spirit</t>
+          <t>Broadgate</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2026-02-18 05:20:00</t>
+          <t>2026-02-18 16:40:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Port Moresby</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2938,27 +2938,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>APL New York (BM)</t>
+          <t>Chang Hang Hao Hai</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-02-20 16:06:00</t>
+          <t>2026-02-20 20:17:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -2975,27 +2975,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Arcadia (P)</t>
+          <t>Coral Chief (SC)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-02-20 08:00:00</t>
+          <t>2026-02-21 04:12:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3012,27 +3012,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Broadgate</t>
+          <t>Dione Leader</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-18 16:40:00</t>
+          <t>2026-02-17 22:00:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3049,27 +3049,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cosco Aden</t>
+          <t>Golden Sagittarius (T)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-17 07:40:00</t>
+          <t>2026-02-17 13:12:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3086,27 +3086,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Dione Leader</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-17 22:00:00</t>
+          <t>2026-02-20 09:50:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3123,27 +3123,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Golden Sagittarius (T)</t>
+          <t>Green Anax (T)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-17 13:12:00</t>
+          <t>2026-02-19 18:35:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Puerto Rosales/Bahia Blanca</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Geelong Refinery4</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3160,27 +3160,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>GSL Melita (PP)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-20 09:50:00</t>
+          <t>2026-02-18 20:10:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3197,27 +3197,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Green Anax (T)</t>
+          <t>Kota Laris</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-19 18:35:00</t>
+          <t>2026-02-21 06:02:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Puerto Rosales/Bahia Blanca</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Geelong Refinery4</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3234,27 +3234,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GSL Melita (PP)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-18 20:10:00</t>
+          <t>2026-02-18 06:24:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3308,27 +3308,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Maersk Inverness</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-18 06:24:00</t>
+          <t>2026-02-20 13:47:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3345,27 +3345,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Maersk Inverness</t>
+          <t>Morning Ninni</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-20 13:47:00</t>
+          <t>2026-02-19 03:20:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3382,27 +3382,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Morning Ninni</t>
+          <t>Mount Aso</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-19 03:20:00</t>
+          <t>2026-02-19 11:20:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Kwinana</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Yarraville 5</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3419,27 +3419,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mount Aso</t>
+          <t>MSC Anusha III</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-19 11:20:00</t>
+          <t>2026-02-18 10:05:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Kwinana</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Yarraville 5</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3456,12 +3456,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MSC Anusha III</t>
+          <t>MSC Jessenia R (SC)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-18 10:05:00</t>
+          <t>2026-02-19 03:58:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3471,12 +3471,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3493,17 +3493,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MSC Jessenia R (SC)</t>
+          <t>MSC Shahar</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-19 03:58:00</t>
+          <t>2026-02-20 00:42:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3530,12 +3530,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MSC Shahar</t>
+          <t>Nabucco</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-20 00:42:00</t>
+          <t>2026-02-20 01:20:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3545,12 +3545,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3567,27 +3567,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Nabucco</t>
+          <t>OOCL Kuala Lumpur (PP)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-20 01:20:00</t>
+          <t>2026-02-20 23:20:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3604,27 +3604,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Noordam (P)</t>
+          <t>Paradise Ace</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-17 08:17:00</t>
+          <t>2026-02-18 00:47:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3641,27 +3641,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>OOCL Miami (PP)</t>
+          <t>Pride C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-17 04:52:00</t>
+          <t>2026-02-19 16:45:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3678,27 +3678,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Paradise Ace</t>
+          <t>Rong Hua Wan (T)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-18 00:47:00</t>
+          <t>2026-02-18 14:23:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3715,27 +3715,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Pride C</t>
+          <t>Ruby Ace</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-19 16:45:00</t>
+          <t>2026-02-20 09:05:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3752,27 +3752,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Rong Hua Wan (T)</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-18 14:23:00</t>
+          <t>2026-02-19 07:06:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3789,27 +3789,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ruby Ace</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-20 09:05:00</t>
+          <t>2026-02-20 05:58:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3826,12 +3826,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-19 07:06:00</t>
+          <t>2026-02-18 19:22:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3841,12 +3841,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3863,12 +3863,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-17 06:54:00</t>
+          <t>2026-02-19 08:16:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3878,12 +3878,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3900,12 +3900,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-20 05:58:00</t>
+          <t>2026-02-20 18:42:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3937,12 +3937,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-17 08:30:00</t>
+          <t>2026-02-18 06:25:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -3974,27 +3974,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Taokas Wisdom (SC)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-18 19:22:00</t>
+          <t>2026-02-19 13:20:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -4011,27 +4011,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-18 06:25:00</t>
+          <t>2026-02-21 05:44:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -4048,27 +4048,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-19 08:16:00</t>
+          <t>2026-02-19 05:33:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -4085,27 +4085,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Taokas Wisdom (SC)</t>
+          <t>TP Endurance (T)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-19 13:20:00</t>
+          <t>2026-02-20 03:56:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Esperance</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -4122,27 +4122,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>TS Mundra (PP)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-19 05:33:00</t>
+          <t>2026-02-17 22:05:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-17 06:00:00</t>
+          <t>2026-02-20 05:43:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -4196,27 +4196,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>TP Endurance (T)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-20 03:56:00</t>
+          <t>2026-02-18 05:42:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Esperance</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -4233,27 +4233,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>TS Mundra (PP)</t>
+          <t>Viking Venus (P)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-17 22:05:00</t>
+          <t>2026-02-19 07:04:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -4270,27 +4270,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Xin Lan Zhou (PP)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-18 05:42:00</t>
+          <t>2026-02-20 06:00:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -4307,138 +4307,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>YM Evolution (PP)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-20 05:43:00</t>
+          <t>2026-02-19 14:20:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Kaohsiung</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Viking Venus (P)</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2026-02-19 07:04:00</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Hobart</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Station Pier Outer West</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>2026-02-20 18:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Xin Lan Zhou (PP)</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2026-02-20 06:00:00</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Webb Dock 5 East</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2026-02-20 18:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>YM Evolution (PP)</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:20:00</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Kaohsiung</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Swanson West 2</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4360,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-20 18:38</t>
+          <t>2026-02-21 08:52</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,37 +473,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Engage Tugs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 23 Feb04:00</t>
+          <t>Mon 23 Feb00:01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>White Bay 3 (WHT3)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Tug</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -515,27 +515,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tue 24 Feb05:00</t>
+          <t>Mon 23 Feb04:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>04:45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Stewart Island</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -557,12 +557,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Seabourn Sojourn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Thu 26 Feb05:00</t>
+          <t>Tue 24 Feb05:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Stewart Island</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -599,27 +599,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Viking Orion</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Thu 26 Feb06:00</t>
+          <t>Thu 26 Feb05:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -641,37 +641,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Viking Orion</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Thu 26 Feb08:30</t>
+          <t>Thu 26 Feb06:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -683,37 +683,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fri 27 Feb04:45</t>
+          <t>Thu 26 Feb08:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -725,27 +725,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sat 28 Feb02:15</t>
+          <t>Fri 27 Feb04:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>03:05</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -767,27 +767,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sat 28 Feb04:30</t>
+          <t>Sat 28 Feb02:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>03:05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -809,37 +809,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sat 28 Feb12:00</t>
+          <t>Sat 28 Feb04:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -851,37 +851,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sun 1 Mar05:00</t>
+          <t>Sat 28 Feb12:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -893,27 +893,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Crystal Serenity</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sun 1 Mar06:00</t>
+          <t>Sun 1 Mar05:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Athol Bay Anchorage (ATH4A)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -935,27 +935,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Coral Princess</t>
+          <t>Crystal Serenity</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mon 2 Mar04:30</t>
+          <t>Sun 1 Mar06:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Athol Bay Anchorage (ATH4A)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -977,27 +977,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Azamara Onward</t>
+          <t>Coral Princess</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mon 2 Mar06:00</t>
+          <t>Mon 2 Mar04:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1024,12 +1024,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mon 2 Mar06:00</t>
+          <t>Mon 2 Mar05:45</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1061,27 +1061,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MSC Magnifica</t>
+          <t>Azamara Onward</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tue 3 Mar05:00</t>
+          <t>Mon 2 Mar06:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1103,22 +1103,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Queen Mary 2</t>
+          <t>MSC Magnifica</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Wed 4 Mar04:00</t>
+          <t>Tue 3 Mar05:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1145,37 +1145,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CSL Reliance</t>
+          <t>Queen Mary 2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wed 4 Mar12:00</t>
+          <t>Wed 4 Mar04:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bulk Carrier, Self-discharging</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1187,37 +1187,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Norwegian Spirit</t>
+          <t>CSL Reliance</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Thu 5 Mar04:00</t>
+          <t>Wed 4 Mar12:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Bulk Carrier, Self-discharging</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1229,27 +1229,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Norwegian Spirit</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Thu 5 Mar05:00</t>
+          <t>Thu 5 Mar04:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1271,37 +1271,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Atlantic Dawn</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Thu 5 Mar15:00</t>
+          <t>Thu 5 Mar05:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Glebe Island 1 (GLB1)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1313,37 +1313,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Atlantic Dawn</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fri 6 Mar05:00</t>
+          <t>Thu 5 Mar15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Port Arthur</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 1 (GLB1)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1355,37 +1355,79 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Zaandam</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fri 6 Mar05:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>05:30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Port Arthur</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Overseas Passenger Terminal (SCPT)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Passenger/Cruise</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Volendam</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Sat 7 Mar05:15</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>06:00</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Opua</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Passenger/Cruise</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2026-02-21 08:52</t>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,27 +1500,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dynagreen</t>
+          <t>Crescent River (T)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 21 2026  1:15PM</t>
+          <t>Feb 21 2026  7:15PM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bulk Grain 3</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1495,27 +1537,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Crescent River (T)</t>
+          <t>CMA CGM Red (SC)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 21 2026  5:30PM</t>
+          <t>Feb 22 2026 12:00AM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1532,27 +1574,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CMA CGM Red (SC)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 21 2026 11:00PM</t>
+          <t>Feb 22 2026  4:45AM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1569,12 +1611,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 22 2026  4:45AM</t>
+          <t>Feb 22 2026  5:30AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1584,12 +1626,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1606,27 +1648,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 22 2026  5:30AM</t>
+          <t>Feb 22 2026  6:40AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1643,27 +1685,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Great Vanguard (SC)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 22 2026  6:40AM</t>
+          <t>Feb 22 2026  8:00AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1680,27 +1722,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Great Vanguard (SC)</t>
+          <t>Golden Axis (T)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 22 2026  7:30AM</t>
+          <t>Feb 22 2026  9:30AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Bluff</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>Bay Anchorage inner</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1717,27 +1759,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Golden Axis (T)</t>
+          <t>MSC Bay IV</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 22 2026  9:30AM</t>
+          <t>Feb 22 2026  4:30PM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bluff</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bay Anchorage inner</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1796,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MSC Bay IV</t>
+          <t>Esteem Houston (T)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1764,17 +1806,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1791,27 +1833,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Esteem Houston (T)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 22 2026  9:30PM</t>
+          <t>Feb 23 2026  4:45AM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1875,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 22 2026 11:45PM</t>
+          <t>Feb 23 2026  5:15AM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1848,7 +1890,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1865,27 +1907,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Meghna Star</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feb 23 2026  2:36AM</t>
+          <t>Feb 23 2026  5:15AM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1902,27 +1944,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Viking Orion (P)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:26AM</t>
+          <t>Feb 23 2026  6:30AM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1939,27 +1981,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Oregon Highway</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feb 23 2026  5:15AM</t>
+          <t>Feb 23 2026  7:30AM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -1976,27 +2018,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Viking Orion (P)</t>
+          <t>Meghna Star</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feb 23 2026  6:30AM</t>
+          <t>Feb 23 2026 10:45AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2013,27 +2055,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Oregon Highway</t>
+          <t>OOCL Canada (BM)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feb 23 2026  7:30AM</t>
+          <t>Feb 23 2026  4:30PM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2050,27 +2092,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>OOCL Canada (BM)</t>
+          <t>CNC Jawa</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:30PM</t>
+          <t>Feb 23 2026  8:30PM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2087,27 +2129,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CNC Jawa</t>
+          <t>Papora Wisdom</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Feb 23 2026  8:30PM</t>
+          <t>Feb 24 2026 12:35AM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Higashishioya</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2124,27 +2166,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Papora Wisdom</t>
+          <t>Altair Leader</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Feb 24 2026  1:35AM</t>
+          <t>Feb 24 2026  3:30AM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Higashishioya</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2161,27 +2203,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Altair Leader</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feb 24 2026  3:30AM</t>
+          <t>Feb 24 2026  4:26AM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2198,12 +2240,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Feb 24 2026  4:26AM</t>
+          <t>Feb 24 2026  5:30AM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2213,12 +2255,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2235,27 +2277,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Peter Faber</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:30AM</t>
+          <t>Feb 24 2026  7:30AM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2272,27 +2314,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Peter Faber</t>
+          <t>OOCL Houston</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Feb 24 2026  7:30AM</t>
+          <t>Feb 24 2026 11:30AM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2309,27 +2351,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>OOCL Houston</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Feb 24 2026 11:30AM</t>
+          <t>Feb 24 2026 11:35AM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2408,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2383,27 +2425,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Feb 24 2026  2:35PM</t>
+          <t>Feb 24 2026  5:26PM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2462,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:26PM</t>
+          <t>Feb 24 2026 10:42PM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2457,27 +2499,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>Esprit Lotus</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Feb 24 2026 10:42PM</t>
+          <t>Feb 25 2026  1:35AM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Kinuura</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Corio Quay North 4</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2494,27 +2536,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Esprit Lotus</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Feb 25 2026  1:35AM</t>
+          <t>Feb 25 2026  5:15AM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Kinuura</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Corio Quay North 4</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2531,27 +2573,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CSAV Rio Nevado</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Feb 25 2026  4:30AM</t>
+          <t>Feb 25 2026  5:30AM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2568,27 +2610,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Feb 25 2026  5:15AM</t>
+          <t>Feb 25 2026  6:56AM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2605,27 +2647,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>MSC Star R (SC)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Feb 25 2026  5:30AM</t>
+          <t>Feb 25 2026 10:30AM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2642,27 +2684,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Kota Lambai</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Feb 25 2026  6:56AM</t>
+          <t>Feb 25 2026  1:30PM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2674,22 +2716,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AAL Brisbane (SC)</t>
+          <t>Positive Leader</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2026-02-17 19:52:00</t>
+          <t>Feb 25 2026  1:30PM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Taicang</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2699,7 +2741,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2711,32 +2753,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ac Kathryn</t>
+          <t>Adelie</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2026-02-19 12:21:00</t>
+          <t>Feb 25 2026  2:00PM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Yarraville 5</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2748,32 +2790,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Alani</t>
+          <t>Cape Bonavista</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2026-02-18 11:36:00</t>
+          <t>Feb 25 2026  3:30PM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2785,32 +2827,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Andromeda Spirit</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2026-02-18 05:20:00</t>
+          <t>Feb 25 2026  3:35PM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Port Moresby</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2827,27 +2869,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>APL New York (BM)</t>
+          <t>AAL Brisbane (SC)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2026-02-20 16:06:00</t>
+          <t>2026-02-17 19:52:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Taicang</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2864,27 +2906,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Arcadia (P)</t>
+          <t>Ac Kathryn</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2026-02-20 08:00:00</t>
+          <t>2026-02-19 12:21:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2901,27 +2943,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Broadgate</t>
+          <t>Alani</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2026-02-18 16:40:00</t>
+          <t>2026-02-18 11:36:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2938,27 +2980,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Chang Hang Hao Hai</t>
+          <t>ALS Hercules (PP)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-02-20 20:17:00</t>
+          <t>2026-02-21 12:20:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -2975,27 +3017,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Coral Chief (SC)</t>
+          <t>Andromeda Spirit</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-02-21 04:12:00</t>
+          <t>2026-02-18 05:20:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Moresby</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3012,27 +3054,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Dione Leader</t>
+          <t>APL New York (BM)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-17 22:00:00</t>
+          <t>2026-02-20 16:06:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3049,27 +3091,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Golden Sagittarius (T)</t>
+          <t>Arcadia (P)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-17 13:12:00</t>
+          <t>2026-02-20 08:00:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3086,27 +3128,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Broadgate</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-20 09:50:00</t>
+          <t>2026-02-18 16:40:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3123,27 +3165,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Green Anax (T)</t>
+          <t>Chang Hang Hao Hai</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-19 18:35:00</t>
+          <t>2026-02-20 20:17:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Puerto Rosales/Bahia Blanca</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Geelong Refinery4</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3160,27 +3202,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GSL Melita (PP)</t>
+          <t>Coral Chief (SC)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-18 20:10:00</t>
+          <t>2026-02-21 04:12:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3197,27 +3239,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Kota Laris</t>
+          <t>Dione Leader</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-21 06:02:00</t>
+          <t>2026-02-17 22:00:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3234,27 +3276,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Dynagreen</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-18 06:24:00</t>
+          <t>2026-02-21 15:15:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Bulk Grain 3</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3271,12 +3313,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-20 06:45:00</t>
+          <t>2026-02-20 09:50:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3286,12 +3328,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3308,27 +3350,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Maersk Inverness</t>
+          <t>Green Anax (T)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-20 13:47:00</t>
+          <t>2026-02-19 18:35:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Puerto Rosales/Bahia Blanca</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Geelong Refinery4</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3345,27 +3387,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Morning Ninni</t>
+          <t>GSL Melita (PP)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-19 03:20:00</t>
+          <t>2026-02-18 20:10:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3382,27 +3424,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mount Aso</t>
+          <t>Kota Laris</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-19 11:20:00</t>
+          <t>2026-02-21 06:02:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Kwinana</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Yarraville 5</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3419,27 +3461,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MSC Anusha III</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-18 10:05:00</t>
+          <t>2026-02-18 06:24:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3456,27 +3498,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MSC Jessenia R (SC)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-19 03:58:00</t>
+          <t>2026-02-20 06:45:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3493,27 +3535,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MSC Shahar</t>
+          <t>Maersk Inverness</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-20 00:42:00</t>
+          <t>2026-02-20 13:47:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3530,17 +3572,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Nabucco</t>
+          <t>Morning Ninni</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-20 01:20:00</t>
+          <t>2026-02-19 03:20:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3550,7 +3592,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3567,27 +3609,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>OOCL Kuala Lumpur (PP)</t>
+          <t>Mount Aso</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-20 23:20:00</t>
+          <t>2026-02-19 11:20:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Kwinana</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Yarraville 5</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3604,27 +3646,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Paradise Ace</t>
+          <t>MSC Anusha III</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-18 00:47:00</t>
+          <t>2026-02-18 10:05:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3641,27 +3683,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Pride C</t>
+          <t>MSC Jessenia R (SC)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-19 16:45:00</t>
+          <t>2026-02-19 03:58:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3678,27 +3720,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Rong Hua Wan (T)</t>
+          <t>MSC Shahar</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-18 14:23:00</t>
+          <t>2026-02-20 00:42:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3715,27 +3757,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ruby Ace</t>
+          <t>Nabucco</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-20 09:05:00</t>
+          <t>2026-02-20 01:20:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3752,27 +3794,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Norse Teshima</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-19 07:06:00</t>
+          <t>2026-02-21 09:51:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3789,27 +3831,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>OOCL Kuala Lumpur (PP)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-20 05:58:00</t>
+          <t>2026-02-20 23:20:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3826,27 +3868,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Paradise Ace</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-18 19:22:00</t>
+          <t>2026-02-18 00:47:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3863,27 +3905,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Pride C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-19 08:16:00</t>
+          <t>2026-02-19 16:45:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3900,27 +3942,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Rong Hua Wan (T)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-20 18:42:00</t>
+          <t>2026-02-18 14:23:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3937,27 +3979,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Ruby Ace</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-18 06:25:00</t>
+          <t>2026-02-20 09:05:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -3974,27 +4016,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Taokas Wisdom (SC)</t>
+          <t>Seagull (PP)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-19 13:20:00</t>
+          <t>2026-02-21 09:42:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -4011,27 +4053,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-21 05:44:00</t>
+          <t>2026-02-19 07:06:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -4048,27 +4090,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-19 05:33:00</t>
+          <t>2026-02-21 11:26:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -4085,27 +4127,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TP Endurance (T)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-20 03:56:00</t>
+          <t>2026-02-21 08:33:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Esperance</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -4122,27 +4164,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TS Mundra (PP)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-17 22:05:00</t>
+          <t>2026-02-18 19:22:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -4159,27 +4201,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-20 05:43:00</t>
+          <t>2026-02-20 05:58:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -4196,27 +4238,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-18 05:42:00</t>
+          <t>2026-02-18 06:25:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -4233,27 +4275,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Viking Venus (P)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-19 07:04:00</t>
+          <t>2026-02-19 08:16:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -4270,27 +4312,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Xin Lan Zhou (PP)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-20 06:00:00</t>
+          <t>2026-02-20 18:42:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -4307,27 +4349,360 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>Taokas Wisdom (SC)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2026-02-19 13:20:00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Bay Anchorage Outer</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Tasmanian Achiever 2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2026-02-19 05:33:00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Tasmanian Achiever 2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2026-02-21 05:44:00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>TP Endurance (T)</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2026-02-20 03:56:00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Esperance</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Holden Dock</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>TS Mundra (PP)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2026-02-17 22:05:00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Swanson West 2</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Victorian Reliance II</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2026-02-20 05:43:00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Victorian Reliance II</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2026-02-18 05:42:00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Viking Venus (P)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2026-02-19 07:04:00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Hobart</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Station Pier Outer West</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Xin Lan Zhou (PP)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2026-02-20 06:00:00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Webb Dock 5 East</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>YM Evolution (PP)</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>2026-02-19 14:20:00</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>Kaohsiung</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Swanson West 2</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>2026-02-21 08:52</t>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4735,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-21 08:52</t>
+          <t>2026-02-21 18:06</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,37 +473,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Engage Tugs</t>
+          <t>Seabourn Sojourn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 23 Feb00:01</t>
+          <t>Tue 24 Feb05:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Stewart Island</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>White Bay 3 (WHT3)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tug</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -515,27 +515,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 23 Feb04:00</t>
+          <t>Thu 26 Feb05:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -557,27 +557,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn</t>
+          <t>Viking Orion</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tue 24 Feb05:00</t>
+          <t>Thu 26 Feb06:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Stewart Island</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -599,37 +599,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Thu 26 Feb05:00</t>
+          <t>Thu 26 Feb08:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -641,27 +641,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Viking Orion</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Thu 26 Feb06:00</t>
+          <t>Fri 27 Feb04:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -683,37 +683,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Thu 26 Feb08:30</t>
+          <t>Sat 28 Feb02:15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>03:05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fri 27 Feb04:45</t>
+          <t>Sat 28 Feb04:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -767,37 +767,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sat 28 Feb02:15</t>
+          <t>Sat 28 Feb12:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>03:05</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -809,22 +809,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sat 28 Feb04:30</t>
+          <t>Sun 1 Mar05:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -851,37 +851,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Crystal Serenity</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sat 28 Feb12:00</t>
+          <t>Sun 1 Mar06:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Athol Bay Anchorage (ATH4A)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -893,22 +893,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Coral Princess</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sun 1 Mar05:00</t>
+          <t>Mon 2 Mar04:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -935,27 +935,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Crystal Serenity</t>
+          <t>Amera</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sun 1 Mar06:00</t>
+          <t>Mon 2 Mar05:45</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Athol Bay Anchorage (ATH4A)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -977,27 +977,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Coral Princess</t>
+          <t>Azamara Onward</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mon 2 Mar04:30</t>
+          <t>Mon 2 Mar06:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -1019,27 +1019,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Amera</t>
+          <t>MSC Magnifica</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mon 2 Mar05:45</t>
+          <t>Tue 3 Mar05:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -1061,27 +1061,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Azamara Onward</t>
+          <t>Queen Mary 2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mon 2 Mar06:00</t>
+          <t>Wed 4 Mar04:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -1103,37 +1103,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MSC Magnifica</t>
+          <t>CSL Reliance</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tue 3 Mar05:00</t>
+          <t>Wed 4 Mar12:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Bulk Carrier, Self-discharging</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -1145,27 +1145,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Queen Mary 2</t>
+          <t>Norwegian Spirit</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wed 4 Mar04:00</t>
+          <t>Thu 5 Mar04:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -1187,37 +1187,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CSL Reliance</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Wed 4 Mar12:00</t>
+          <t>Thu 5 Mar05:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bulk Carrier, Self-discharging</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -1229,37 +1229,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Norwegian Spirit</t>
+          <t>Atlantic Dawn</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Thu 5 Mar04:00</t>
+          <t>Thu 5 Mar15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Glebe Island 1 (GLB1)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -1271,12 +1271,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Thu 5 Mar05:00</t>
+          <t>Fri 6 Mar05:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Port Arthur</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -1313,37 +1313,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Atlantic Dawn</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Thu 5 Mar15:00</t>
+          <t>Sat 7 Mar05:15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Opua</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Glebe Island 1 (GLB1)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -1355,22 +1355,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fri 6 Mar05:00</t>
+          <t>Sun 8 Mar04:45</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Port Arthur</t>
+          <t>Noumea</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1385,49 +1385,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Volendam</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Sat 7 Mar05:15</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>06:00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Opua</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Passenger/Cruise</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:47</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1500,27 +1458,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Crescent River (T)</t>
+          <t>MSC Bay IV</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 21 2026  7:15PM</t>
+          <t>Feb 22 2026  4:30PM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -1537,27 +1495,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CMA CGM Red (SC)</t>
+          <t>Esteem Houston (T)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 22 2026 12:00AM</t>
+          <t>Feb 22 2026  8:30PM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -1574,12 +1532,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 22 2026  4:45AM</t>
+          <t>Feb 23 2026  4:45AM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1594,7 +1552,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -1611,27 +1569,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Latika Naree</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 22 2026  5:30AM</t>
+          <t>Feb 23 2026  5:15AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1606,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 22 2026  6:40AM</t>
+          <t>Feb 23 2026  5:15AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1668,7 +1626,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -1685,27 +1643,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Great Vanguard (SC)</t>
+          <t>Viking Orion (P)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 22 2026  8:00AM</t>
+          <t>Feb 23 2026  6:30AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -1722,27 +1680,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Golden Axis (T)</t>
+          <t>Oregon Highway</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 22 2026  9:30AM</t>
+          <t>Feb 23 2026  7:30AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bluff</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bay Anchorage inner</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -1759,27 +1717,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MSC Bay IV</t>
+          <t>Meghna Star</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 22 2026  4:30PM</t>
+          <t>Feb 23 2026 10:45AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -1796,27 +1754,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Esteem Houston (T)</t>
+          <t>OOCL Canada (BM)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feb 22 2026  8:30PM</t>
+          <t>Feb 23 2026  4:30PM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -1833,27 +1791,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>CNC Jawa</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:45AM</t>
+          <t>Feb 23 2026  8:30PM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -1870,27 +1828,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Latika Naree</t>
+          <t>Papora Wisdom</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 23 2026  5:15AM</t>
+          <t>Feb 23 2026 10:35PM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Higashishioya</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -1907,27 +1865,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Altair Leader</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feb 23 2026  5:15AM</t>
+          <t>Feb 24 2026  3:30AM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -1944,27 +1902,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Viking Orion (P)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 23 2026  6:30AM</t>
+          <t>Feb 24 2026  4:26AM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -1981,27 +1939,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Oregon Highway</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feb 23 2026  7:30AM</t>
+          <t>Feb 24 2026  5:30AM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2018,27 +1976,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Meghna Star</t>
+          <t>Peter Faber</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feb 23 2026 10:45AM</t>
+          <t>Feb 24 2026  7:30AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2055,27 +2013,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>OOCL Canada (BM)</t>
+          <t>OOCL Houston</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:30PM</t>
+          <t>Feb 24 2026 11:30AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2092,27 +2050,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CNC Jawa</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feb 23 2026  8:30PM</t>
+          <t>Feb 24 2026 11:35AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2129,27 +2087,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Papora Wisdom</t>
+          <t>YM Essence (PP)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Feb 24 2026 12:35AM</t>
+          <t>Feb 24 2026 12:30PM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Higashishioya</t>
+          <t>Kaohsiung</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2166,27 +2124,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Altair Leader</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Feb 24 2026  3:30AM</t>
+          <t>Feb 24 2026  5:26PM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2203,27 +2161,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feb 24 2026  4:26AM</t>
+          <t>Feb 24 2026 10:42PM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2240,27 +2198,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Esprit Lotus</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:30AM</t>
+          <t>Feb 25 2026  1:35AM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Kinuura</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay North 4</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2277,27 +2235,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Peter Faber</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Feb 24 2026  7:30AM</t>
+          <t>Feb 25 2026  5:15AM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2314,27 +2272,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>OOCL Houston</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Feb 24 2026 11:30AM</t>
+          <t>Feb 25 2026  5:30AM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2351,27 +2309,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Feb 24 2026 11:35AM</t>
+          <t>Feb 25 2026  6:56AM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2346,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>YM Essence (PP)</t>
+          <t>MSC Star R (SC)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Feb 24 2026 12:30PM</t>
+          <t>Feb 25 2026 10:30AM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Kaohsiung</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2425,27 +2383,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Kota Lambai</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:26PM</t>
+          <t>Feb 25 2026  1:30PM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2462,27 +2420,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>Positive Leader</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Feb 24 2026 10:42PM</t>
+          <t>Feb 25 2026  1:30PM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2499,27 +2457,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Esprit Lotus</t>
+          <t>Adelie</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Feb 25 2026  1:35AM</t>
+          <t>Feb 25 2026  2:00PM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Kinuura</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Corio Quay North 4</t>
+          <t>Yarraville 5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2536,27 +2494,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Cape Bonavista</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Feb 25 2026  5:15AM</t>
+          <t>Feb 25 2026  3:30PM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2573,27 +2531,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Feb 25 2026  5:30AM</t>
+          <t>Feb 25 2026  3:35PM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2610,27 +2568,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Horizon Highway</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Feb 25 2026  6:56AM</t>
+          <t>Feb 25 2026  5:30PM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2647,27 +2605,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MSC Star R (SC)</t>
+          <t>Akuna</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Feb 25 2026 10:30AM</t>
+          <t>Feb 25 2026  7:30PM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2684,12 +2642,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Kota Lambai</t>
+          <t>Hafnia Raven (T)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Feb 25 2026  1:30PM</t>
+          <t>Feb 25 2026  7:35PM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2699,12 +2657,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2721,27 +2679,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Positive Leader</t>
+          <t>MSC Chulai III</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Feb 25 2026  1:30PM</t>
+          <t>Feb 25 2026  8:30PM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2758,27 +2716,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Adelie</t>
+          <t>ES Care</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Feb 25 2026  2:00PM</t>
+          <t>Feb 25 2026 10:42PM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Yarraville 5</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2795,27 +2753,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cape Bonavista</t>
+          <t>CSAV Rio Nevado</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Feb 25 2026  3:30PM</t>
+          <t>Feb 26 2026 12:30AM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2832,27 +2790,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Feb 25 2026  3:35PM</t>
+          <t>Feb 26 2026  4:26AM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2864,32 +2822,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AAL Brisbane (SC)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2026-02-17 19:52:00</t>
+          <t>Feb 26 2026  5:15AM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Taicang</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2901,32 +2859,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ac Kathryn</t>
+          <t>Cosco Philippines (BM)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2026-02-19 12:21:00</t>
+          <t>Feb 26 2026  5:30AM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2938,32 +2896,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Alani</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2026-02-18 11:36:00</t>
+          <t>Feb 26 2026  5:30AM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -2980,27 +2938,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ALS Hercules (PP)</t>
+          <t>Ac Kathryn</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-02-21 12:20:00</t>
+          <t>2026-02-19 12:21:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3017,17 +2975,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Andromeda Spirit</t>
+          <t>Alani</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-02-18 05:20:00</t>
+          <t>2026-02-18 11:36:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Port Moresby</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3037,7 +2995,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3012,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>APL New York (BM)</t>
+          <t>ALS Hercules (PP)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-20 16:06:00</t>
+          <t>2026-02-21 12:20:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3069,12 +3027,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3091,27 +3049,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Arcadia (P)</t>
+          <t>APL New York (BM)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-20 08:00:00</t>
+          <t>2026-02-20 16:06:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3128,27 +3086,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Broadgate</t>
+          <t>Arcadia (P)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-18 16:40:00</t>
+          <t>2026-02-20 08:00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3165,27 +3123,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Chang Hang Hao Hai</t>
+          <t>Broadgate</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-20 20:17:00</t>
+          <t>2026-02-18 16:40:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3202,27 +3160,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Coral Chief (SC)</t>
+          <t>Chang Hang Hao Hai</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-21 04:12:00</t>
+          <t>2026-02-20 20:17:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3239,27 +3197,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Dione Leader</t>
+          <t>CMA CGM Red (SC)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-17 22:00:00</t>
+          <t>2026-02-22 04:30:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3276,27 +3234,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Dynagreen</t>
+          <t>Coral Chief (SC)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-21 15:15:00</t>
+          <t>2026-02-21 04:12:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bulk Grain 3</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3313,27 +3271,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Crescent River (T)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-20 09:50:00</t>
+          <t>2026-02-21 19:44:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3350,27 +3308,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Green Anax (T)</t>
+          <t>Dynagreen</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-19 18:35:00</t>
+          <t>2026-02-21 15:15:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Puerto Rosales/Bahia Blanca</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Geelong Refinery4</t>
+          <t>Bulk Grain 3</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3387,27 +3345,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GSL Melita (PP)</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-18 20:10:00</t>
+          <t>2026-02-20 09:50:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3424,27 +3382,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Kota Laris</t>
+          <t>Green Anax (T)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-21 06:02:00</t>
+          <t>2026-02-19 18:35:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Puerto Rosales/Bahia Blanca</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Geelong Refinery4</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3461,27 +3419,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>GSL Melita (PP)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-18 06:24:00</t>
+          <t>2026-02-18 20:10:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3498,27 +3456,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Kota Laris</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-20 06:45:00</t>
+          <t>2026-02-21 06:02:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3535,27 +3493,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Maersk Inverness</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-20 13:47:00</t>
+          <t>2026-02-20 06:45:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3572,27 +3530,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Morning Ninni</t>
+          <t>Maersk Inverness</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-19 03:20:00</t>
+          <t>2026-02-20 13:47:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3609,27 +3567,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mount Aso</t>
+          <t>Morning Ninni</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-19 11:20:00</t>
+          <t>2026-02-19 03:20:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Kwinana</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Yarraville 5</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3646,27 +3604,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MSC Anusha III</t>
+          <t>Mount Aso</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-18 10:05:00</t>
+          <t>2026-02-19 11:20:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Kwinana</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Yarraville 5</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3683,12 +3641,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MSC Jessenia R (SC)</t>
+          <t>MSC Anusha III</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-19 03:58:00</t>
+          <t>2026-02-18 10:05:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3698,12 +3656,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3720,17 +3678,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MSC Shahar</t>
+          <t>MSC Jessenia R (SC)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-20 00:42:00</t>
+          <t>2026-02-19 03:58:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3740,7 +3698,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3757,12 +3715,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nabucco</t>
+          <t>MSC Shahar</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-20 01:20:00</t>
+          <t>2026-02-20 00:42:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3772,12 +3730,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3794,12 +3752,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Norse Teshima</t>
+          <t>Nabucco</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-21 09:51:00</t>
+          <t>2026-02-20 01:20:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3809,12 +3767,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3831,27 +3789,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>OOCL Kuala Lumpur (PP)</t>
+          <t>Norse Teshima</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-20 23:20:00</t>
+          <t>2026-02-21 09:51:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3868,27 +3826,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Paradise Ace</t>
+          <t>OOCL Kuala Lumpur (PP)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-18 00:47:00</t>
+          <t>2026-02-20 23:20:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3883,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3962,7 +3920,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3957,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4036,7 +3994,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4073,7 +4031,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4110,7 +4068,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4090,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-21 08:33:00</t>
+          <t>2026-02-18 19:22:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4147,7 +4105,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4127,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-18 19:22:00</t>
+          <t>2026-02-20 05:58:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4184,7 +4142,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4164,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-20 05:58:00</t>
+          <t>2026-02-21 08:33:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4221,7 +4179,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4201,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-18 06:25:00</t>
+          <t>2026-02-19 08:16:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4258,7 +4216,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4238,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-19 08:16:00</t>
+          <t>2026-02-20 18:42:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4295,7 +4253,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4275,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-20 18:42:00</t>
+          <t>2026-02-22 05:54:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4332,7 +4290,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4369,7 +4327,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4364,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4443,7 +4401,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4480,7 +4438,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4497,27 +4455,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>TS Mundra (PP)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-17 22:05:00</t>
+          <t>2026-02-22 07:20:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4554,7 +4512,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4571,27 +4529,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Viking Venus (P)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-18 05:42:00</t>
+          <t>2026-02-19 07:04:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4608,27 +4566,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Viking Venus (P)</t>
+          <t>Xin Lan Zhou (PP)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-02-19 07:04:00</t>
+          <t>2026-02-20 06:00:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4645,64 +4603,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Xin Lan Zhou (PP)</t>
+          <t>YM Evolution (PP)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-02-20 06:00:00</t>
+          <t>2026-02-19 14:20:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Kaohsiung</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>YM Evolution (PP)</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:20:00</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Kaohsiung</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Swanson West 2</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>
@@ -4735,7 +4656,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-21 18:06</t>
+          <t>2026-02-22 08:48</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-22 08:47</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,27 +1458,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MSC Bay IV</t>
+          <t>Esteem Houston (T)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 22 2026  4:30PM</t>
+          <t>Feb 23 2026  3:33AM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1495,27 +1495,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Esteem Houston (T)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 22 2026  8:30PM</t>
+          <t>Feb 23 2026  4:45AM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1532,27 +1532,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Meghna Star</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:45AM</t>
+          <t>Feb 23 2026  5:15AM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1569,27 +1569,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Latika Naree</t>
+          <t>Viking Orion (P)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 23 2026  5:15AM</t>
+          <t>Feb 23 2026  6:30AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1606,27 +1606,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Oregon Highway</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 23 2026  5:15AM</t>
+          <t>Feb 23 2026  7:30AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1643,27 +1643,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Viking Orion (P)</t>
+          <t>Pan Ceres</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 23 2026  6:30AM</t>
+          <t>Feb 23 2026  7:30AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1680,27 +1680,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Oregon Highway</t>
+          <t>Latika Naree</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 23 2026  7:30AM</t>
+          <t>Feb 23 2026 10:45AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1717,27 +1717,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Meghna Star</t>
+          <t>OOCL Canada (BM)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 23 2026 10:45AM</t>
+          <t>Feb 23 2026  9:30PM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1754,27 +1754,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>OOCL Canada (BM)</t>
+          <t>CNC Jawa</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:30PM</t>
+          <t>Feb 24 2026 12:00AM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1791,27 +1791,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CNC Jawa</t>
+          <t>Altair Leader</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 23 2026  8:30PM</t>
+          <t>Feb 24 2026  3:30AM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1828,27 +1828,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Papora Wisdom</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 23 2026 10:35PM</t>
+          <t>Feb 24 2026  4:26AM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Higashishioya</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1865,27 +1865,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Altair Leader</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feb 24 2026  3:30AM</t>
+          <t>Feb 24 2026  5:15AM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1902,12 +1902,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 24 2026  4:26AM</t>
+          <t>Feb 24 2026  5:30AM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1917,12 +1917,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1939,27 +1939,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Peter Faber</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:30AM</t>
+          <t>Feb 24 2026  7:30AM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -1976,27 +1976,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Peter Faber</t>
+          <t>OOCL Houston</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feb 24 2026  7:30AM</t>
+          <t>Feb 24 2026 11:30AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2013,27 +2013,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>OOCL Houston</t>
+          <t>YM Essence (PP)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feb 24 2026 11:30AM</t>
+          <t>Feb 24 2026 12:30PM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Kaohsiung</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2050,27 +2050,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feb 24 2026 11:35AM</t>
+          <t>Feb 24 2026  5:26PM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2087,27 +2087,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>YM Essence (PP)</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Feb 24 2026 12:30PM</t>
+          <t>Feb 24 2026 11:45PM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Kaohsiung</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2124,27 +2124,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:26PM</t>
+          <t>Feb 25 2026  4:05AM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2161,27 +2161,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>Papora Wisdom</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feb 24 2026 10:42PM</t>
+          <t>Feb 25 2026  4:05AM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Higashishioya</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Feb 25 2026  1:35AM</t>
+          <t>Feb 25 2026  4:08AM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2933,32 +2933,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ac Kathryn</t>
+          <t>Maersk Mammoth (SC)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-02-19 12:21:00</t>
+          <t>Feb 26 2026  9:30AM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -2970,32 +2970,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Alani</t>
+          <t>Crystal Serenity (P)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-02-18 11:36:00</t>
+          <t>Feb 26 2026 11:30AM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3007,22 +3007,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ALS Hercules (PP)</t>
+          <t>Phoebe (PP)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-21 12:20:00</t>
+          <t>Feb 26 2026 12:30PM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3044,32 +3044,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>APL New York (BM)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-20 16:06:00</t>
+          <t>Feb 26 2026  5:26PM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3086,27 +3086,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Arcadia (P)</t>
+          <t>Ac Kathryn</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-20 08:00:00</t>
+          <t>2026-02-19 12:21:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3123,27 +3123,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Broadgate</t>
+          <t>ALS Hercules (PP)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-18 16:40:00</t>
+          <t>2026-02-21 12:20:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3160,27 +3160,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Chang Hang Hao Hai</t>
+          <t>APL New York (BM)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-20 20:17:00</t>
+          <t>2026-02-20 16:06:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3197,27 +3197,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CMA CGM Red (SC)</t>
+          <t>Arcadia (P)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-22 04:30:00</t>
+          <t>2026-02-20 08:00:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3234,27 +3234,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Coral Chief (SC)</t>
+          <t>Chang Hang Hao Hai</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-21 04:12:00</t>
+          <t>2026-02-20 20:17:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3271,27 +3271,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Crescent River (T)</t>
+          <t>CMA CGM Red (SC)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-21 19:44:00</t>
+          <t>2026-02-22 04:30:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3308,27 +3308,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Dynagreen</t>
+          <t>Coral Chief (SC)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-21 15:15:00</t>
+          <t>2026-02-21 04:12:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bulk Grain 3</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3345,27 +3345,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Crescent River (T)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-20 09:50:00</t>
+          <t>2026-02-21 19:44:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3382,27 +3382,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Green Anax (T)</t>
+          <t>Dynagreen</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-19 18:35:00</t>
+          <t>2026-02-21 15:15:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Puerto Rosales/Bahia Blanca</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Geelong Refinery4</t>
+          <t>Bulk Grain 3</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3419,27 +3419,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GSL Melita (PP)</t>
+          <t>Golden Axis (T)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-18 20:10:00</t>
+          <t>2026-02-22 10:14:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Bluff</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Bay Anchorage inner</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3456,27 +3456,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Kota Laris</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-21 06:02:00</t>
+          <t>2026-02-20 09:50:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3493,27 +3493,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Great Vanguard (SC)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-20 06:45:00</t>
+          <t>2026-02-22 10:10:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3530,27 +3530,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Maersk Inverness</t>
+          <t>Green Anax (T)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-20 13:47:00</t>
+          <t>2026-02-19 18:35:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Puerto Rosales/Bahia Blanca</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Geelong Refinery4</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3567,27 +3567,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Morning Ninni</t>
+          <t>GSL Melita (PP)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-19 03:20:00</t>
+          <t>2026-02-18 20:10:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3604,27 +3604,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mount Aso</t>
+          <t>Kota Laris</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-19 11:20:00</t>
+          <t>2026-02-21 06:02:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Kwinana</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Yarraville 5</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3641,27 +3641,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MSC Anusha III</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-18 10:05:00</t>
+          <t>2026-02-20 06:45:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3678,27 +3678,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MSC Jessenia R (SC)</t>
+          <t>Maersk Inverness</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-19 03:58:00</t>
+          <t>2026-02-20 13:47:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3715,27 +3715,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MSC Shahar</t>
+          <t>Morning Ninni</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-20 00:42:00</t>
+          <t>2026-02-19 03:20:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3752,27 +3752,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Nabucco</t>
+          <t>Mount Aso</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-20 01:20:00</t>
+          <t>2026-02-19 11:20:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Kwinana</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Yarraville 5</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3789,27 +3789,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Norse Teshima</t>
+          <t>MSC Jessenia R (SC)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-21 09:51:00</t>
+          <t>2026-02-19 03:58:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3826,27 +3826,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>OOCL Kuala Lumpur (PP)</t>
+          <t>MSC Shahar</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-20 23:20:00</t>
+          <t>2026-02-20 00:42:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3863,27 +3863,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Pride C</t>
+          <t>Nabucco</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-19 16:45:00</t>
+          <t>2026-02-20 01:20:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3900,27 +3900,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Rong Hua Wan (T)</t>
+          <t>Norse Teshima</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-18 14:23:00</t>
+          <t>2026-02-21 09:51:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3937,27 +3937,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ruby Ace</t>
+          <t>OOCL Kuala Lumpur (PP)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-20 09:05:00</t>
+          <t>2026-02-20 23:20:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -3974,27 +3974,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Seagull (PP)</t>
+          <t>Pride C</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-21 09:42:00</t>
+          <t>2026-02-19 16:45:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4011,27 +4011,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Ruby Ace</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-19 07:06:00</t>
+          <t>2026-02-20 09:05:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4048,27 +4048,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Seagull (PP)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-21 11:26:00</t>
+          <t>2026-02-21 09:42:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4085,12 +4085,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-18 19:22:00</t>
+          <t>2026-02-21 11:26:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4122,12 +4122,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-20 05:58:00</t>
+          <t>2026-02-19 07:06:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-19 08:16:00</t>
+          <t>2026-02-20 05:58:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-22 05:54:00</t>
+          <t>2026-02-19 08:16:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4307,27 +4307,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Taokas Wisdom (SC)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-19 13:20:00</t>
+          <t>2026-02-22 05:54:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4344,27 +4344,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Taokas Wisdom (SC)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-19 05:33:00</t>
+          <t>2026-02-19 13:20:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4418,27 +4418,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>TP Endurance (T)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-20 03:56:00</t>
+          <t>2026-02-19 05:33:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Esperance</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4455,27 +4455,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>TP Endurance (T)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-22 07:20:00</t>
+          <t>2026-02-20 03:56:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Esperance</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-02-20 05:43:00</t>
+          <t>2026-02-22 07:20:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4529,27 +4529,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Viking Venus (P)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-19 07:04:00</t>
+          <t>2026-02-20 05:43:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4566,27 +4566,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Xin Lan Zhou (PP)</t>
+          <t>Viking Venus (P)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-02-20 06:00:00</t>
+          <t>2026-02-19 07:04:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4603,27 +4603,64 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>Xin Lan Zhou (PP)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2026-02-20 06:00:00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Webb Dock 5 East</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2026-02-22 18:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>YM Evolution (PP)</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>2026-02-19 14:20:00</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>Kaohsiung</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Swanson West 2</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>2026-02-22 08:48</t>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4693,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-22 08:48</t>
+          <t>2026-02-22 18:25</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,22 +473,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tue 24 Feb05:00</t>
+          <t>Fri 27 Feb04:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Stewart Island</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -515,27 +515,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Thu 26 Feb05:00</t>
+          <t>Sat 28 Feb02:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>03:05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -557,27 +557,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Viking Orion</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Thu 26 Feb06:00</t>
+          <t>Sat 28 Feb04:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Thu 26 Feb08:30</t>
+          <t>Sat 28 Feb12:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fri 27 Feb04:45</t>
+          <t>Sun 1 Mar05:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -683,27 +683,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Crystal Serenity</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sat 28 Feb02:15</t>
+          <t>Sun 1 Mar06:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>03:05</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Athol Bay Anchorage (ATH4A)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -725,12 +725,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Coral Princess</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sat 28 Feb04:30</t>
+          <t>Mon 2 Mar04:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -767,22 +767,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Amera</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sat 28 Feb12:00</t>
+          <t>Mon 2 Mar05:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -792,12 +792,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -809,27 +809,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Azamara Onward</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sun 1 Mar05:00</t>
+          <t>Mon 2 Mar06:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -851,27 +851,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Crystal Serenity</t>
+          <t>MSC Magnifica</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sun 1 Mar06:00</t>
+          <t>Tue 3 Mar05:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Athol Bay Anchorage (ATH4A)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -893,22 +893,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Coral Princess</t>
+          <t>Queen Mary 2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mon 2 Mar04:30</t>
+          <t>Wed 4 Mar04:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -935,37 +935,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Amera</t>
+          <t>CSL Reliance</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mon 2 Mar05:45</t>
+          <t>Wed 4 Mar12:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Bulk Carrier, Self-discharging</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -977,17 +977,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Azamara Onward</t>
+          <t>Norwegian Spirit</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mon 2 Mar06:00</t>
+          <t>Thu 5 Mar04:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MSC Magnifica</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tue 3 Mar05:00</t>
+          <t>Thu 5 Mar05:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1061,37 +1061,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Queen Mary 2</t>
+          <t>Atlantic Dawn</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Wed 4 Mar04:00</t>
+          <t>Thu 5 Mar15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 1 (GLB1)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1103,37 +1103,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CSL Reliance</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Wed 4 Mar12:00</t>
+          <t>Fri 6 Mar05:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Port Arthur</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bulk Carrier, Self-discharging</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Norwegian Spirit</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Thu 5 Mar04:00</t>
+          <t>Sat 7 Mar05:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Opua</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1187,22 +1187,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Thu 5 Mar05:00</t>
+          <t>Sun 8 Mar04:45</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Noumea</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1229,163 +1229,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Atlantic Dawn</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Thu 5 Mar15:00</t>
+          <t>Mon 9 Mar04:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Glebe Island 1 (GLB1)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Zaandam</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Fri 6 Mar05:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>05:30</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Port Arthur</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Passenger/Cruise</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2026-02-22 18:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Volendam</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sat 7 Mar05:15</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>06:00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Opua</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Passenger/Cruise</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2026-02-22 18:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Anthem of the Seas</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Sun 8 Mar04:45</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>05:15</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Noumea</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Passenger/Cruise</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1463,7 +1337,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 23 2026  3:33AM</t>
+          <t>Feb 23 2026  4:00PM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1478,7 +1352,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1495,27 +1369,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Latika Naree</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:45AM</t>
+          <t>Feb 23 2026  4:15PM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1532,27 +1406,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Meghna Star</t>
+          <t>OOCL Canada (BM)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 23 2026  5:15AM</t>
+          <t>Feb 23 2026  9:30PM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1569,27 +1443,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Viking Orion (P)</t>
+          <t>CNC Jawa</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 23 2026  6:30AM</t>
+          <t>Feb 24 2026 12:00AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1480,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Oregon Highway</t>
+          <t>Altair Leader</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 23 2026  7:30AM</t>
+          <t>Feb 24 2026  3:30AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1626,7 +1500,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1643,27 +1517,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pan Ceres</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 23 2026  7:30AM</t>
+          <t>Feb 24 2026  4:45AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1680,27 +1554,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Latika Naree</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 23 2026 10:45AM</t>
+          <t>Feb 24 2026  5:15AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1717,27 +1591,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>OOCL Canada (BM)</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 23 2026  9:30PM</t>
+          <t>Feb 24 2026  5:30AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1754,27 +1628,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CNC Jawa</t>
+          <t>Peter Faber</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feb 24 2026 12:00AM</t>
+          <t>Feb 24 2026  7:30AM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1791,27 +1665,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Altair Leader</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 24 2026  3:30AM</t>
+          <t>Feb 24 2026  9:35AM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1828,12 +1702,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 24 2026  4:26AM</t>
+          <t>Feb 24 2026  9:45AM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1843,12 +1717,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1865,27 +1739,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>YM Essence (PP)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:15AM</t>
+          <t>Feb 24 2026 10:30AM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Kaohsiung</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1902,27 +1776,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>OOCL Houston</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:30AM</t>
+          <t>Feb 24 2026 11:30AM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1939,27 +1813,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Peter Faber</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feb 24 2026  7:30AM</t>
+          <t>Feb 24 2026  5:45PM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -1976,27 +1850,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>OOCL Houston</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feb 24 2026 11:30AM</t>
+          <t>Feb 25 2026  4:05AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2013,27 +1887,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>YM Essence (PP)</t>
+          <t>Papora Wisdom</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feb 24 2026 12:30PM</t>
+          <t>Feb 25 2026  4:05AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kaohsiung</t>
+          <t>Higashishioya</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2050,27 +1924,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Esprit Lotus</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:26PM</t>
+          <t>Feb 25 2026  4:08AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Kinuura</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Corio Quay North 4</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2087,27 +1961,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Feb 24 2026 11:45PM</t>
+          <t>Feb 25 2026  5:15AM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2124,27 +1998,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Feb 25 2026  4:05AM</t>
+          <t>Feb 25 2026  5:30AM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2161,27 +2035,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Papora Wisdom</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feb 25 2026  4:05AM</t>
+          <t>Feb 25 2026  7:15AM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Higashishioya</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2198,27 +2072,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Esprit Lotus</t>
+          <t>MSC Star R (SC)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Feb 25 2026  4:08AM</t>
+          <t>Feb 25 2026 10:30AM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Kinuura</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Corio Quay North 4</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2235,27 +2109,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Kota Lambai</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Feb 25 2026  5:15AM</t>
+          <t>Feb 25 2026  1:30PM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2272,27 +2146,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Positive Leader</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Feb 25 2026  5:30AM</t>
+          <t>Feb 25 2026  1:30PM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2309,27 +2183,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Adelie</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Feb 25 2026  6:56AM</t>
+          <t>Feb 25 2026  2:00PM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Yarraville 5</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2346,17 +2220,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MSC Star R (SC)</t>
+          <t>Cape Bonavista</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Feb 25 2026 10:30AM</t>
+          <t>Feb 25 2026  3:30PM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2366,7 +2240,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2383,27 +2257,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Kota Lambai</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Feb 25 2026  1:30PM</t>
+          <t>Feb 25 2026  3:35PM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2420,12 +2294,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Positive Leader</t>
+          <t>Horizon Highway</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Feb 25 2026  1:30PM</t>
+          <t>Feb 25 2026  5:30PM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2440,7 +2314,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2457,27 +2331,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Adelie</t>
+          <t>Akuna</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Feb 25 2026  2:00PM</t>
+          <t>Feb 25 2026  7:30PM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Yarraville 5</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2494,27 +2368,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cape Bonavista</t>
+          <t>Hafnia Raven (T)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Feb 25 2026  3:30PM</t>
+          <t>Feb 25 2026  7:35PM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2531,27 +2405,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>MSC Chulai III</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Feb 25 2026  3:35PM</t>
+          <t>Feb 25 2026  8:30PM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2568,27 +2442,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Horizon Highway</t>
+          <t>ES Care</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Feb 25 2026  5:30PM</t>
+          <t>Feb 25 2026 10:42PM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2605,27 +2479,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Akuna</t>
+          <t>CSAV Rio Nevado</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Feb 25 2026  7:30PM</t>
+          <t>Feb 26 2026 12:30AM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2642,27 +2516,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Hafnia Raven (T)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Feb 25 2026  7:35PM</t>
+          <t>Feb 26 2026  4:26AM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2679,27 +2553,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MSC Chulai III</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Feb 25 2026  8:30PM</t>
+          <t>Feb 26 2026  5:15AM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2716,27 +2590,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ES Care</t>
+          <t>Cosco Philippines (BM)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Feb 25 2026 10:42PM</t>
+          <t>Feb 26 2026  5:30AM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2753,27 +2627,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CSAV Rio Nevado</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Feb 26 2026 12:30AM</t>
+          <t>Feb 26 2026  5:30AM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2790,27 +2664,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Maersk Mammoth (SC)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Feb 26 2026  4:26AM</t>
+          <t>Feb 26 2026  9:30AM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2827,27 +2701,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Crystal Serenity (P)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:15AM</t>
+          <t>Feb 26 2026 11:30AM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2864,27 +2738,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cosco Philippines (BM)</t>
+          <t>Phoebe (PP)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:30AM</t>
+          <t>Feb 26 2026 12:30PM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2901,12 +2775,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:30AM</t>
+          <t>Feb 26 2026  5:26PM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2916,12 +2790,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2938,27 +2812,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Maersk Mammoth (SC)</t>
+          <t>XYG Hongkong (SC)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Feb 26 2026  9:30AM</t>
+          <t>Feb 26 2026  7:30PM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Gresik  Java</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Appleton Dock C</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -2975,27 +2849,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Crystal Serenity (P)</t>
+          <t>ALS Clivia (PP)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Feb 26 2026 11:30AM</t>
+          <t>Feb 26 2026  8:30PM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3012,27 +2886,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Phoebe (PP)</t>
+          <t>Eva Gold (T)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Feb 26 2026 12:30PM</t>
+          <t>Feb 26 2026  8:30PM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3049,27 +2923,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Ardmore Gibraltar</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:26PM</t>
+          <t>Feb 27 2026  3:30AM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3081,32 +2955,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ac Kathryn</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-19 12:21:00</t>
+          <t>Feb 27 2026  5:15AM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3118,32 +2992,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ALS Hercules (PP)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-21 12:20:00</t>
+          <t>Feb 27 2026  5:30AM</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3155,32 +3029,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>APL New York (BM)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-20 16:06:00</t>
+          <t>Feb 27 2026  6:56AM</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3197,27 +3071,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Arcadia (P)</t>
+          <t>Ac Kathryn</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-20 08:00:00</t>
+          <t>2026-02-19 12:21:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3234,27 +3108,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Chang Hang Hao Hai</t>
+          <t>ALS Hercules (PP)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-20 20:17:00</t>
+          <t>2026-02-21 12:20:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3271,27 +3145,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CMA CGM Red (SC)</t>
+          <t>APL New York (BM)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-22 04:30:00</t>
+          <t>2026-02-20 16:06:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3308,27 +3182,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Coral Chief (SC)</t>
+          <t>Arcadia (P)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-21 04:12:00</t>
+          <t>2026-02-20 08:00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3345,27 +3219,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Crescent River (T)</t>
+          <t>Chang Hang Hao Hai</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-21 19:44:00</t>
+          <t>2026-02-20 20:17:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3382,27 +3256,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Dynagreen</t>
+          <t>CMA CGM Red (SC)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-21 15:15:00</t>
+          <t>2026-02-22 04:30:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bulk Grain 3</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3419,27 +3293,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Golden Axis (T)</t>
+          <t>Coral Chief (SC)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-22 10:14:00</t>
+          <t>2026-02-21 04:12:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Bluff</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bay Anchorage inner</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3456,27 +3330,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Crescent River (T)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-20 09:50:00</t>
+          <t>2026-02-21 19:44:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3493,27 +3367,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Great Vanguard (SC)</t>
+          <t>Dynagreen</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-22 10:10:00</t>
+          <t>2026-02-21 15:15:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>Bulk Grain 3</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3530,27 +3404,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Green Anax (T)</t>
+          <t>Golden Axis (T)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-19 18:35:00</t>
+          <t>2026-02-22 10:14:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Puerto Rosales/Bahia Blanca</t>
+          <t>Bluff</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Geelong Refinery4</t>
+          <t>Bay Anchorage inner</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3567,27 +3441,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GSL Melita (PP)</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-18 20:10:00</t>
+          <t>2026-02-20 09:50:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3604,27 +3478,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Kota Laris</t>
+          <t>Great Vanguard (SC)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-21 06:02:00</t>
+          <t>2026-02-22 10:10:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3641,27 +3515,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Green Anax (T)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-20 06:45:00</t>
+          <t>2026-02-19 18:35:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Puerto Rosales/Bahia Blanca</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Geelong Refinery4</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3678,27 +3552,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Maersk Inverness</t>
+          <t>Kota Laris</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-20 13:47:00</t>
+          <t>2026-02-21 06:02:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3715,27 +3589,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Morning Ninni</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-19 03:20:00</t>
+          <t>2026-02-20 06:45:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3752,27 +3626,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Mount Aso</t>
+          <t>Maersk Inverness</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-19 11:20:00</t>
+          <t>2026-02-20 13:47:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Kwinana</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Yarraville 5</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3789,27 +3663,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MSC Jessenia R (SC)</t>
+          <t>Meghna Star</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-19 03:58:00</t>
+          <t>2026-02-23 08:02:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3826,27 +3700,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MSC Shahar</t>
+          <t>Mount Aso</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-20 00:42:00</t>
+          <t>2026-02-19 11:20:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Kwinana</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Yarraville 5</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3863,12 +3737,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Nabucco</t>
+          <t>MSC Bay IV</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-20 01:20:00</t>
+          <t>2026-02-22 19:15:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3878,12 +3752,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3900,12 +3774,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Norse Teshima</t>
+          <t>MSC Shahar</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-21 09:51:00</t>
+          <t>2026-02-20 00:42:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3915,12 +3789,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3937,27 +3811,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>OOCL Kuala Lumpur (PP)</t>
+          <t>Nabucco</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-20 23:20:00</t>
+          <t>2026-02-20 01:20:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -3974,27 +3848,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Pride C</t>
+          <t>Norse Teshima</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-19 16:45:00</t>
+          <t>2026-02-21 09:51:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4011,27 +3885,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ruby Ace</t>
+          <t>OOCL Kuala Lumpur (PP)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-20 09:05:00</t>
+          <t>2026-02-20 23:20:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4048,27 +3922,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Seagull (PP)</t>
+          <t>Pan Ceres</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-21 09:42:00</t>
+          <t>2026-02-23 08:01:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4085,27 +3959,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Pride C</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-21 11:26:00</t>
+          <t>2026-02-19 16:45:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4122,27 +3996,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Ruby Ace</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-19 07:06:00</t>
+          <t>2026-02-20 09:05:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4159,27 +4033,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Seagull (PP)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-21 08:33:00</t>
+          <t>2026-02-21 09:42:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4196,12 +4070,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-20 05:58:00</t>
+          <t>2026-02-21 11:26:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4211,12 +4085,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4233,12 +4107,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-20 18:42:00</t>
+          <t>2026-02-23 06:02:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4253,7 +4127,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4270,12 +4144,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-19 08:16:00</t>
+          <t>2026-02-21 08:33:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4290,7 +4164,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4307,12 +4181,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-22 05:54:00</t>
+          <t>2026-02-20 05:58:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4327,7 +4201,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4344,27 +4218,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Taokas Wisdom (SC)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-19 13:20:00</t>
+          <t>2026-02-22 05:54:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4381,27 +4255,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-21 05:44:00</t>
+          <t>2026-02-20 18:42:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4418,27 +4292,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Taokas Wisdom (SC)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-19 05:33:00</t>
+          <t>2026-02-19 13:20:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4455,27 +4329,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>TP Endurance (T)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-20 03:56:00</t>
+          <t>2026-02-21 05:44:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Esperance</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4492,27 +4366,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>TP Endurance (T)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-02-22 07:20:00</t>
+          <t>2026-02-20 03:56:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Esperance</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4534,7 +4408,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-20 05:43:00</t>
+          <t>2026-02-22 07:20:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4549,7 +4423,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4566,27 +4440,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Viking Venus (P)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-02-19 07:04:00</t>
+          <t>2026-02-20 05:43:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4603,27 +4477,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Xin Lan Zhou (PP)</t>
+          <t>Viking Orion (P)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-02-20 06:00:00</t>
+          <t>2026-02-23 07:28:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4640,27 +4514,64 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>Xin Lan Zhou (PP)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2026-02-20 06:00:00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Webb Dock 5 East</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2026-02-23 08:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>YM Evolution (PP)</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>2026-02-19 14:20:00</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>Kaohsiung</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>Swanson West 2</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>2026-02-22 18:25</t>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4604,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-22 18:25</t>
+          <t>2026-02-23 08:51</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -473,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fri 27 Feb04:45</t>
+          <t>Sat 28 Feb02:15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>03:05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -515,27 +515,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sat 28 Feb02:15</t>
+          <t>Sat 28 Feb04:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>03:05</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -557,37 +557,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sat 28 Feb04:30</t>
+          <t>Sat 28 Feb12:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -599,37 +599,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sat 28 Feb12:00</t>
+          <t>Sun 1 Mar05:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -641,27 +641,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Crystal Serenity</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sun 1 Mar05:00</t>
+          <t>Sun 1 Mar06:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Athol Bay Anchorage (ATH4A)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -683,27 +683,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Crystal Serenity</t>
+          <t>Coral Princess</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sun 1 Mar06:00</t>
+          <t>Mon 2 Mar04:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Athol Bay Anchorage (ATH4A)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -725,27 +725,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Coral Princess</t>
+          <t>Amera</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 2 Mar04:30</t>
+          <t>Mon 2 Mar05:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -767,27 +767,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Amera</t>
+          <t>Azamara Onward</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon 2 Mar05:45</t>
+          <t>Mon 2 Mar06:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -809,27 +809,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Azamara Onward</t>
+          <t>MSC Magnifica</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mon 2 Mar06:00</t>
+          <t>Tue 3 Mar05:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -851,22 +851,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MSC Magnifica</t>
+          <t>Queen Mary 2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tue 3 Mar05:00</t>
+          <t>Wed 4 Mar04:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -893,37 +893,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Queen Mary 2</t>
+          <t>CSL Reliance</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wed 4 Mar04:00</t>
+          <t>Wed 4 Mar12:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Bulk Carrier, Self-discharging</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -935,37 +935,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CSL Reliance</t>
+          <t>Norwegian Spirit</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Wed 4 Mar12:00</t>
+          <t>Thu 5 Mar04:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bulk Carrier, Self-discharging</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -977,27 +977,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Norwegian Spirit</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Thu 5 Mar04:00</t>
+          <t>Thu 5 Mar05:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1019,37 +1019,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Atlantic Dawn</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Thu 5 Mar05:00</t>
+          <t>Thu 5 Mar15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 1 (GLB1)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1061,37 +1061,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Atlantic Dawn</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Thu 5 Mar15:00</t>
+          <t>Fri 6 Mar05:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Port Arthur</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Glebe Island 1 (GLB1)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1103,37 +1103,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Wyuna</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fri 6 Mar05:00</t>
+          <t>Fri 6 Mar12:34</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Port Arthur</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 8 (GLB8)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Cement Carrier</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Esteem Houston (T)</t>
+          <t>CNC Jawa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:00PM</t>
+          <t>Feb 24 2026 12:00AM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1369,27 +1369,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Latika Naree</t>
+          <t>Altair Leader</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 23 2026  4:15PM</t>
+          <t>Feb 24 2026  3:00AM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 23 2026  9:30PM</t>
+          <t>Feb 24 2026  4:30AM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1443,27 +1443,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CNC Jawa</t>
+          <t>Esteem Houston (T)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 24 2026 12:00AM</t>
+          <t>Feb 24 2026  4:45AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1480,27 +1480,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Altair Leader</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 24 2026  3:30AM</t>
+          <t>Feb 24 2026  4:45AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1517,27 +1517,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 24 2026  4:45AM</t>
+          <t>Feb 24 2026  5:15AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1554,27 +1554,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:15AM</t>
+          <t>Feb 24 2026  5:30AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1591,27 +1591,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Peter Faber</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:30AM</t>
+          <t>Feb 24 2026  8:30AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1628,27 +1628,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Peter Faber</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feb 24 2026  7:30AM</t>
+          <t>Feb 24 2026  9:45AM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1665,27 +1665,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>YM Essence (PP)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 24 2026  9:35AM</t>
+          <t>Feb 24 2026 10:30AM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Kaohsiung</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1702,27 +1702,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>OOCL Houston</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 24 2026  9:45AM</t>
+          <t>Feb 24 2026 11:30AM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1739,27 +1739,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>YM Essence (PP)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feb 24 2026 10:30AM</t>
+          <t>Feb 24 2026  5:45PM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Kaohsiung</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1776,27 +1776,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>OOCL Houston</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 24 2026 11:30AM</t>
+          <t>Feb 25 2026  3:50AM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1813,27 +1813,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:45PM</t>
+          <t>Feb 25 2026  5:15AM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1850,27 +1850,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feb 25 2026  4:05AM</t>
+          <t>Feb 25 2026  5:30AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1887,27 +1887,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Papora Wisdom</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feb 25 2026  4:05AM</t>
+          <t>Feb 25 2026  7:15AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Higashishioya</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1924,27 +1924,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Esprit Lotus</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feb 25 2026  4:08AM</t>
+          <t>Feb 25 2026  7:30AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Kinuura</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Corio Quay North 4</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1961,27 +1961,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Kota Lambai</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Feb 25 2026  5:15AM</t>
+          <t>Feb 25 2026  1:30PM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -1998,27 +1998,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Positive Leader</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Feb 25 2026  5:30AM</t>
+          <t>Feb 25 2026  1:30PM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2035,27 +2035,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Cape Bonavista</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feb 25 2026  7:15AM</t>
+          <t>Feb 25 2026  3:30PM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2072,27 +2072,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MSC Star R (SC)</t>
+          <t>Horizon Highway</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Feb 25 2026 10:30AM</t>
+          <t>Feb 25 2026  3:30PM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2109,27 +2109,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Kota Lambai</t>
+          <t>Papora Wisdom</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Feb 25 2026  1:30PM</t>
+          <t>Feb 25 2026  4:45PM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Higashishioya</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2146,27 +2146,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Positive Leader</t>
+          <t>Akuna</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Feb 25 2026  1:30PM</t>
+          <t>Feb 25 2026  7:30PM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2183,27 +2183,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Adelie</t>
+          <t>MSC Chulai III</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Feb 25 2026  2:00PM</t>
+          <t>Feb 25 2026  8:30PM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Yarraville 5</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2220,27 +2220,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cape Bonavista</t>
+          <t>CSAV Rio Nevado</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Feb 25 2026  3:30PM</t>
+          <t>Feb 26 2026 12:30AM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2257,27 +2257,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>Adelie</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Feb 25 2026  3:35PM</t>
+          <t>Feb 26 2026  1:30AM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2294,27 +2294,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Horizon Highway</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Feb 25 2026  5:30PM</t>
+          <t>Feb 26 2026  4:26AM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2331,27 +2331,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Akuna</t>
+          <t>Cosco Philippines (BM)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Feb 25 2026  7:30PM</t>
+          <t>Feb 26 2026  4:30AM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2368,27 +2368,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Hafnia Raven (T)</t>
+          <t>Esprit Lotus</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Feb 25 2026  7:35PM</t>
+          <t>Feb 26 2026  4:35AM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Kinuura</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Corio Quay North 4</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2405,27 +2405,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MSC Chulai III</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Feb 25 2026  8:30PM</t>
+          <t>Feb 26 2026  5:15AM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2442,27 +2442,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ES Care</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Feb 25 2026 10:42PM</t>
+          <t>Feb 26 2026  5:30AM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2479,27 +2479,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CSAV Rio Nevado</t>
+          <t>Maersk Mammoth (SC)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Feb 26 2026 12:30AM</t>
+          <t>Feb 26 2026  9:30AM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2516,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Hafnia Raven (T)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Feb 26 2026  4:26AM</t>
+          <t>Feb 26 2026 10:05AM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2553,27 +2553,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Crystal Serenity (P)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:15AM</t>
+          <t>Feb 26 2026 11:30AM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2590,27 +2590,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cosco Philippines (BM)</t>
+          <t>MSC Star R (SC)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:30AM</t>
+          <t>Feb 26 2026  4:30PM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2627,12 +2627,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:30AM</t>
+          <t>Feb 26 2026  5:26PM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2664,27 +2664,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Maersk Mammoth (SC)</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Feb 26 2026  9:30AM</t>
+          <t>Feb 26 2026  6:35PM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2701,27 +2701,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Crystal Serenity (P)</t>
+          <t>XYG Hongkong (SC)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Feb 26 2026 11:30AM</t>
+          <t>Feb 26 2026  7:30PM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Gresik  Java</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Appleton Dock C</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2738,27 +2738,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Phoebe (PP)</t>
+          <t>ALS Clivia (PP)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Feb 26 2026 12:30PM</t>
+          <t>Feb 26 2026  8:30PM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2775,27 +2775,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Ardmore Gibraltar</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:26PM</t>
+          <t>Feb 27 2026  1:30AM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2812,27 +2812,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>XYG Hongkong (SC)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Feb 26 2026  7:30PM</t>
+          <t>Feb 27 2026  5:15AM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Gresik  Java</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Appleton Dock C</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2849,27 +2849,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ALS Clivia (PP)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Feb 26 2026  8:30PM</t>
+          <t>Feb 27 2026  5:30AM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2886,27 +2886,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Eva Gold (T)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Feb 26 2026  8:30PM</t>
+          <t>Feb 27 2026  6:56AM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2923,27 +2923,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ardmore Gibraltar</t>
+          <t>Seabourn Sojourn (P)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Feb 27 2026  3:30AM</t>
+          <t>Feb 27 2026 10:30AM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2960,27 +2960,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Eva Gold (T)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:15AM</t>
+          <t>Feb 27 2026 11:30AM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -2997,27 +2997,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Spirit of Auckland</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:30AM</t>
+          <t>Feb 27 2026 12:30PM</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Swanson West 3</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3034,27 +3034,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Phoebe (PP)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Feb 27 2026  6:56AM</t>
+          <t>Feb 27 2026  3:30PM</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3071,27 +3071,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ac Kathryn</t>
+          <t>ALS Hercules (PP)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-19 12:21:00</t>
+          <t>2026-02-21 12:20:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3108,12 +3108,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ALS Hercules (PP)</t>
+          <t>APL New York (BM)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-21 12:20:00</t>
+          <t>2026-02-20 16:06:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3145,27 +3145,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>APL New York (BM)</t>
+          <t>Arcadia (P)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-20 16:06:00</t>
+          <t>2026-02-20 08:00:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3182,27 +3182,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Arcadia (P)</t>
+          <t>Chang Hang Hao Hai</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-20 08:00:00</t>
+          <t>2026-02-20 20:17:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3219,27 +3219,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Chang Hang Hao Hai</t>
+          <t>CMA CGM Red (SC)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-20 20:17:00</t>
+          <t>2026-02-22 04:30:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3256,27 +3256,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CMA CGM Red (SC)</t>
+          <t>Coral Chief (SC)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-22 04:30:00</t>
+          <t>2026-02-21 04:12:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3293,27 +3293,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Coral Chief (SC)</t>
+          <t>Crescent River (T)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-21 04:12:00</t>
+          <t>2026-02-21 19:44:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3330,27 +3330,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Crescent River (T)</t>
+          <t>Dynagreen</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-21 19:44:00</t>
+          <t>2026-02-21 15:15:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Bulk Grain 3</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3367,27 +3367,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dynagreen</t>
+          <t>Golden Axis (T)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-21 15:15:00</t>
+          <t>2026-02-22 10:14:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Bluff</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bulk Grain 3</t>
+          <t>Bay Anchorage inner</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3404,27 +3404,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Golden Axis (T)</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-22 10:14:00</t>
+          <t>2026-02-20 09:50:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Bluff</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bay Anchorage inner</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3441,27 +3441,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Great Vanguard (SC)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-20 09:50:00</t>
+          <t>2026-02-22 10:10:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3478,27 +3478,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Great Vanguard (SC)</t>
+          <t>ICS Tenacious (T)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-22 10:10:00</t>
+          <t>2026-02-23 11:05:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3515,27 +3515,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Green Anax (T)</t>
+          <t>Kota Laris</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-19 18:35:00</t>
+          <t>2026-02-21 06:02:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Puerto Rosales/Bahia Blanca</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Geelong Refinery4</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3552,27 +3552,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Kota Laris</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-21 06:02:00</t>
+          <t>2026-02-20 06:45:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3589,27 +3589,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Maersk Inverness</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-20 06:45:00</t>
+          <t>2026-02-20 13:47:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3626,27 +3626,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Maersk Inverness</t>
+          <t>Meghna Star</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-20 13:47:00</t>
+          <t>2026-02-23 07:40:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3663,27 +3663,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Meghna Star</t>
+          <t>MSC Bay IV</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-23 08:02:00</t>
+          <t>2026-02-22 19:15:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3700,27 +3700,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Mount Aso</t>
+          <t>MSC Shahar</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-19 11:20:00</t>
+          <t>2026-02-20 00:42:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Kwinana</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Yarraville 5</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3737,12 +3737,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MSC Bay IV</t>
+          <t>Nabucco</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-22 19:15:00</t>
+          <t>2026-02-20 01:20:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3774,12 +3774,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MSC Shahar</t>
+          <t>Norse Teshima</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-20 00:42:00</t>
+          <t>2026-02-21 09:51:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3789,12 +3789,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3811,27 +3811,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Nabucco</t>
+          <t>OOCL Kuala Lumpur (PP)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-20 01:20:00</t>
+          <t>2026-02-20 23:20:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3848,27 +3848,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Norse Teshima</t>
+          <t>Oregon Highway</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-21 09:51:00</t>
+          <t>2026-02-23 08:06:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3885,27 +3885,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>OOCL Kuala Lumpur (PP)</t>
+          <t>Pan Ceres</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-20 23:20:00</t>
+          <t>2026-02-23 08:05:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3922,27 +3922,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Pan Ceres</t>
+          <t>Ruby Ace</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-23 08:01:00</t>
+          <t>2026-02-20 09:05:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3959,27 +3959,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Pride C</t>
+          <t>Seagull (PP)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-19 16:45:00</t>
+          <t>2026-02-21 09:42:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -3996,27 +3996,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ruby Ace</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-20 09:05:00</t>
+          <t>2026-02-21 11:26:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -4033,27 +4033,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Seagull (PP)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-21 09:42:00</t>
+          <t>2026-02-23 06:02:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-21 11:26:00</t>
+          <t>2026-02-21 08:33:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-23 06:02:00</t>
+          <t>2026-02-20 05:58:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -4144,12 +4144,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-21 08:33:00</t>
+          <t>2026-02-22 05:54:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -4181,12 +4181,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-20 05:58:00</t>
+          <t>2026-02-20 18:42:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -4218,27 +4218,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-22 05:54:00</t>
+          <t>2026-02-21 05:44:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -4255,27 +4255,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>TP Endurance (T)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-20 18:42:00</t>
+          <t>2026-02-20 03:56:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Esperance</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -4292,27 +4292,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Taokas Wisdom (SC)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-19 13:20:00</t>
+          <t>2026-02-22 07:20:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -4329,12 +4329,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-21 05:44:00</t>
+          <t>2026-02-20 05:43:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -4366,27 +4366,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>TP Endurance (T)</t>
+          <t>Viking Orion (P)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-02-20 03:56:00</t>
+          <t>2026-02-23 07:28:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Esperance</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -4403,175 +4403,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Xin Lan Zhou (PP)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-22 07:20:00</t>
+          <t>2026-02-20 06:00:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Victorian Reliance II</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2026-02-20 05:43:00</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Burnie</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Webb Dock 1 East</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2026-02-23 08:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Viking Orion (P)</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2026-02-23 07:28:00</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Hobart</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Station Pier Outer West</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>2026-02-23 08:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Xin Lan Zhou (PP)</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2026-02-20 06:00:00</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Webb Dock 5 East</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>2026-02-23 08:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>YM Evolution (PP)</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:20:00</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Kaohsiung</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Swanson West 2</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>
@@ -4604,7 +4456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-23 08:51</t>
+          <t>2026-02-23 19:00</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 2 Mar05:45</t>
+          <t>Mon 2 Mar05:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,49 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Seven Seas Mariner</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Tue 10 Mar08:45</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>09:15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Opua</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Overseas Passenger Terminal (SCPT)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Passenger/Cruise</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1332,27 +1374,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CNC Jawa</t>
+          <t>Esteem Houston (T)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 24 2026 12:00AM</t>
+          <t>Feb 24 2026  5:45PM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1369,27 +1411,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Altair Leader</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 24 2026  3:00AM</t>
+          <t>Feb 24 2026  5:45PM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1406,27 +1448,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OOCL Canada (BM)</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 24 2026  4:30AM</t>
+          <t>Feb 25 2026  4:00AM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1443,27 +1485,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Esteem Houston (T)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 24 2026  4:45AM</t>
+          <t>Feb 25 2026  5:15AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1480,12 +1522,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 24 2026  4:45AM</t>
+          <t>Feb 25 2026  5:30AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1495,12 +1537,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1517,27 +1559,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:15AM</t>
+          <t>Feb 25 2026  7:15AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1554,27 +1596,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Positive Leader</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:30AM</t>
+          <t>Feb 25 2026  8:30AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1591,27 +1633,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Peter Faber</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 24 2026  8:30AM</t>
+          <t>Feb 25 2026  9:15AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1628,27 +1670,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Kota Lambai</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feb 24 2026  9:45AM</t>
+          <t>Feb 25 2026  1:30PM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1665,27 +1707,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>YM Essence (PP)</t>
+          <t>Horizon Highway</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 24 2026 10:30AM</t>
+          <t>Feb 25 2026  3:30PM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kaohsiung</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1702,27 +1744,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>OOCL Houston</t>
+          <t>Papora Wisdom</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 24 2026 11:30AM</t>
+          <t>Feb 25 2026  4:45PM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Higashishioya</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1739,27 +1781,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Akuna</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:45PM</t>
+          <t>Feb 25 2026  7:30PM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1776,27 +1818,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>MSC Chulai III</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 25 2026  3:50AM</t>
+          <t>Feb 25 2026  8:30PM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1813,27 +1855,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>CSAV Rio Nevado</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feb 25 2026  5:15AM</t>
+          <t>Feb 26 2026 12:30AM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1850,27 +1892,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Adelie</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feb 25 2026  5:30AM</t>
+          <t>Feb 26 2026  1:30AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1887,27 +1929,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Cape Bonavista</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feb 25 2026  7:15AM</t>
+          <t>Feb 26 2026  4:30AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1924,27 +1966,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>Cosco Philippines (BM)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feb 25 2026  7:30AM</t>
+          <t>Feb 26 2026  4:30AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1961,27 +2003,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Kota Lambai</t>
+          <t>Esprit Lotus</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Feb 25 2026  1:30PM</t>
+          <t>Feb 26 2026  4:35AM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Kinuura</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Corio Quay North 4</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -1998,27 +2040,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Positive Leader</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Feb 25 2026  1:30PM</t>
+          <t>Feb 26 2026  4:45AM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2035,27 +2077,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cape Bonavista</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feb 25 2026  3:30PM</t>
+          <t>Feb 26 2026  5:15AM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2072,27 +2114,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Horizon Highway</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Feb 25 2026  3:30PM</t>
+          <t>Feb 26 2026  5:30AM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2109,27 +2151,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Papora Wisdom</t>
+          <t>Dream Orchid</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Feb 25 2026  4:45PM</t>
+          <t>Feb 26 2026  8:30AM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Higashishioya</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2146,27 +2188,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Akuna</t>
+          <t>Maersk Mammoth (SC)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Feb 25 2026  7:30PM</t>
+          <t>Feb 26 2026  9:30AM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2183,27 +2225,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MSC Chulai III</t>
+          <t>Hafnia Raven (T)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Feb 25 2026  8:30PM</t>
+          <t>Feb 26 2026 10:15AM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2220,27 +2262,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CSAV Rio Nevado</t>
+          <t>Crystal Serenity (P)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Feb 26 2026 12:30AM</t>
+          <t>Feb 26 2026 11:30AM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2257,27 +2299,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Adelie</t>
+          <t>ALS Clivia (PP)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Feb 26 2026  1:30AM</t>
+          <t>Feb 26 2026  4:30PM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2294,27 +2336,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>MSC Star R (SC)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Feb 26 2026  4:26AM</t>
+          <t>Feb 26 2026  4:30PM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2331,27 +2373,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cosco Philippines (BM)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Feb 26 2026  4:30AM</t>
+          <t>Feb 26 2026  5:45PM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2368,27 +2410,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Esprit Lotus</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Feb 26 2026  4:35AM</t>
+          <t>Feb 26 2026  6:35PM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Kinuura</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Corio Quay North 4</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2405,27 +2447,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>XYG Hongkong (SC)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:15AM</t>
+          <t>Feb 26 2026  7:30PM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Gresik  Java</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Appleton Dock C</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2442,27 +2484,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Ardmore Gibraltar</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:30AM</t>
+          <t>Feb 27 2026  1:30AM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2479,27 +2521,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Maersk Mammoth (SC)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Feb 26 2026  9:30AM</t>
+          <t>Feb 27 2026  5:15AM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2558,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Hafnia Raven (T)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Feb 26 2026 10:05AM</t>
+          <t>Feb 27 2026  5:30AM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2553,27 +2595,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Crystal Serenity (P)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Feb 26 2026 11:30AM</t>
+          <t>Feb 27 2026  6:56AM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2590,12 +2632,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MSC Star R (SC)</t>
+          <t>Seabourn Sojourn (P)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Feb 26 2026  4:30PM</t>
+          <t>Feb 27 2026 10:30AM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2605,12 +2647,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2627,27 +2669,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Eva Gold (T)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:26PM</t>
+          <t>Feb 27 2026 11:30AM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2664,27 +2706,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>Phoebe (PP)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Feb 26 2026  6:35PM</t>
+          <t>Feb 27 2026  3:30PM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2701,27 +2743,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>XYG Hongkong (SC)</t>
+          <t>Spirit of Auckland</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Feb 26 2026  7:30PM</t>
+          <t>Feb 27 2026  5:30PM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Gresik  Java</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Appleton Dock C</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2738,27 +2780,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ALS Clivia (PP)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Feb 26 2026  8:30PM</t>
+          <t>Feb 28 2026  4:26AM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2775,27 +2817,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ardmore Gibraltar</t>
+          <t>TS Singapore</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Feb 27 2026  1:30AM</t>
+          <t>Feb 28 2026  4:30AM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2812,12 +2854,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:15AM</t>
+          <t>Feb 28 2026  5:15AM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2832,7 +2874,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2849,27 +2891,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>NPDL Tahiti (SC)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:30AM</t>
+          <t>Feb 28 2026  5:30AM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2886,12 +2928,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Feb 27 2026  6:56AM</t>
+          <t>Feb 28 2026  5:30AM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2901,12 +2943,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2923,27 +2965,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn (P)</t>
+          <t>Trans Future 6</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Feb 27 2026 10:30AM</t>
+          <t>Feb 28 2026  8:30AM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2955,32 +2997,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Eva Gold (T)</t>
+          <t>ALS Hercules (PP)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Feb 27 2026 11:30AM</t>
+          <t>2026-02-21 12:20:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -2992,32 +3034,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Spirit of Auckland</t>
+          <t>Altair Leader</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Feb 27 2026 12:30PM</t>
+          <t>2026-02-24 04:22:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Swanson West 3</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3029,32 +3071,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Phoebe (PP)</t>
+          <t>APL New York (BM)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Feb 27 2026  3:30PM</t>
+          <t>2026-02-20 16:06:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3071,27 +3113,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ALS Hercules (PP)</t>
+          <t>Chang Hang Hao Hai</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-21 12:20:00</t>
+          <t>2026-02-20 20:17:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3108,27 +3150,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>APL New York (BM)</t>
+          <t>CMA CGM Red (SC)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-20 16:06:00</t>
+          <t>2026-02-22 04:30:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3145,27 +3187,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Arcadia (P)</t>
+          <t>CNC Jawa</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-20 08:00:00</t>
+          <t>2026-02-24 01:25:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3182,27 +3224,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Chang Hang Hao Hai</t>
+          <t>Coral Chief (SC)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-20 20:17:00</t>
+          <t>2026-02-21 04:12:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3219,27 +3261,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CMA CGM Red (SC)</t>
+          <t>Crescent River (T)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-22 04:30:00</t>
+          <t>2026-02-21 19:44:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3256,27 +3298,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Coral Chief (SC)</t>
+          <t>Dynagreen</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-21 04:12:00</t>
+          <t>2026-02-21 15:15:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>Bulk Grain 3</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3293,27 +3335,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Crescent River (T)</t>
+          <t>Golden Axis (T)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-21 19:44:00</t>
+          <t>2026-02-22 10:14:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Bluff</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Bay Anchorage inner</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3330,27 +3372,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Dynagreen</t>
+          <t>Great Vanguard (SC)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-21 15:15:00</t>
+          <t>2026-02-22 10:10:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bulk Grain 3</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3367,27 +3409,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Golden Axis (T)</t>
+          <t>ICS Tenacious (T)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-22 10:14:00</t>
+          <t>2026-02-23 11:05:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Bluff</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bay Anchorage inner</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3404,27 +3446,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Kota Laris</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-20 09:50:00</t>
+          <t>2026-02-21 06:02:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3441,27 +3483,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Great Vanguard (SC)</t>
+          <t>Latika Naree</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-22 10:10:00</t>
+          <t>2026-02-23 17:59:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3478,27 +3520,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ICS Tenacious (T)</t>
+          <t>Maersk Inverness</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-23 11:05:00</t>
+          <t>2026-02-20 13:47:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3515,27 +3557,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Kota Laris</t>
+          <t>Meghna Star</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-21 06:02:00</t>
+          <t>2026-02-23 07:40:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3552,27 +3594,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>MSC Bay IV</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-20 06:45:00</t>
+          <t>2026-02-22 19:15:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3589,27 +3631,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Maersk Inverness</t>
+          <t>Norse Teshima</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-20 13:47:00</t>
+          <t>2026-02-21 09:51:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3626,27 +3668,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Meghna Star</t>
+          <t>OOCL Kuala Lumpur (PP)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-23 07:40:00</t>
+          <t>2026-02-20 23:20:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3663,27 +3705,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MSC Bay IV</t>
+          <t>Oregon Highway</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-22 19:15:00</t>
+          <t>2026-02-23 08:06:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3700,27 +3742,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MSC Shahar</t>
+          <t>Pan Ceres</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-20 00:42:00</t>
+          <t>2026-02-23 08:05:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3737,27 +3779,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Nabucco</t>
+          <t>Peter Faber</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-20 01:20:00</t>
+          <t>2026-02-24 08:50:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3774,27 +3816,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Norse Teshima</t>
+          <t>Seagull (PP)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-21 09:51:00</t>
+          <t>2026-02-21 09:42:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3811,27 +3853,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>OOCL Kuala Lumpur (PP)</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-20 23:20:00</t>
+          <t>2026-02-24 07:00:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3848,27 +3890,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Oregon Highway</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-23 08:06:00</t>
+          <t>2026-02-21 11:26:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3885,27 +3927,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Pan Ceres</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-23 08:05:00</t>
+          <t>2026-02-23 06:02:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3922,27 +3964,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ruby Ace</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-20 09:05:00</t>
+          <t>2026-02-21 08:33:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3959,27 +4001,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Seagull (PP)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-21 09:42:00</t>
+          <t>2026-02-20 18:42:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -3996,12 +4038,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-21 11:26:00</t>
+          <t>2026-02-24 05:55:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4011,12 +4053,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4075,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-23 06:02:00</t>
+          <t>2026-02-22 05:54:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4053,7 +4095,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -4070,27 +4112,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-21 08:33:00</t>
+          <t>2026-02-21 05:44:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -4107,27 +4149,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-20 05:58:00</t>
+          <t>2026-02-24 06:21:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -4144,27 +4186,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-22 05:54:00</t>
+          <t>2026-02-22 07:20:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -4181,249 +4223,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Viking Orion (P)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-20 18:42:00</t>
+          <t>2026-02-23 07:28:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Tasmanian Achiever 2</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2026-02-21 05:44:00</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Burnie</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Webb Dock 1 East</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>2026-02-23 19:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>TP Endurance (T)</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2026-02-20 03:56:00</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Esperance</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Holden Dock</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2026-02-23 19:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Victorian Reliance II</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2026-02-22 07:20:00</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Burnie</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Webb Dock 1 East</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>2026-02-23 19:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Victorian Reliance II</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2026-02-20 05:43:00</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Burnie</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Webb Dock 1 East</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2026-02-23 19:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Viking Orion (P)</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2026-02-23 07:28:00</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Hobart</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Station Pier Outer West</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>2026-02-23 19:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Xin Lan Zhou (PP)</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2026-02-20 06:00:00</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Webb Dock 5 East</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4276,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-23 19:00</t>
+          <t>2026-02-24 10:09</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,12 +478,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sat 28 Feb02:15</t>
+          <t>Sat 28 Feb02:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>03:05</t>
+          <t>03:35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -683,37 +683,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coral Princess</t>
+          <t>Torm Gabriella</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 2 Mar04:30</t>
+          <t>Sun 1 Mar13:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Gore Cove 1 (GOR1)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Crude/Oil Products Tanker</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -725,27 +725,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Amera</t>
+          <t>Coral Princess</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 2 Mar05:15</t>
+          <t>Mon 2 Mar04:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -767,27 +767,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Azamara Onward</t>
+          <t>Amera</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon 2 Mar06:00</t>
+          <t>Mon 2 Mar05:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -809,27 +809,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MSC Magnifica</t>
+          <t>Azamara Onward</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tue 3 Mar05:00</t>
+          <t>Mon 2 Mar06:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -851,22 +851,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Queen Mary 2</t>
+          <t>MSC Magnifica</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Wed 4 Mar04:00</t>
+          <t>Tue 3 Mar05:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -893,37 +893,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CSL Reliance</t>
+          <t>Queen Mary 2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wed 4 Mar12:00</t>
+          <t>Wed 4 Mar04:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bulk Carrier, Self-discharging</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -935,37 +935,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Norwegian Spirit</t>
+          <t>CSL Reliance</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Thu 5 Mar04:00</t>
+          <t>Wed 4 Mar12:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Bulk Carrier, Self-discharging</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -977,27 +977,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Norwegian Spirit</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Thu 5 Mar05:00</t>
+          <t>Thu 5 Mar04:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1019,37 +1019,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Atlantic Dawn</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Thu 5 Mar15:00</t>
+          <t>Thu 5 Mar05:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Glebe Island 1 (GLB1)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1061,37 +1061,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Atlantic Dawn</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fri 6 Mar05:00</t>
+          <t>Thu 5 Mar15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Port Arthur</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 1 (GLB1)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1103,37 +1103,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Wyuna</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fri 6 Mar12:34</t>
+          <t>Fri 6 Mar05:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Gladstone</t>
+          <t>Port Arthur</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Glebe Island 8 (GLB8)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cement Carrier</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1145,37 +1145,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Wyuna</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sat 7 Mar05:15</t>
+          <t>Fri 6 Mar12:34</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Opua</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Glebe Island 8 (GLB8)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Cement Carrier</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1187,27 +1187,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sun 8 Mar04:45</t>
+          <t>Sat 7 Mar05:15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Opua</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1229,22 +1229,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mon 9 Mar04:30</t>
+          <t>Sun 8 Mar04:45</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Noumea</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1271,37 +1271,79 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Carnival Adventure</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mon 9 Mar04:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tangalooma</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Overseas Passenger Terminal (SCPT)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Passenger/Cruise</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2026-02-24 18:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Seven Seas Mariner</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Tue 10 Mar08:45</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>09:15</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Opua</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Passenger/Cruise</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2026-02-24 10:09</t>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1374,27 +1416,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Esteem Houston (T)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:45PM</t>
+          <t>Feb 25 2026  4:45AM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1453,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 24 2026  5:45PM</t>
+          <t>Feb 25 2026  5:30AM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1426,12 +1468,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1448,27 +1490,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 25 2026  4:00AM</t>
+          <t>Feb 25 2026  7:15AM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1485,27 +1527,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Positive Leader</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 25 2026  5:15AM</t>
+          <t>Feb 25 2026  8:30AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1522,27 +1564,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 25 2026  5:30AM</t>
+          <t>Feb 25 2026  9:15AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1559,27 +1601,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Kota Lambai</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 25 2026  7:15AM</t>
+          <t>Feb 25 2026 12:30PM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1596,12 +1638,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Positive Leader</t>
+          <t>Horizon Highway</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 25 2026  8:30AM</t>
+          <t>Feb 25 2026  3:30PM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1611,12 +1653,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1633,27 +1675,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>Papora Wisdom</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 25 2026  9:15AM</t>
+          <t>Feb 25 2026  4:45PM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Higashishioya</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1670,27 +1712,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kota Lambai</t>
+          <t>Akuna</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feb 25 2026  1:30PM</t>
+          <t>Feb 25 2026  5:30PM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1707,27 +1749,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Horizon Highway</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 25 2026  3:30PM</t>
+          <t>Feb 25 2026  8:30PM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1744,27 +1786,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Papora Wisdom</t>
+          <t>CSAV Rio Nevado</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 25 2026  4:45PM</t>
+          <t>Feb 26 2026 12:30AM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Higashishioya</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1781,27 +1823,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Akuna</t>
+          <t>Adelie</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feb 25 2026  7:30PM</t>
+          <t>Feb 26 2026  2:29AM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1818,27 +1860,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MSC Chulai III</t>
+          <t>Cosco Philippines (BM)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 25 2026  8:30PM</t>
+          <t>Feb 26 2026  4:30AM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1855,27 +1897,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CSAV Rio Nevado</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feb 26 2026 12:30AM</t>
+          <t>Feb 26 2026  4:45AM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1892,27 +1934,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Adelie</t>
+          <t>Esprit Lotus</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feb 26 2026  1:30AM</t>
+          <t>Feb 26 2026  5:15AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Kinuura</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Corio Quay North 4</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1929,27 +1971,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cape Bonavista</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feb 26 2026  4:30AM</t>
+          <t>Feb 26 2026  5:15AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -1966,27 +2008,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cosco Philippines (BM)</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feb 26 2026  4:30AM</t>
+          <t>Feb 26 2026  5:30AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2003,27 +2045,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Esprit Lotus</t>
+          <t>MSC Star R (SC)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Feb 26 2026  4:35AM</t>
+          <t>Feb 26 2026  6:30AM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Kinuura</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Corio Quay North 4</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2040,27 +2082,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Dream Orchid</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Feb 26 2026  4:45AM</t>
+          <t>Feb 26 2026  8:30AM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2077,27 +2119,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Maersk Mammoth (SC) (PP)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:15AM</t>
+          <t>Feb 26 2026  9:30AM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2114,27 +2156,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>MSC Chulai III</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:30AM</t>
+          <t>Feb 26 2026 10:30AM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2151,27 +2193,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dream Orchid</t>
+          <t>Cape Bonavista</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Feb 26 2026  8:30AM</t>
+          <t>Feb 26 2026 10:31AM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2188,27 +2230,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Maersk Mammoth (SC)</t>
+          <t>Crystal Serenity (P)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Feb 26 2026  9:30AM</t>
+          <t>Feb 26 2026 11:30AM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2272,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Feb 26 2026 10:15AM</t>
+          <t>Feb 26 2026 11:45AM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2245,7 +2287,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2262,27 +2304,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Crystal Serenity (P)</t>
+          <t>ALS Clivia (PP)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Feb 26 2026 11:30AM</t>
+          <t>Feb 26 2026  4:30PM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2299,27 +2341,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ALS Clivia (PP)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Feb 26 2026  4:30PM</t>
+          <t>Feb 26 2026  5:45PM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2336,27 +2378,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MSC Star R (SC)</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Feb 26 2026  4:30PM</t>
+          <t>Feb 26 2026  6:00PM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2373,27 +2415,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>XYG Hongkong (SC)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:45PM</t>
+          <t>Feb 26 2026  7:30PM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Gresik  Java</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Appleton Dock C</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2410,27 +2452,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>Ardmore Gibraltar</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Feb 26 2026  6:35PM</t>
+          <t>Feb 27 2026  4:30AM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2447,27 +2489,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>XYG Hongkong (SC)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Feb 26 2026  7:30PM</t>
+          <t>Feb 27 2026  5:15AM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Gresik  Java</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Appleton Dock C</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2526,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ardmore Gibraltar</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Feb 27 2026  1:30AM</t>
+          <t>Feb 27 2026  5:30AM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2521,27 +2563,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:15AM</t>
+          <t>Feb 27 2026  6:56AM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2558,27 +2600,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Seabourn Sojourn (P)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:30AM</t>
+          <t>Feb 27 2026 10:30AM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2595,27 +2637,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Eva Gold (T)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Feb 27 2026  6:56AM</t>
+          <t>Feb 27 2026 12:30PM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2632,12 +2674,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn (P)</t>
+          <t>Phoebe (PP)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Feb 27 2026 10:30AM</t>
+          <t>Feb 27 2026  3:30PM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2647,12 +2689,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2669,27 +2711,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Eva Gold (T)</t>
+          <t>Spirit of Auckland</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Feb 27 2026 11:30AM</t>
+          <t>Feb 27 2026  5:30PM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2706,27 +2748,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Phoebe (PP)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Feb 27 2026  3:30PM</t>
+          <t>Feb 28 2026  4:26AM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2743,27 +2785,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Spirit of Auckland</t>
+          <t>TS Singapore</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:30PM</t>
+          <t>Feb 28 2026  4:30AM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2780,27 +2822,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Feb 28 2026  4:26AM</t>
+          <t>Feb 28 2026  5:15AM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2817,12 +2859,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TS Singapore</t>
+          <t>NPDL Tahiti (SC)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Feb 28 2026  4:30AM</t>
+          <t>Feb 28 2026  5:30AM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2832,12 +2874,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2854,27 +2896,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:15AM</t>
+          <t>Feb 28 2026  5:30AM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2891,27 +2933,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NPDL Tahiti (SC)</t>
+          <t>Trans Future 6</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:30AM</t>
+          <t>Feb 28 2026  8:30AM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2928,27 +2970,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Daiwan Miracle (SC)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:30AM</t>
+          <t>Feb 28 2026  2:35PM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2965,27 +3007,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Trans Future 6</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Feb 28 2026  8:30AM</t>
+          <t>Feb 28 2026  5:26PM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -2997,32 +3039,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ALS Hercules (PP)</t>
+          <t>Stolt Yuri (T)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-21 12:20:00</t>
+          <t>Feb 28 2026  5:35PM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3039,27 +3081,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Altair Leader</t>
+          <t>ALS Hercules (PP)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-24 04:22:00</t>
+          <t>2026-02-21 12:20:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3076,27 +3118,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>APL New York (BM)</t>
+          <t>Altair Leader</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-20 16:06:00</t>
+          <t>2026-02-24 04:22:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3133,7 +3175,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3212,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3249,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3244,7 +3286,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3323,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3360,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3355,7 +3397,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3372,27 +3414,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Great Vanguard (SC)</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-22 10:10:00</t>
+          <t>2026-02-24 11:54:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3409,27 +3451,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ICS Tenacious (T)</t>
+          <t>Great Vanguard (SC)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-23 11:05:00</t>
+          <t>2026-02-22 10:10:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3446,27 +3488,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Kota Laris</t>
+          <t>ICS Tenacious (T)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-21 06:02:00</t>
+          <t>2026-02-23 11:05:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3483,27 +3525,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Latika Naree</t>
+          <t>Kota Laris</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-23 17:59:00</t>
+          <t>2026-02-21 06:02:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3520,27 +3562,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Maersk Inverness</t>
+          <t>Latika Naree</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-20 13:47:00</t>
+          <t>2026-02-23 17:59:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3619,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3656,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3693,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3668,27 +3710,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>OOCL Kuala Lumpur (PP)</t>
+          <t>OOCL Canada (BM)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-20 23:20:00</t>
+          <t>2026-02-24 08:45:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3705,27 +3747,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Oregon Highway</t>
+          <t>OOCL Houston</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-23 08:06:00</t>
+          <t>2026-02-24 13:10:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3742,27 +3784,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Pan Ceres</t>
+          <t>OOCL Kuala Lumpur (PP)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-23 08:05:00</t>
+          <t>2026-02-20 23:20:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3779,27 +3821,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Peter Faber</t>
+          <t>Oregon Highway</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-24 08:50:00</t>
+          <t>2026-02-23 08:06:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3816,27 +3858,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Seagull (PP)</t>
+          <t>Pan Ceres</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-21 09:42:00</t>
+          <t>2026-02-23 08:05:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3853,27 +3895,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Peter Faber</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-24 07:00:00</t>
+          <t>2026-02-24 10:13:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3890,27 +3932,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Seagull (PP)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-21 11:26:00</t>
+          <t>2026-02-21 09:42:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3927,12 +3969,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-23 06:02:00</t>
+          <t>2026-02-24 07:00:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3942,12 +3984,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -3964,12 +4006,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-21 08:33:00</t>
+          <t>2026-02-21 11:26:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3979,12 +4021,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -4001,12 +4043,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-20 18:42:00</t>
+          <t>2026-02-23 06:02:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4021,7 +4063,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -4038,12 +4080,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-24 05:55:00</t>
+          <t>2026-02-21 08:33:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4058,7 +4100,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4137,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -4112,27 +4154,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-21 05:44:00</t>
+          <t>2026-02-24 05:55:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4196,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-24 06:21:00</t>
+          <t>2026-02-21 05:44:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4169,7 +4211,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -4186,12 +4228,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-22 07:20:00</t>
+          <t>2026-02-24 06:21:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4206,7 +4248,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -4223,27 +4265,101 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>Victorian Reliance II</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2026-02-22 07:20:00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2026-02-24 18:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>Viking Orion (P)</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>2026-02-23 07:28:00</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>Hobart</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>Station Pier Outer West</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>2026-02-24 10:09</t>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2026-02-24 18:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>YM Essence (PP)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2026-02-24 12:14:00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Kaohsiung</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Swanson West 2</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>
@@ -4276,7 +4392,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-24 10:09</t>
+          <t>2026-02-24 18:57</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sydney" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Last Updated" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Melbourne" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Last Updated" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,37 +473,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sat 28 Feb02:45</t>
+          <t>Sat 28 Feb12:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>03:35</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -514,22 +515,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sat 28 Feb04:30</t>
+          <t>Sun 1 Mar05:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -544,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -556,37 +557,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Crystal Serenity</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sat 28 Feb12:00</t>
+          <t>Sun 1 Mar06:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Athol Bay Anchorage (ATH4A)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -598,37 +599,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Torm Gabriella</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sun 1 Mar05:00</t>
+          <t>Sun 1 Mar13:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Gore Cove 1 (GOR1)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Crude/Oil Products Tanker</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -640,27 +641,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Crystal Serenity</t>
+          <t>Coral Princess</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sun 1 Mar06:00</t>
+          <t>Mon 2 Mar04:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Athol Bay Anchorage (ATH4A)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -670,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -682,37 +683,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Torm Gabriella</t>
+          <t>Amera</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sun 1 Mar13:00</t>
+          <t>Mon 2 Mar05:15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gore Cove 1 (GOR1)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Crude/Oil Products Tanker</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -724,27 +725,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Coral Princess</t>
+          <t>Azamara Onward</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 2 Mar04:30</t>
+          <t>Mon 2 Mar06:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -754,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -766,27 +767,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Amera</t>
+          <t>MSC Magnifica</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon 2 Mar05:15</t>
+          <t>Tue 3 Mar05:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -796,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -808,27 +809,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Azamara Onward</t>
+          <t>Queen Mary 2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mon 2 Mar06:00</t>
+          <t>Wed 4 Mar04:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -838,7 +839,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -850,37 +851,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MSC Magnifica</t>
+          <t>CSL Reliance</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tue 3 Mar05:00</t>
+          <t>Wed 4 Mar12:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Bulk Carrier, Self-discharging</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -892,27 +893,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Queen Mary 2</t>
+          <t>Norwegian Spirit</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wed 4 Mar04:00</t>
+          <t>Thu 5 Mar04:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -922,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -934,37 +935,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CSL Reliance</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Wed 4 Mar12:00</t>
+          <t>Thu 5 Mar05:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bulk Carrier, Self-discharging</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -976,37 +977,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Norwegian Spirit</t>
+          <t>Atlantic Dawn</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Thu 5 Mar04:00</t>
+          <t>Thu 5 Mar15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Glebe Island 1 (GLB1)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -1018,12 +1019,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Thu 5 Mar05:00</t>
+          <t>Fri 6 Mar05:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1033,7 +1034,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Port Arthur</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1048,7 +1049,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -1060,37 +1061,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Atlantic Dawn</t>
+          <t>Wyuna</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Thu 5 Mar15:00</t>
+          <t>Fri 6 Mar12:34</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Glebe Island 1 (GLB1)</t>
+          <t>Glebe Island 8 (GLB8)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Cement Carrier</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -1102,27 +1103,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fri 6 Mar05:00</t>
+          <t>Sat 7 Mar05:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Port Arthur</t>
+          <t>Opua</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1132,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -1144,37 +1145,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Wyuna</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fri 6 Mar12:34</t>
+          <t>Sun 8 Mar04:45</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gladstone</t>
+          <t>Noumea</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Glebe Island 8 (GLB8)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cement Carrier</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1187,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sat 7 Mar05:15</t>
+          <t>Mon 9 Mar04:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Opua</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1216,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -1228,22 +1229,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Seven Seas Mariner</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sun 8 Mar04:45</t>
+          <t>Tue 10 Mar08:45</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Opua</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1258,7 +1259,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -1270,79 +1271,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Pioneer</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mon 9 Mar04:30</t>
+          <t>Tue 10 Mar22:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>22:50</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Bunbury</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Seven Seas Mariner</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Tue 10 Mar08:45</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>09:15</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Opua</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Passenger/Cruise</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>
@@ -1352,6 +1311,3096 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Port</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Vessel</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Last Updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Cosco Philippines (BM)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Feb 25 2026 11:00PM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Swanson East 3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CSAV Rio Nevado</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Feb 26 2026 12:30AM</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Fremantle</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Webb Dock 3 West</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Papora Wisdom</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Feb 26 2026  1:30AM</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Higashishioya</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Lascelles 1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Feb 26 2026  4:15AM</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Thevenard</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>South Wharf 27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Spirit of Tasmania I</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Feb 26 2026  4:45AM</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Corio Quay South</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Esprit Lotus</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Feb 26 2026  5:15AM</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Kinuura</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Corio Quay North 4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tasmanian Achiever 2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Feb 26 2026  5:15AM</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Searoad Mersey II</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Feb 26 2026  5:30AM</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Webb Dock 2 East</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Maersk Mammoth (SC) (PP)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Feb 26 2026  7:00AM</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Botany Bay</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Swanson West 2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MSC Star R (SC)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Feb 26 2026 11:00AM</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Webb Dock 4 East</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Crystal Serenity (P)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Feb 26 2026 11:30AM</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Milford Sound</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Station Pier Outer West</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Dream Orchid</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Feb 26 2026  1:30PM</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Adelaide</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 West</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MSC Chulai III</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Feb 26 2026  3:00PM</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Webb Dock 5 East</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Cape Bonavista</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Feb 26 2026  3:30PM</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Webb Dock 5 East</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Spirit of Tasmania II</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Feb 26 2026  5:45PM</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Corio Quay South</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Aquagrace</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Feb 26 2026  6:00PM</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Lascelles 3</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Hafnia Raven (T)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Feb 26 2026  7:30PM</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Geelong Refinery3</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>XYG Hongkong (SC)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Feb 26 2026 11:00PM</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Gresik  Java</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Appleton Dock C</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ALS Clivia (PP)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Feb 27 2026  4:30AM</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Botany Bay</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Webb Dock 5 East</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ardmore Gibraltar</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Feb 27 2026  4:30AM</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Holden Dock</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Victorian Reliance II</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Feb 27 2026  5:15AM</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Liekut</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Feb 27 2026  5:30AM</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Webb Dock 2 East</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Spirit of Tasmania I</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Feb 27 2026  6:56AM</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Corio Quay South</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Seabourn Sojourn (P)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Feb 27 2026 10:30AM</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Station Pier Outer East</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Eva Gold (T)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Feb 27 2026 12:30PM</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Brisbane</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Maribyrnong 1</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Phoebe (PP)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Feb 27 2026  3:30PM</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Webb Dock 4 East</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Spirit of Auckland</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Feb 27 2026  5:30PM</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Botany Bay</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Swanson West 1</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Spirit of Tasmania II</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Feb 28 2026  4:26AM</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Corio Quay South</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>TS Singapore</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Feb 28 2026  4:30AM</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Swanson West 2</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Tasmanian Achiever 2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Feb 28 2026  5:15AM</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NPDL Tahiti (SC)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Feb 28 2026  5:30AM</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Swanson East 2</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Searoad Mersey II</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Feb 28 2026  5:30AM</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Webb Dock 2 East</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Trans Future 6</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Feb 28 2026  8:30AM</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Webb Dock 2 West</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Daiwan Miracle (SC)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Feb 28 2026  2:35PM</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Lascelles 1</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Spirit of Tasmania I</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Feb 28 2026  5:26PM</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Corio Quay South</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Stolt Yuri (T)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Feb 28 2026  5:35PM</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Geelong Refinery1</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CMA CGM Quelimane (SC)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Feb 28 2026  8:30PM</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Botany Bay</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Swanson West 1</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Maersk Fukuoka (PP)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Feb 28 2026  8:30PM</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Botany Bay</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Swanson East 3</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MSC Capetown III</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Feb 28 2026 11:30PM</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Adelaide</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Webb Dock 5 East</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>OOCL Texas</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Feb 28 2026 11:30PM</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Botany Bay</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Webb Dock 4 East</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MSC Acapulco IV</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Mar  1 2026  4:30AM</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Webb Dock 4 East</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Liekut</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Mar  1 2026  5:30AM</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Webb Dock 2 East</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Victorian Reliance II</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mar  1 2026  6:40AM</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Spirit of Tasmania II</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mar  1 2026  6:56AM</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Corio Quay South</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Zaandam (P)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mar  1 2026  7:00AM</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Penneshaw</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Station Pier Outer West</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Stolt Tsubaki (T)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Mar  1 2026  8:30AM</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Maribyrnong 1</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Pelion (PP)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Mar  1 2026 12:30PM</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Botany Bay</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Swanson West 2</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Penguin Arrow</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Mar  1 2026  1:30PM</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Appleton Dock E</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>expected arrivals</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Hong Bo 16 (T)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Mar  1 2026  5:35PM</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Geelong Refinery3</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Altair Leader</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2026-02-24 04:22:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 West</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CMA CGM Red (SC)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2026-02-22 04:30:00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Brisbane</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Swanson West 1</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CNC Jawa</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2026-02-24 01:25:00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Botany Bay</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Swanson West 1</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Crescent River (T)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2026-02-21 19:44:00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Bay Anchorage Outer</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Esteem Houston (T)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2026-02-24 19:24:00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Holden Dock</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Golden Axis (T)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2026-02-22 10:14:00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Bluff</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bay Anchorage inner</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Goliath</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2026-02-24 11:54:00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>South Wharf 27</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Great Vanguard (SC)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2026-02-22 10:10:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Appleton Dock E</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Horizon Highway</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2026-02-25 17:00:00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Webb Dock 2 West</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ICS Tenacious (T)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2026-02-23 11:05:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Corio Quay South</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Intermezzo (T)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2026-02-25 10:55:00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Adelaide</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Geelong Refinery1</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Kota Lambai</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2026-02-25 12:55:00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Swanson East 2</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Latika Naree</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2026-02-23 17:59:00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Lascelles 3</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Liekut</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2026-02-25 06:26:00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Webb Dock 2 East</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Meghna Star</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2026-02-23 07:40:00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Lascelles 1</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MSC Bay IV</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2026-02-22 19:15:00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Adelaide</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Webb Dock 4 East</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>OOCL Canada (BM)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2026-02-24 08:45:00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Webb Dock 5 East</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>OOCL Houston</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2026-02-24 13:10:00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Swanson East 3</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Oregon Highway</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2026-02-23 08:06:00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 West</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Pan Ceres</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2026-02-23 08:05:00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bay Anchorage Outer</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Peter Faber</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2026-02-24 10:13:00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Fremantle</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bay Anchorage Outer</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Positive Leader</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2026-02-25 09:55:00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 West</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Searoad Mersey II</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2026-02-24 07:00:00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Webb Dock 2 East</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Spirit of Tasmania I</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2026-02-23 06:02:00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Corio Quay South</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Spirit of Tasmania I</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2026-02-24 18:58:00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Corio Quay South</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Spirit of Tasmania II</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2026-02-24 05:55:00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Corio Quay South</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Spirit of Tasmania II</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2026-02-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Corio Quay South</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Spirit of Tasmania II</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2026-02-22 05:54:00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Corio Quay South</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Tasmanian Achiever 2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2026-02-24 06:21:00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Victorian Reliance II</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2026-02-25 05:40:00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Victorian Reliance II</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2026-02-22 07:20:00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Viking Orion (P)</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2026-02-23 07:28:00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Hobart</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Station Pier Outer West</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>YM Essence (PP)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2026-02-24 12:14:00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Kaohsiung</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Swanson West 2</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2026-02-25 18:59</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1375,7 +4424,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-25 09:03</t>
+          <t>2026-02-25 18:59</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -473,37 +473,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sat 28 Feb12:00</t>
+          <t>Sun 1 Mar05:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -515,27 +515,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Crystal Serenity</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sun 1 Mar05:00</t>
+          <t>Sun 1 Mar06:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Athol Bay Anchorage (ATH4A)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -557,37 +557,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Crystal Serenity</t>
+          <t>Torm Gabriella</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sun 1 Mar06:00</t>
+          <t>Sun 1 Mar13:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Athol Bay Anchorage (ATH4A)</t>
+          <t>Gore Cove 1 (GOR1)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Crude/Oil Products Tanker</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -599,37 +599,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Torm Gabriella</t>
+          <t>Coral Princess</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sun 1 Mar13:00</t>
+          <t>Mon 2 Mar04:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gore Cove 1 (GOR1)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Crude/Oil Products Tanker</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -641,27 +641,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coral Princess</t>
+          <t>Amera</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 2 Mar04:30</t>
+          <t>Mon 2 Mar05:15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -683,27 +683,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amera</t>
+          <t>Azamara Onward</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 2 Mar05:15</t>
+          <t>Mon 2 Mar06:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -725,27 +725,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Azamara Onward</t>
+          <t>MSC Magnifica</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 2 Mar06:00</t>
+          <t>Tue 3 Mar05:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -767,22 +767,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MSC Magnifica</t>
+          <t>Queen Mary 2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tue 3 Mar05:00</t>
+          <t>Wed 4 Mar04:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -809,37 +809,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Queen Mary 2</t>
+          <t>CSL Reliance</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Wed 4 Mar04:00</t>
+          <t>Wed 4 Mar12:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Bulk Carrier, Self-discharging</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -851,37 +851,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CSL Reliance</t>
+          <t>Norwegian Spirit</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Wed 4 Mar12:00</t>
+          <t>Thu 5 Mar04:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bulk Carrier, Self-discharging</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -893,27 +893,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Norwegian Spirit</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Thu 5 Mar04:00</t>
+          <t>Thu 5 Mar05:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -935,37 +935,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Atlantic Dawn</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Thu 5 Mar05:00</t>
+          <t>Thu 5 Mar15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 1 (GLB1)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -977,37 +977,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Atlantic Dawn</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Thu 5 Mar15:00</t>
+          <t>Fri 6 Mar05:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Port Arthur</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Glebe Island 1 (GLB1)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1019,37 +1019,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Wyuna</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fri 6 Mar05:00</t>
+          <t>Fri 6 Mar12:34</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Port Arthur</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 8 (GLB8)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Cement Carrier</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1061,37 +1061,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Wyuna</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fri 6 Mar12:34</t>
+          <t>Sat 7 Mar05:15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Gladstone</t>
+          <t>Opua</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Glebe Island 8 (GLB8)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cement Carrier</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1103,27 +1103,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sat 7 Mar05:15</t>
+          <t>Sun 8 Mar04:45</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Opua</t>
+          <t>Noumea</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sun 8 Mar04:45</t>
+          <t>Mon 9 Mar04:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1187,22 +1187,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Seven Seas Mariner</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mon 9 Mar04:30</t>
+          <t>Tue 10 Mar08:45</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Opua</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1229,37 +1229,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Seven Seas Mariner</t>
+          <t>Pioneer</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tue 10 Mar08:45</t>
+          <t>Tue 10 Mar22:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>22:50</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Opua</t>
+          <t>Bunbury</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1271,37 +1271,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pioneer</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tue 10 Mar22:00</t>
+          <t>Thu 12 Mar04:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22:50</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bunbury</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1374,27 +1374,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cosco Philippines (BM)</t>
+          <t>Crystal Serenity (P)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 25 2026 11:00PM</t>
+          <t>Feb 26 2026 11:30AM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1411,27 +1411,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CSAV Rio Nevado</t>
+          <t>MSC Star R (SC)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 26 2026 12:30AM</t>
+          <t>Feb 26 2026 11:45AM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1448,27 +1448,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Papora Wisdom</t>
+          <t>Dream Orchid</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 26 2026  1:30AM</t>
+          <t>Feb 26 2026  4:00PM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Higashishioya</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1485,27 +1485,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Adelie</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 26 2026  4:15AM</t>
+          <t>Feb 26 2026  5:45PM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1522,27 +1522,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 26 2026  4:45AM</t>
+          <t>Feb 26 2026  6:00PM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1559,27 +1559,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Esprit Lotus</t>
+          <t>MSC Chulai III</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:15AM</t>
+          <t>Feb 26 2026  6:30PM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kinuura</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Corio Quay North 4</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1596,27 +1596,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Cape Bonavista</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:15AM</t>
+          <t>Feb 26 2026  7:30PM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1633,27 +1633,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Hafnia Raven (T)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:30AM</t>
+          <t>Feb 26 2026  7:30PM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1670,27 +1670,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Maersk Mammoth (SC) (PP)</t>
+          <t>XYG Hongkong (SC)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feb 26 2026  7:00AM</t>
+          <t>Feb 26 2026 11:00PM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Gresik  Java</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Appleton Dock C</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1707,27 +1707,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MSC Star R (SC)</t>
+          <t>Penguin Arrow</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 26 2026 11:00AM</t>
+          <t>Feb 26 2026 11:15PM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1744,27 +1744,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Crystal Serenity (P)</t>
+          <t>ALS Clivia (PP)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 26 2026 11:30AM</t>
+          <t>Feb 27 2026  4:30AM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1781,27 +1781,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dream Orchid</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feb 26 2026  1:30PM</t>
+          <t>Feb 27 2026  5:15AM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1818,27 +1818,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MSC Chulai III</t>
+          <t>Ardmore Gibraltar</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 26 2026  3:00PM</t>
+          <t>Feb 27 2026  5:30AM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1855,27 +1855,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cape Bonavista</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feb 26 2026  3:30PM</t>
+          <t>Feb 27 2026  5:30AM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1892,12 +1892,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:45PM</t>
+          <t>Feb 27 2026  7:15AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1929,27 +1929,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>Eva Gold (T)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feb 26 2026  6:00PM</t>
+          <t>Feb 27 2026 10:30AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -1966,12 +1966,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hafnia Raven (T)</t>
+          <t>Seabourn Sojourn (P)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feb 26 2026  7:30PM</t>
+          <t>Feb 27 2026 10:30AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2003,27 +2003,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>XYG Hongkong (SC)</t>
+          <t>Phoebe (PP)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Feb 26 2026 11:00PM</t>
+          <t>Feb 27 2026  3:30PM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Gresik  Java</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Appleton Dock C</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2040,12 +2040,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ALS Clivia (PP)</t>
+          <t>Spirit of Auckland</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Feb 27 2026  4:30AM</t>
+          <t>Feb 27 2026  5:30PM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2055,12 +2055,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2077,27 +2077,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ardmore Gibraltar</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feb 27 2026  4:30AM</t>
+          <t>Feb 28 2026  4:26AM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2114,27 +2114,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>TS Singapore</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:15AM</t>
+          <t>Feb 28 2026  4:30AM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2151,27 +2151,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:30AM</t>
+          <t>Feb 28 2026  5:15AM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2188,27 +2188,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>NPDL Tahiti (SC)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Feb 27 2026  6:56AM</t>
+          <t>Feb 28 2026  5:30AM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2225,27 +2225,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn (P)</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Feb 27 2026 10:30AM</t>
+          <t>Feb 28 2026  5:30AM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2262,27 +2262,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Eva Gold (T)</t>
+          <t>Trans Future 6</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Feb 27 2026 12:30PM</t>
+          <t>Feb 28 2026  8:30AM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2299,27 +2299,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Phoebe (PP)</t>
+          <t>Daiwan Miracle (SC)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Feb 27 2026  3:30PM</t>
+          <t>Feb 28 2026  2:35PM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2336,27 +2336,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Spirit of Auckland</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:30PM</t>
+          <t>Feb 28 2026  5:26PM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2373,27 +2373,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Stolt Yuri (T)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Feb 28 2026  4:26AM</t>
+          <t>Feb 28 2026  5:35PM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2410,27 +2410,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TS Singapore</t>
+          <t>CMA CGM Quelimane (SC)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Feb 28 2026  4:30AM</t>
+          <t>Feb 28 2026  8:30PM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2447,27 +2447,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Maersk Fukuoka (PP)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:15AM</t>
+          <t>Feb 28 2026  8:30PM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NPDL Tahiti (SC)</t>
+          <t>MSC Capetown III</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:30AM</t>
+          <t>Feb 28 2026 11:30PM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2521,27 +2521,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>OOCL Texas</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:30AM</t>
+          <t>Feb 28 2026 11:30PM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2558,27 +2558,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Trans Future 6</t>
+          <t>MSC Acapulco IV</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Feb 28 2026  8:30AM</t>
+          <t>Mar  1 2026  4:30AM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2595,27 +2595,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Daiwan Miracle (SC)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Feb 28 2026  2:35PM</t>
+          <t>Mar  1 2026  5:30AM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2632,27 +2632,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Zaandam (P)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:26PM</t>
+          <t>Mar  1 2026  6:30AM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Penneshaw</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2669,27 +2669,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Stolt Yuri (T)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:35PM</t>
+          <t>Mar  1 2026  6:40AM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2706,27 +2706,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CMA CGM Quelimane (SC)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Feb 28 2026  8:30PM</t>
+          <t>Mar  1 2026  6:56AM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2743,27 +2743,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Maersk Fukuoka (PP)</t>
+          <t>Stolt Tsubaki (T)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Feb 28 2026  8:30PM</t>
+          <t>Mar  1 2026  8:30AM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2780,27 +2780,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MSC Capetown III</t>
+          <t>Pelion (PP)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Feb 28 2026 11:30PM</t>
+          <t>Mar  1 2026 12:30PM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2817,27 +2817,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>OOCL Texas</t>
+          <t>Hong Bo 16 (T)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Feb 28 2026 11:30PM</t>
+          <t>Mar  1 2026  5:35PM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2854,17 +2854,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MSC Acapulco IV</t>
+          <t>APL Columbus (BM)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mar  1 2026  4:30AM</t>
+          <t>Mar  1 2026 10:31PM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2891,27 +2891,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Lord Vishnu</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mar  1 2026  5:30AM</t>
+          <t>Mar  2 2026  3:30AM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2928,27 +2928,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mar  1 2026  6:40AM</t>
+          <t>Mar  2 2026  4:26AM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -2965,27 +2965,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Discovery Princess (P)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mar  1 2026  6:56AM</t>
+          <t>Mar  2 2026  5:30AM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3002,27 +3002,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Zaandam (P)</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mar  1 2026  7:00AM</t>
+          <t>Mar  2 2026  5:30AM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Penneshaw</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3039,27 +3039,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Stolt Tsubaki (T)</t>
+          <t>Norwegian Spirit (P)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mar  1 2026  8:30AM</t>
+          <t>Mar  2 2026  6:30AM</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3071,32 +3071,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Pelion (PP)</t>
+          <t>Adelie</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mar  1 2026 12:30PM</t>
+          <t>2026-02-26 07:44:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3108,32 +3108,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Penguin Arrow</t>
+          <t>Akuna</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mar  1 2026  1:30PM</t>
+          <t>2026-02-25 19:58:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3145,32 +3145,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Hong Bo 16 (T)</t>
+          <t>Altair Leader</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mar  1 2026  5:35PM</t>
+          <t>2026-02-24 04:22:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3187,27 +3187,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Altair Leader</t>
+          <t>CNC Jawa</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-24 04:22:00</t>
+          <t>2026-02-24 01:25:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3224,27 +3224,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CMA CGM Red (SC)</t>
+          <t>Cosco Philippines (BM)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-22 04:30:00</t>
+          <t>2026-02-26 01:15:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3261,27 +3261,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CNC Jawa</t>
+          <t>CSAV Rio Nevado</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-24 01:25:00</t>
+          <t>2026-02-26 01:50:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3298,27 +3298,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Crescent River (T)</t>
+          <t>Esprit Lotus</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-21 19:44:00</t>
+          <t>2026-02-26 07:25:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Kinuura</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Corio Quay North 4</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3705,27 +3705,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Meghna Star</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-23 07:40:00</t>
+          <t>2026-02-25 22:53:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3742,27 +3742,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MSC Bay IV</t>
+          <t>Meghna Star</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-22 19:15:00</t>
+          <t>2026-02-23 07:40:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3779,27 +3779,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>OOCL Canada (BM)</t>
+          <t>MSC Bay IV</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-24 08:45:00</t>
+          <t>2026-02-22 19:15:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3816,27 +3816,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>OOCL Houston</t>
+          <t>OOCL Canada (BM)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-24 13:10:00</t>
+          <t>2026-02-24 08:45:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3853,27 +3853,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Oregon Highway</t>
+          <t>OOCL Houston</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-23 08:06:00</t>
+          <t>2026-02-24 13:10:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3890,27 +3890,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Pan Ceres</t>
+          <t>Oregon Highway</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-23 08:05:00</t>
+          <t>2026-02-23 08:06:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3927,17 +3927,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Peter Faber</t>
+          <t>Pan Ceres</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:00</t>
+          <t>2026-02-23 08:05:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -3964,27 +3964,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Positive Leader</t>
+          <t>Papora Wisdom</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-25 09:55:00</t>
+          <t>2026-02-26 04:00:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Higashishioya</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -4001,27 +4001,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Peter Faber</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-24 07:00:00</t>
+          <t>2026-02-24 10:13:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -4038,27 +4038,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Positive Leader</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-23 06:02:00</t>
+          <t>2026-02-25 09:55:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-24 18:58:00</t>
+          <t>2026-02-26 06:54:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4090,12 +4090,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -4112,12 +4112,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-24 05:55:00</t>
+          <t>2026-02-24 07:00:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4127,12 +4127,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -4149,12 +4149,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-25 08:00:00</t>
+          <t>2026-02-26 05:55:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -4186,12 +4186,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-22 05:54:00</t>
+          <t>2026-02-23 06:02:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -4223,27 +4223,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-24 06:21:00</t>
+          <t>2026-02-24 18:58:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -4260,27 +4260,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-25 05:40:00</t>
+          <t>2026-02-24 05:55:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -4297,27 +4297,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-22 07:20:00</t>
+          <t>2026-02-25 08:00:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -4334,27 +4334,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Viking Orion (P)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-23 07:28:00</t>
+          <t>2026-02-26 05:45:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -4371,27 +4371,138 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>Tasmanian Achiever 2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2026-02-24 06:21:00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2026-02-26 09:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Victorian Reliance II</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2026-02-25 05:40:00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2026-02-26 09:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Viking Orion (P)</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2026-02-23 07:28:00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Hobart</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Station Pier Outer West</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2026-02-26 09:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>YM Essence (PP)</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>2026-02-24 12:14:00</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>Kaohsiung</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>Swanson West 2</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2026-02-25 18:59</t>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4535,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-25 18:59</t>
+          <t>2026-02-26 09:01</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -851,37 +851,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Norwegian Spirit</t>
+          <t>Atlantic Dawn</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Thu 5 Mar04:00</t>
+          <t>Wed 4 Mar16:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Glebe Island 1 (GLB1)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -893,27 +893,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Norwegian Spirit</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Thu 5 Mar05:00</t>
+          <t>Thu 5 Mar04:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -935,37 +935,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Atlantic Dawn</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Thu 5 Mar15:00</t>
+          <t>Thu 5 Mar05:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Glebe Island 1 (GLB1)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1374,27 +1374,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Crystal Serenity (P)</t>
+          <t>Penguin Arrow</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 26 2026 11:30AM</t>
+          <t>Feb 26 2026 11:15PM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1411,27 +1411,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MSC Star R (SC)</t>
+          <t>XYG Hongkong (SC)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 26 2026 11:45AM</t>
+          <t>Feb 27 2026  2:00AM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Gresik  Java</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Appleton Dock C</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1448,27 +1448,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dream Orchid</t>
+          <t>Phoebe (PP)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 26 2026  4:00PM</t>
+          <t>Feb 27 2026  3:00AM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1485,27 +1485,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 26 2026  5:45PM</t>
+          <t>Feb 27 2026  5:15AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1522,27 +1522,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 26 2026  6:00PM</t>
+          <t>Feb 27 2026  5:30AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1559,27 +1559,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MSC Chulai III</t>
+          <t>Ardmore Gibraltar</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 26 2026  6:30PM</t>
+          <t>Feb 27 2026  7:00AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1596,27 +1596,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cape Bonavista</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 26 2026  7:30PM</t>
+          <t>Feb 27 2026  7:15AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1633,12 +1633,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hafnia Raven (T)</t>
+          <t>Seabourn Sojourn (P)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 26 2026  7:30PM</t>
+          <t>Feb 27 2026 10:30AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1670,27 +1670,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>XYG Hongkong (SC)</t>
+          <t>Eva Gold (T)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feb 26 2026 11:00PM</t>
+          <t>Feb 27 2026 11:30AM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gresik  Java</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Appleton Dock C</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1707,27 +1707,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Penguin Arrow</t>
+          <t>ALS Clivia (PP)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 26 2026 11:15PM</t>
+          <t>Feb 27 2026 12:15PM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1744,12 +1744,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ALS Clivia (PP)</t>
+          <t>Spirit of Auckland</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 27 2026  4:30AM</t>
+          <t>Feb 27 2026  5:30PM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1759,12 +1759,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1781,27 +1781,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:15AM</t>
+          <t>Feb 28 2026  4:26AM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1818,27 +1818,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ardmore Gibraltar</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:30AM</t>
+          <t>Feb 28 2026  5:15AM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1855,27 +1855,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>NPDL Tahiti (SC)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:30AM</t>
+          <t>Feb 28 2026  5:30AM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1892,12 +1892,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feb 27 2026  7:15AM</t>
+          <t>Feb 28 2026  5:30AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1929,27 +1929,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Eva Gold (T)</t>
+          <t>Trans Future 6</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feb 27 2026 10:30AM</t>
+          <t>Feb 28 2026  8:30AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -1966,27 +1966,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn (P)</t>
+          <t>Luga</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feb 27 2026 10:30AM</t>
+          <t>Feb 28 2026  9:30AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2003,27 +2003,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Phoebe (PP)</t>
+          <t>CMA CGM Quelimane (SC)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Feb 27 2026  3:30PM</t>
+          <t>Feb 28 2026  2:30PM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2040,27 +2040,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Spirit of Auckland</t>
+          <t>Daiwan Miracle (SC)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:30PM</t>
+          <t>Feb 28 2026  2:35PM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2077,12 +2077,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feb 28 2026  4:26AM</t>
+          <t>Feb 28 2026  5:26PM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2114,27 +2114,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TS Singapore</t>
+          <t>Stolt Yuri (T)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Feb 28 2026  4:30AM</t>
+          <t>Feb 28 2026  7:35PM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2151,27 +2151,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Maersk Fukuoka (PP)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:15AM</t>
+          <t>Feb 28 2026  8:30PM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2188,27 +2188,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NPDL Tahiti (SC)</t>
+          <t>OOCL Texas</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:30AM</t>
+          <t>Feb 28 2026 11:30PM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2225,27 +2225,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>MSC Acapulco IV</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:30AM</t>
+          <t>Mar  1 2026  4:30AM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2262,27 +2262,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Trans Future 6</t>
+          <t>TS Singapore</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Feb 28 2026  8:30AM</t>
+          <t>Mar  1 2026  4:30AM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2299,27 +2299,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Daiwan Miracle (SC)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Feb 28 2026  2:35PM</t>
+          <t>Mar  1 2026  5:30AM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2336,27 +2336,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Zaandam (P)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:26PM</t>
+          <t>Mar  1 2026  6:30AM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Penneshaw</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2373,27 +2373,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Stolt Yuri (T)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:35PM</t>
+          <t>Mar  1 2026  6:40AM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2410,27 +2410,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CMA CGM Quelimane (SC)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Feb 28 2026  8:30PM</t>
+          <t>Mar  1 2026  6:56AM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2447,27 +2447,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Maersk Fukuoka (PP)</t>
+          <t>Stolt Tsubaki (T)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Feb 28 2026  8:30PM</t>
+          <t>Mar  1 2026 12:30PM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MSC Capetown III</t>
+          <t>ES Care</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Feb 28 2026 11:30PM</t>
+          <t>Mar  1 2026  5:35PM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>OOCL Texas</t>
+          <t>APL Columbus (BM)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Feb 28 2026 11:30PM</t>
+          <t>Mar  1 2026 10:31PM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2558,27 +2558,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MSC Acapulco IV</t>
+          <t>MSC Capetown III</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mar  1 2026  4:30AM</t>
+          <t>Mar  2 2026  1:30AM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2595,12 +2595,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mar  1 2026  5:30AM</t>
+          <t>Mar  2 2026  4:26AM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2610,12 +2610,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2632,27 +2632,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Zaandam (P)</t>
+          <t>Lord Vishnu</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mar  1 2026  6:30AM</t>
+          <t>Mar  2 2026  4:30AM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Penneshaw</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2669,27 +2669,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Pelion (PP)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mar  1 2026  6:40AM</t>
+          <t>Mar  2 2026  4:30AM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2706,27 +2706,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Discovery Princess (P)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mar  1 2026  6:56AM</t>
+          <t>Mar  2 2026  5:30AM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2743,17 +2743,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Stolt Tsubaki (T)</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mar  1 2026  8:30AM</t>
+          <t>Mar  2 2026  5:30AM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2780,27 +2780,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pelion (PP)</t>
+          <t>Norwegian Spirit (P)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mar  1 2026 12:30PM</t>
+          <t>Mar  2 2026  6:30AM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2817,27 +2817,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hong Bo 16 (T)</t>
+          <t>Grande Halifax</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mar  1 2026  5:35PM</t>
+          <t>Mar  2 2026  8:30AM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2854,27 +2854,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>APL Columbus (BM)</t>
+          <t>Grande Halifax</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mar  1 2026 10:31PM</t>
+          <t>Mar  2 2026  8:30AM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2891,27 +2891,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lord Vishnu</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mar  2 2026  3:30AM</t>
+          <t>Mar  2 2026  5:26PM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2928,27 +2928,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Arabian Sea</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mar  2 2026  4:26AM</t>
+          <t>Mar  2 2026  5:30PM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2965,27 +2965,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Discovery Princess (P)</t>
+          <t>Hong Bo 16 (T)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:30AM</t>
+          <t>Mar  2 2026  5:35PM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -2997,32 +2997,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>Adelie</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:30AM</t>
+          <t>2026-02-26 07:55:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3034,32 +3034,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Norwegian Spirit (P)</t>
+          <t>Akuna</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mar  2 2026  6:30AM</t>
+          <t>2026-02-25 19:58:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Dunedin</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3076,27 +3076,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Adelie</t>
+          <t>Altair Leader</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-26 07:44:00</t>
+          <t>2026-02-24 04:22:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3113,27 +3113,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Akuna</t>
+          <t>CNC Jawa</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-25 19:58:00</t>
+          <t>2026-02-24 01:25:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3150,27 +3150,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Altair Leader</t>
+          <t>Cosco Philippines (BM)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-24 04:22:00</t>
+          <t>2026-02-26 01:15:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3187,27 +3187,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CNC Jawa</t>
+          <t>Crystal Serenity (P)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-24 01:25:00</t>
+          <t>2026-02-26 12:25:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3224,27 +3224,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cosco Philippines (BM)</t>
+          <t>CSAV Rio Nevado</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-26 01:15:00</t>
+          <t>2026-02-26 01:50:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3261,27 +3261,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CSAV Rio Nevado</t>
+          <t>Dream Orchid</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-26 01:50:00</t>
+          <t>2026-02-26 17:30:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-26 07:25:00</t>
+          <t>2026-02-26 07:36:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3372,27 +3372,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Golden Axis (T)</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-22 10:14:00</t>
+          <t>2026-02-24 11:54:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Bluff</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bay Anchorage inner</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3409,27 +3409,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Horizon Highway</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-24 11:54:00</t>
+          <t>2026-02-25 17:00:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3446,27 +3446,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Great Vanguard (SC)</t>
+          <t>ICS Tenacious (T)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-22 10:10:00</t>
+          <t>2026-02-23 11:05:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3483,27 +3483,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Horizon Highway</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-25 17:00:00</t>
+          <t>2026-02-25 10:55:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3520,27 +3520,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ICS Tenacious (T)</t>
+          <t>Kota Lambai</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-23 11:05:00</t>
+          <t>2026-02-25 12:55:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3557,27 +3557,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>Latika Naree</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-25 10:55:00</t>
+          <t>2026-02-23 17:59:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3594,27 +3594,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Kota Lambai</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-25 12:55:00</t>
+          <t>2026-02-25 06:26:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3631,27 +3631,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Latika Naree</t>
+          <t>Maersk Mammoth (SC) (PP)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-23 17:59:00</t>
+          <t>2026-02-26 08:20:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3668,27 +3668,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-25 06:26:00</t>
+          <t>2026-02-25 22:53:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3705,27 +3705,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>Meghna Star</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-25 22:53:00</t>
+          <t>2026-02-23 07:40:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3742,27 +3742,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Meghna Star</t>
+          <t>MSC Bay IV</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-23 07:40:00</t>
+          <t>2026-02-22 19:15:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3779,17 +3779,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MSC Bay IV</t>
+          <t>MSC Star R (SC)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-22 19:15:00</t>
+          <t>2026-02-26 12:45:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-26 05:55:00</t>
+          <t>2026-02-24 18:58:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-24 18:58:00</t>
+          <t>2026-02-26 05:55:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-24 05:55:00</t>
+          <t>2026-02-25 08:00:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-25 08:00:00</t>
+          <t>2026-02-24 05:55:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>
@@ -4535,7 +4535,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-26 09:01</t>
+          <t>2026-02-26 18:56</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,91 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Carnival Adventure</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fri 13 Mar04:15</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>05:05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Tangalooma</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>White Bay Cruise Terminal (WHT5)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Passenger/Cruise</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2026-02-27 09:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Anthem of the Seas</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fri 13 Mar04:45</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>05:15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Hobart</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Overseas Passenger Terminal (SCPT)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Passenger/Cruise</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1374,27 +1458,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Penguin Arrow</t>
+          <t>ES Care</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 26 2026 11:15PM</t>
+          <t>Feb 27 2026 10:45AM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1411,27 +1495,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>XYG Hongkong (SC)</t>
+          <t>Eva Gold (T)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 27 2026  2:00AM</t>
+          <t>Feb 27 2026 11:00AM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gresik  Java</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Appleton Dock C</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1448,27 +1532,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Phoebe (PP)</t>
+          <t>Spirit of Auckland</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 27 2026  3:00AM</t>
+          <t>Feb 27 2026  5:30PM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1485,27 +1569,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>ALS Clivia (PP)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:15AM</t>
+          <t>Feb 27 2026  6:30PM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1522,12 +1606,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:30AM</t>
+          <t>Feb 28 2026  4:45AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1537,12 +1621,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1559,27 +1643,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ardmore Gibraltar</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 27 2026  7:00AM</t>
+          <t>Feb 28 2026  5:15AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1596,27 +1680,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>NPDL Tahiti (SC)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 27 2026  7:15AM</t>
+          <t>Feb 28 2026  5:30AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1633,27 +1717,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn (P)</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 27 2026 10:30AM</t>
+          <t>Feb 28 2026  5:30AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1670,27 +1754,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Eva Gold (T)</t>
+          <t>Trans Future 6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feb 27 2026 11:30AM</t>
+          <t>Feb 28 2026  8:30AM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1707,27 +1791,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ALS Clivia (PP)</t>
+          <t>Luga</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 27 2026 12:15PM</t>
+          <t>Feb 28 2026  9:30AM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1744,12 +1828,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Spirit of Auckland</t>
+          <t>CMA CGM Quelimane (SC)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:30PM</t>
+          <t>Feb 28 2026  2:30PM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1759,12 +1843,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1781,12 +1865,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feb 28 2026  4:26AM</t>
+          <t>Feb 28 2026  5:45PM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1801,7 +1885,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1818,27 +1902,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Stolt Yuri (T)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:15AM</t>
+          <t>Feb 28 2026  7:45PM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1855,17 +1939,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NPDL Tahiti (SC)</t>
+          <t>Maersk Fukuoka (PP)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:30AM</t>
+          <t>Feb 28 2026  8:30PM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1875,7 +1959,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1892,27 +1976,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>OOCL Texas</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:30AM</t>
+          <t>Feb 28 2026 11:30PM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1929,27 +2013,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Trans Future 6</t>
+          <t>MSC Acapulco IV</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feb 28 2026  8:30AM</t>
+          <t>Mar  1 2026  4:30AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -1966,27 +2050,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Luga</t>
+          <t>TS Singapore</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feb 28 2026  9:30AM</t>
+          <t>Mar  1 2026  4:30AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gladstone</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2003,27 +2087,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CMA CGM Quelimane (SC)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Feb 28 2026  2:30PM</t>
+          <t>Mar  1 2026  5:30AM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2040,27 +2124,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Daiwan Miracle (SC)</t>
+          <t>Zaandam (P)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Feb 28 2026  2:35PM</t>
+          <t>Mar  1 2026  6:30AM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Penneshaw</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2077,27 +2161,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:26PM</t>
+          <t>Mar  1 2026  6:40AM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2114,27 +2198,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Stolt Yuri (T)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Feb 28 2026  7:35PM</t>
+          <t>Mar  1 2026  6:56AM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2151,27 +2235,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Maersk Fukuoka (PP)</t>
+          <t>Stolt Tsubaki (T)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Feb 28 2026  8:30PM</t>
+          <t>Mar  1 2026 12:30PM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2188,12 +2272,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>OOCL Texas</t>
+          <t>APL Columbus (BM)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Feb 28 2026 11:30PM</t>
+          <t>Mar  1 2026 10:31PM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2208,7 +2292,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2225,27 +2309,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MSC Acapulco IV</t>
+          <t>MSC Capetown III</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mar  1 2026  4:30AM</t>
+          <t>Mar  2 2026  1:30AM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2262,27 +2346,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TS Singapore</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mar  1 2026  4:30AM</t>
+          <t>Mar  2 2026  4:26AM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2299,27 +2383,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Lord Vishnu</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mar  1 2026  5:30AM</t>
+          <t>Mar  2 2026  4:30AM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2336,27 +2420,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Zaandam (P)</t>
+          <t>Pelion (PP)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mar  1 2026  6:30AM</t>
+          <t>Mar  2 2026  4:30AM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Penneshaw</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2373,27 +2457,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Discovery Princess (P)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mar  1 2026  6:40AM</t>
+          <t>Mar  2 2026  5:30AM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2410,12 +2494,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mar  1 2026  6:56AM</t>
+          <t>Mar  2 2026  5:30AM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2425,12 +2509,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2447,27 +2531,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Stolt Tsubaki (T)</t>
+          <t>Norwegian Spirit (P)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mar  1 2026 12:30PM</t>
+          <t>Mar  2 2026  6:30AM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2568,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ES Care</t>
+          <t>Daiwan Miracle (SC)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mar  1 2026  5:35PM</t>
+          <t>Mar  2 2026  7:35AM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2521,27 +2605,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>APL Columbus (BM)</t>
+          <t>Grande Halifax</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mar  1 2026 10:31PM</t>
+          <t>Mar  2 2026  8:30AM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2558,27 +2642,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MSC Capetown III</t>
+          <t>Grande Halifax</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mar  2 2026  1:30AM</t>
+          <t>Mar  2 2026  8:30AM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2595,12 +2679,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mar  2 2026  4:26AM</t>
+          <t>Mar  2 2026  5:26PM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2615,7 +2699,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2632,12 +2716,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Lord Vishnu</t>
+          <t>Arabian Sea</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mar  2 2026  4:30AM</t>
+          <t>Mar  2 2026  5:30PM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2647,12 +2731,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2669,27 +2753,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pelion (PP)</t>
+          <t>Hong Bo 16 (T)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mar  2 2026  4:30AM</t>
+          <t>Mar  2 2026  5:35PM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2706,27 +2790,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Discovery Princess (P)</t>
+          <t>Sydney Express (BM)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:30AM</t>
+          <t>Mar  3 2026  4:30AM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2743,27 +2827,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:30AM</t>
+          <t>Mar  3 2026  5:15AM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2780,27 +2864,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Norwegian Spirit (P)</t>
+          <t>ANL Rotorua (SC)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mar  2 2026  6:30AM</t>
+          <t>Mar  3 2026  5:30AM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Dunedin</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2817,27 +2901,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Grande Halifax</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mar  2 2026  8:30AM</t>
+          <t>Mar  3 2026  5:30AM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2854,27 +2938,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Grande Halifax</t>
+          <t>Silver Dawn (P)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mar  2 2026  8:30AM</t>
+          <t>Mar  3 2026  6:30AM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2891,12 +2975,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:26PM</t>
+          <t>Mar  3 2026  6:56AM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2911,7 +2995,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2923,32 +3007,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Arabian Sea</t>
+          <t>Adelie</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:30PM</t>
+          <t>2026-02-26 07:55:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -2960,32 +3044,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Hong Bo 16 (T)</t>
+          <t>Akuna</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:35PM</t>
+          <t>2026-02-25 19:58:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3002,27 +3086,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Adelie</t>
+          <t>Altair Leader</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-26 07:55:00</t>
+          <t>2026-02-24 04:22:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3039,27 +3123,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Akuna</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-25 19:58:00</t>
+          <t>2026-02-26 19:50:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3076,27 +3160,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Altair Leader</t>
+          <t>Cape Bonavista</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-24 04:22:00</t>
+          <t>2026-02-26 22:10:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3133,7 +3217,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3254,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3291,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3244,7 +3328,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3365,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3402,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3355,7 +3439,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3392,7 +3476,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3409,27 +3493,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Horizon Highway</t>
+          <t>Hafnia Raven (T)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-25 17:00:00</t>
+          <t>2026-02-26 21:43:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3446,27 +3530,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ICS Tenacious (T)</t>
+          <t>Horizon Highway</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-23 11:05:00</t>
+          <t>2026-02-25 17:00:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3483,27 +3567,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>ICS Tenacious (T)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-25 10:55:00</t>
+          <t>2026-02-23 11:05:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3520,27 +3604,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Kota Lambai</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-25 12:55:00</t>
+          <t>2026-02-25 10:55:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3557,27 +3641,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Latika Naree</t>
+          <t>Kota Lambai</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-23 17:59:00</t>
+          <t>2026-02-25 12:55:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3594,27 +3678,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Latika Naree</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-25 06:26:00</t>
+          <t>2026-02-23 17:59:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3631,27 +3715,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Maersk Mammoth (SC) (PP)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-26 08:20:00</t>
+          <t>2026-02-27 06:30:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3668,27 +3752,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-25 22:53:00</t>
+          <t>2026-02-25 06:26:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3705,27 +3789,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Meghna Star</t>
+          <t>Maersk Mammoth (SC) (PP)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-23 07:40:00</t>
+          <t>2026-02-26 08:20:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3742,27 +3826,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MSC Bay IV</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-22 19:15:00</t>
+          <t>2026-02-25 22:53:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3779,27 +3863,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MSC Star R (SC)</t>
+          <t>MSC Chulai III</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-26 12:45:00</t>
+          <t>2026-02-26 21:30:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3816,12 +3900,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>OOCL Canada (BM)</t>
+          <t>MSC Star R (SC)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-24 08:45:00</t>
+          <t>2026-02-26 12:45:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3831,12 +3915,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3853,27 +3937,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>OOCL Houston</t>
+          <t>OOCL Canada (BM)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-24 13:10:00</t>
+          <t>2026-02-24 08:45:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3890,27 +3974,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Oregon Highway</t>
+          <t>OOCL Houston</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-23 08:06:00</t>
+          <t>2026-02-24 13:10:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3927,27 +4011,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Pan Ceres</t>
+          <t>Papora Wisdom</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-23 08:05:00</t>
+          <t>2026-02-26 04:00:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Higashishioya</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -3964,27 +4048,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Papora Wisdom</t>
+          <t>Penguin Arrow</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-26 04:00:00</t>
+          <t>2026-02-27 00:47:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Higashishioya</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4105,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4142,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4179,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4216,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4238,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-24 18:58:00</t>
+          <t>2026-02-27 08:09:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4169,7 +4253,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4275,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-23 06:02:00</t>
+          <t>2026-02-26 05:55:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4206,7 +4290,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4312,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-26 05:55:00</t>
+          <t>2026-02-24 18:58:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4243,7 +4327,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4349,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-25 08:00:00</t>
+          <t>2026-02-24 05:55:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4280,7 +4364,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4386,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-24 05:55:00</t>
+          <t>2026-02-25 08:00:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4317,7 +4401,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -4334,27 +4418,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-26 05:45:00</t>
+          <t>2026-02-26 19:04:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4460,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-24 06:21:00</t>
+          <t>2026-02-26 05:45:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4391,7 +4475,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -4408,12 +4492,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-02-25 05:40:00</t>
+          <t>2026-02-24 06:21:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4428,7 +4512,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -4445,27 +4529,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Viking Orion (P)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-23 07:28:00</t>
+          <t>2026-02-25 05:40:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -4482,27 +4566,101 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>Victorian Reliance II</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2026-02-27 05:42:00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2026-02-27 09:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>XYG Hongkong (SC)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2026-02-27 04:01:00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Gresik  Java</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Appleton Dock C</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2026-02-27 09:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>YM Essence (PP)</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>2026-02-24 12:14:00</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>Kaohsiung</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Swanson West 2</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2026-02-26 18:56</t>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>
@@ -4535,7 +4693,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-26 18:56</t>
+          <t>2026-02-27 09:00</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,22 +473,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Coral Princess</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sun 1 Mar05:00</t>
+          <t>Mon 2 Mar04:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -515,27 +515,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crystal Serenity</t>
+          <t>Amera</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sun 1 Mar06:00</t>
+          <t>Mon 2 Mar05:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>06:05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Athol Bay Anchorage (ATH4A)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -557,37 +557,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Torm Gabriella</t>
+          <t>Azamara Onward</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sun 1 Mar13:00</t>
+          <t>Mon 2 Mar06:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gore Cove 1 (GOR1)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Crude/Oil Products Tanker</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -599,37 +599,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coral Princess</t>
+          <t>Torm Gabriella</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon 2 Mar04:30</t>
+          <t>Mon 2 Mar08:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Gore Cove 1 (GOR1)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Crude/Oil Products Tanker</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -641,27 +641,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amera</t>
+          <t>MSC Magnifica</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 2 Mar05:15</t>
+          <t>Tue 3 Mar05:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -683,37 +683,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Azamara Onward</t>
+          <t>CSL Reliance</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 2 Mar06:00</t>
+          <t>Wed 4 Mar04:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Bulk Carrier, Self-discharging</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MSC Magnifica</t>
+          <t>Queen Mary 2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tue 3 Mar05:00</t>
+          <t>Wed 4 Mar04:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -767,37 +767,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Queen Mary 2</t>
+          <t>Atlantic Dawn</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Wed 4 Mar04:00</t>
+          <t>Wed 4 Mar16:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 1 (GLB1)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -809,37 +809,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CSL Reliance</t>
+          <t>Norwegian Spirit</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Wed 4 Mar12:00</t>
+          <t>Thu 5 Mar04:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bulk Carrier, Self-discharging</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -851,37 +851,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Atlantic Dawn</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Wed 4 Mar16:00</t>
+          <t>Thu 5 Mar05:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Glebe Island 1 (GLB1)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -893,27 +893,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Norwegian Spirit</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Thu 5 Mar04:00</t>
+          <t>Fri 6 Mar05:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Port Arthur</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -935,37 +935,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Wyuna</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Thu 5 Mar05:00</t>
+          <t>Sat 7 Mar00:01</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>00:41</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 8 (GLB8)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Cement Carrier</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -977,27 +977,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fri 6 Mar05:00</t>
+          <t>Sat 7 Mar05:15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Port Arthur</t>
+          <t>Opua</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1019,37 +1019,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wyuna</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fri 6 Mar12:34</t>
+          <t>Sun 8 Mar04:45</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gladstone</t>
+          <t>Noumea</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Glebe Island 8 (GLB8)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cement Carrier</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1061,27 +1061,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sat 7 Mar05:15</t>
+          <t>Mon 9 Mar04:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Opua</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1103,22 +1103,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Seven Seas Mariner</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sun 8 Mar04:45</t>
+          <t>Tue 10 Mar08:45</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Opua</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1145,37 +1145,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Pioneer</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mon 9 Mar04:30</t>
+          <t>Tue 10 Mar22:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>22:50</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Bunbury</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1187,22 +1187,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Seven Seas Mariner</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tue 10 Mar08:45</t>
+          <t>Thu 12 Mar04:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Opua</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1229,37 +1229,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pioneer</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tue 10 Mar22:00</t>
+          <t>Fri 13 Mar04:15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22:50</t>
+          <t>05:05</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bunbury</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1271,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Thu 12 Mar04:30</t>
+          <t>Fri 13 Mar04:45</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1301,91 +1301,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Carnival Adventure</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Fri 13 Mar04:15</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>05:05</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Tangalooma</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Passenger/Cruise</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2026-02-27 09:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Anthem of the Seas</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Fri 13 Mar04:45</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>05:15</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Hobart</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Passenger/Cruise</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,27 +1374,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ES Care</t>
+          <t>Trans Future 6</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 27 2026 10:45AM</t>
+          <t>Feb 28 2026  3:30AM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1495,27 +1411,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Eva Gold (T)</t>
+          <t>NPDL Tahiti (SC)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 27 2026 11:00AM</t>
+          <t>Feb 28 2026  4:30AM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1532,27 +1448,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Spirit of Auckland</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 27 2026  5:30PM</t>
+          <t>Feb 28 2026  4:45AM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1569,27 +1485,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ALS Clivia (PP)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 27 2026  6:30PM</t>
+          <t>Feb 28 2026  4:55AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1522,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 28 2026  4:45AM</t>
+          <t>Feb 28 2026  5:30AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1621,12 +1537,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1643,27 +1559,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Latika Naree</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:15AM</t>
+          <t>Feb 28 2026  8:30AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1680,27 +1596,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NPDL Tahiti (SC)</t>
+          <t>Luga</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:30AM</t>
+          <t>Feb 28 2026  9:30AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1717,12 +1633,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:30AM</t>
+          <t>Feb 28 2026  1:00PM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1732,12 +1648,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1754,27 +1670,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Trans Future 6</t>
+          <t>CMA CGM Quelimane (SC)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feb 28 2026  8:30AM</t>
+          <t>Feb 28 2026  2:30PM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1791,27 +1707,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Luga</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 28 2026  9:30AM</t>
+          <t>Feb 28 2026  5:45PM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gladstone</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1828,27 +1744,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CMA CGM Quelimane (SC)</t>
+          <t>Stolt Yuri (T)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 28 2026  2:30PM</t>
+          <t>Feb 28 2026  7:45PM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1865,27 +1781,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Maersk Fukuoka (PP)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:45PM</t>
+          <t>Feb 28 2026  8:30PM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1902,27 +1818,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Stolt Yuri (T)</t>
+          <t>MSC Acapulco IV</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 28 2026  7:45PM</t>
+          <t>Feb 28 2026  9:00PM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1939,27 +1855,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Maersk Fukuoka (PP)</t>
+          <t>TS Singapore</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feb 28 2026  8:30PM</t>
+          <t>Mar  1 2026  4:00AM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -1976,27 +1892,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>OOCL Texas</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feb 28 2026 11:30PM</t>
+          <t>Mar  1 2026  5:30AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2013,27 +1929,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MSC Acapulco IV</t>
+          <t>Zaandam (P)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mar  1 2026  4:30AM</t>
+          <t>Mar  1 2026  6:30AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Penneshaw</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2050,27 +1966,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TS Singapore</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mar  1 2026  4:30AM</t>
+          <t>Mar  1 2026  6:40AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2003,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mar  1 2026  5:30AM</t>
+          <t>Mar  1 2026  7:15AM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2102,12 +2018,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2124,27 +2040,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Zaandam (P)</t>
+          <t>Stolt Tsubaki (T)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mar  1 2026  6:30AM</t>
+          <t>Mar  1 2026 12:30PM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Penneshaw</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2161,27 +2077,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>OOCL Texas</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mar  1 2026  6:40AM</t>
+          <t>Mar  1 2026  4:30PM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2198,27 +2114,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Lord Vishnu</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mar  1 2026  6:56AM</t>
+          <t>Mar  1 2026  7:00PM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2235,27 +2151,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Stolt Tsubaki (T)</t>
+          <t>APL Columbus (BM)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mar  1 2026 12:30PM</t>
+          <t>Mar  1 2026 10:31PM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2272,27 +2188,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>APL Columbus (BM)</t>
+          <t>Daiwan Miracle (SC)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mar  1 2026 10:31PM</t>
+          <t>Mar  1 2026 11:35PM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2309,27 +2225,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MSC Capetown III</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mar  2 2026  1:30AM</t>
+          <t>Mar  2 2026  4:26AM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2346,12 +2262,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mar  2 2026  4:26AM</t>
+          <t>Mar  2 2026  4:30AM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2361,12 +2277,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2299,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lord Vishnu</t>
+          <t>Pelion (PP)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2393,17 +2309,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2336,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pelion (PP)</t>
+          <t>Discovery Princess (P)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mar  2 2026  4:30AM</t>
+          <t>Mar  2 2026  5:30AM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2457,27 +2373,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Discovery Princess (P)</t>
+          <t>Norwegian Spirit (P)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:30AM</t>
+          <t>Mar  2 2026  6:30AM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2494,27 +2410,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>Grande Halifax</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:30AM</t>
+          <t>Mar  2 2026  8:30AM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2531,27 +2447,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Norwegian Spirit (P)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mar  2 2026  6:30AM</t>
+          <t>Mar  2 2026  5:26PM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Dunedin</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2568,27 +2484,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Daiwan Miracle (SC)</t>
+          <t>Arabian Sea</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mar  2 2026  7:35AM</t>
+          <t>Mar  2 2026  5:30PM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2605,27 +2521,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Grande Halifax</t>
+          <t>Hong Bo 16 (T)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mar  2 2026  8:30AM</t>
+          <t>Mar  3 2026 12:35AM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2642,27 +2558,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Grande Halifax</t>
+          <t>ANL Rotorua (SC)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mar  2 2026  8:30AM</t>
+          <t>Mar  3 2026  4:30AM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2679,27 +2595,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:26PM</t>
+          <t>Mar  3 2026  5:15AM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2716,27 +2632,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Arabian Sea</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:30PM</t>
+          <t>Mar  3 2026  5:30AM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2669,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hong Bo 16 (T)</t>
+          <t>Sydney Express (BM)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:35PM</t>
+          <t>Mar  3 2026  5:30AM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2768,12 +2684,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2790,27 +2706,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sydney Express (BM)</t>
+          <t>Silver Dawn (P)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mar  3 2026  4:30AM</t>
+          <t>Mar  3 2026  6:30AM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2827,27 +2743,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mar  3 2026  5:15AM</t>
+          <t>Mar  3 2026  6:56AM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2864,27 +2780,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ANL Rotorua (SC)</t>
+          <t>ZIM Falcon (PP)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mar  3 2026  5:30AM</t>
+          <t>Mar  3 2026  8:30AM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2901,27 +2817,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Nord Missouri</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mar  3 2026  5:30AM</t>
+          <t>Mar  3 2026  2:35PM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2933,32 +2849,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Silver Dawn (P)</t>
+          <t>Adelie</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mar  3 2026  6:30AM</t>
+          <t>2026-02-26 07:55:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -2970,32 +2886,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Akuna</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mar  3 2026  6:56AM</t>
+          <t>2026-02-25 19:58:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3012,27 +2928,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Adelie</t>
+          <t>Altair Leader</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-26 07:55:00</t>
+          <t>2026-02-24 04:22:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3049,27 +2965,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Akuna</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-25 19:58:00</t>
+          <t>2026-02-26 19:50:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3086,27 +3002,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Altair Leader</t>
+          <t>Ardmore Gibraltar (T)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-24 04:22:00</t>
+          <t>2026-02-27 11:48:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3123,27 +3039,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>Cape Bonavista</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-26 19:50:00</t>
+          <t>2026-02-26 22:10:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3160,27 +3076,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cape Bonavista</t>
+          <t>CNC Jawa</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-26 22:10:00</t>
+          <t>2026-02-24 01:25:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3197,27 +3113,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CNC Jawa</t>
+          <t>Cosco Philippines (BM)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-24 01:25:00</t>
+          <t>2026-02-26 01:15:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3234,27 +3150,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cosco Philippines (BM)</t>
+          <t>Crystal Serenity (P)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-26 01:15:00</t>
+          <t>2026-02-26 12:25:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3271,27 +3187,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Crystal Serenity (P)</t>
+          <t>CSAV Rio Nevado</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-26 12:25:00</t>
+          <t>2026-02-26 01:50:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3308,27 +3224,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CSAV Rio Nevado</t>
+          <t>Dream Orchid</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-26 01:50:00</t>
+          <t>2026-02-26 17:30:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3345,27 +3261,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Dream Orchid</t>
+          <t>ES Care</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-26 17:30:00</t>
+          <t>2026-02-27 11:36:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3402,7 +3318,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3439,7 +3355,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3456,27 +3372,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Eva Gold (T)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-24 11:54:00</t>
+          <t>2026-02-27 13:35:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3493,27 +3409,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Hafnia Raven (T)</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-26 21:43:00</t>
+          <t>2026-02-24 11:54:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3530,27 +3446,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Horizon Highway</t>
+          <t>Hafnia Raven (T)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-25 17:00:00</t>
+          <t>2026-02-26 21:43:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3567,27 +3483,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ICS Tenacious (T)</t>
+          <t>Horizon Highway</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-23 11:05:00</t>
+          <t>2026-02-25 17:00:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3540,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3577,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3678,27 +3594,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Latika Naree</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-23 17:59:00</t>
+          <t>2026-02-27 06:30:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3720,7 +3636,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-27 06:30:00</t>
+          <t>2026-02-25 06:26:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3735,7 +3651,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3752,27 +3668,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Maersk Mammoth (SC) (PP)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-25 06:26:00</t>
+          <t>2026-02-26 08:20:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3789,27 +3705,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Maersk Mammoth (SC) (PP)</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-26 08:20:00</t>
+          <t>2026-02-25 22:53:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3826,27 +3742,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>MSC Chulai III</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-25 22:53:00</t>
+          <t>2026-02-26 21:30:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3863,27 +3779,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MSC Chulai III</t>
+          <t>MSC Star R (SC)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-26 21:30:00</t>
+          <t>2026-02-26 12:45:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3900,12 +3816,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MSC Star R (SC)</t>
+          <t>OOCL Canada (BM)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-26 12:45:00</t>
+          <t>2026-02-24 08:45:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3915,12 +3831,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3937,27 +3853,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>OOCL Canada (BM)</t>
+          <t>OOCL Houston</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-24 08:45:00</t>
+          <t>2026-02-24 13:10:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -3974,27 +3890,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>OOCL Houston</t>
+          <t>Papora Wisdom</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-24 13:10:00</t>
+          <t>2026-02-26 04:00:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Higashishioya</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4011,27 +3927,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Papora Wisdom</t>
+          <t>Penguin Arrow</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-26 04:00:00</t>
+          <t>2026-02-27 00:47:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Higashishioya</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4048,27 +3964,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Penguin Arrow</t>
+          <t>Peter Faber</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-27 00:47:00</t>
+          <t>2026-02-24 10:13:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4085,27 +4001,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Peter Faber</t>
+          <t>Phoebe (PP)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:00</t>
+          <t>2026-02-27 08:45:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4058,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4159,27 +4075,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Seabourn Sojourn (P)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-26 06:54:00</t>
+          <t>2026-02-27 11:35:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4117,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-24 07:00:00</t>
+          <t>2026-02-26 06:54:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4216,7 +4132,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4233,12 +4149,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-27 08:09:00</t>
+          <t>2026-02-24 07:00:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4248,12 +4164,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4275,7 +4191,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-26 05:55:00</t>
+          <t>2026-02-27 08:11:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4290,7 +4206,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4228,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-24 18:58:00</t>
+          <t>2026-02-26 05:55:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4327,7 +4243,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4344,12 +4260,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-24 05:55:00</t>
+          <t>2026-02-24 18:58:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4364,7 +4280,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4302,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-25 08:00:00</t>
+          <t>2026-02-24 05:55:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4401,7 +4317,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4423,7 +4339,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-26 19:04:00</t>
+          <t>2026-02-25 08:00:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4438,7 +4354,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4455,27 +4371,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-26 05:45:00</t>
+          <t>2026-02-26 19:04:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4413,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-02-24 06:21:00</t>
+          <t>2026-02-26 05:45:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4512,7 +4428,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4529,12 +4445,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-25 05:40:00</t>
+          <t>2026-02-24 06:21:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4549,7 +4465,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4487,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-02-27 05:42:00</t>
+          <t>2026-02-25 05:40:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4586,7 +4502,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4603,27 +4519,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>XYG Hongkong (SC)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-02-27 04:01:00</t>
+          <t>2026-02-27 05:42:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Gresik  Java</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Appleton Dock C</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4640,27 +4556,64 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>XYG Hongkong (SC)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2026-02-27 04:01:00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Gresik  Java</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Appleton Dock C</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2026-02-27 18:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>YM Essence (PP)</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>2026-02-24 12:14:00</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>Kaohsiung</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>Swanson West 2</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>2026-02-27 09:00</t>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4646,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-27 09:00</t>
+          <t>2026-02-27 18:36</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CSL Reliance</t>
+          <t>Queen Mary 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -693,27 +693,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bulk Carrier, Self-discharging</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Queen Mary 2</t>
+          <t>CSL Reliance</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -735,27 +735,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Bulk Carrier, Self-discharging</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,49 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Carnival Splendor</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Sat 14 Mar05:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>05:30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Noumea</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Overseas Passenger Terminal (SCPT)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Passenger/Cruise</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1374,27 +1416,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Trans Future 6</t>
+          <t>CMA CGM Quelimane (SC)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 28 2026  3:30AM</t>
+          <t>Feb 28 2026  1:00PM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1411,27 +1453,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NPDL Tahiti (SC)</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 28 2026  4:30AM</t>
+          <t>Feb 28 2026  1:15PM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1448,12 +1490,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 28 2026  4:45AM</t>
+          <t>Feb 28 2026  5:45PM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1468,7 +1510,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1485,27 +1527,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Stolt Yuri (T)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 28 2026  4:55AM</t>
+          <t>Feb 28 2026  7:45PM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1522,27 +1564,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Maersk Fukuoka (PP)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:30AM</t>
+          <t>Feb 28 2026  8:30PM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1559,27 +1601,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Latika Naree</t>
+          <t>MSC Acapulco IV</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 28 2026  8:30AM</t>
+          <t>Feb 28 2026  9:00PM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1596,27 +1638,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Luga</t>
+          <t>TS Singapore</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 28 2026  9:30AM</t>
+          <t>Mar  1 2026  4:00AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gladstone</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1633,12 +1675,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feb 28 2026  1:00PM</t>
+          <t>Mar  1 2026  5:30AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1648,12 +1690,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1670,27 +1712,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CMA CGM Quelimane (SC)</t>
+          <t>Zaandam (P)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feb 28 2026  2:30PM</t>
+          <t>Mar  1 2026  6:30AM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Penneshaw</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1707,27 +1749,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:45PM</t>
+          <t>Mar  1 2026  6:40AM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1744,27 +1786,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Stolt Yuri (T)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feb 28 2026  7:45PM</t>
+          <t>Mar  1 2026  7:15AM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1781,27 +1823,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Maersk Fukuoka (PP)</t>
+          <t>Stolt Tsubaki (T)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feb 28 2026  8:30PM</t>
+          <t>Mar  1 2026 12:30PM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1818,27 +1860,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MSC Acapulco IV</t>
+          <t>OOCL Texas</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feb 28 2026  9:00PM</t>
+          <t>Mar  1 2026  4:30PM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1855,27 +1897,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TS Singapore</t>
+          <t>Lord Vishnu</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mar  1 2026  4:00AM</t>
+          <t>Mar  1 2026  7:00PM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1892,27 +1934,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>APL Columbus (BM)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mar  1 2026  5:30AM</t>
+          <t>Mar  1 2026 10:31PM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1929,27 +1971,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Zaandam (P)</t>
+          <t>Daiwan Miracle (SC)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mar  1 2026  6:30AM</t>
+          <t>Mar  1 2026 11:35PM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Penneshaw</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -1966,27 +2008,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mar  1 2026  6:40AM</t>
+          <t>Mar  2 2026  4:26AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2003,12 +2045,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mar  1 2026  7:15AM</t>
+          <t>Mar  2 2026  4:30AM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2018,12 +2060,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Bay Anchorage inner</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2040,27 +2082,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Stolt Tsubaki (T)</t>
+          <t>Pelion (PP)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mar  1 2026 12:30PM</t>
+          <t>Mar  2 2026  4:30AM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2077,27 +2119,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>OOCL Texas</t>
+          <t>Discovery Princess (P)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mar  1 2026  4:30PM</t>
+          <t>Mar  2 2026  5:30AM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2114,27 +2156,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lord Vishnu</t>
+          <t>Norwegian Spirit (P)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mar  1 2026  7:00PM</t>
+          <t>Mar  2 2026  6:30AM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2151,27 +2193,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>APL Columbus (BM)</t>
+          <t>Grande Halifax</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mar  1 2026 10:31PM</t>
+          <t>Mar  2 2026  8:30AM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2188,27 +2230,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Daiwan Miracle (SC)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mar  1 2026 11:35PM</t>
+          <t>Mar  2 2026  5:26PM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2225,27 +2267,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Arabian Sea</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mar  2 2026  4:26AM</t>
+          <t>Mar  2 2026  5:30PM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2262,27 +2304,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>Hong Bo 16 (T)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mar  2 2026  4:30AM</t>
+          <t>Mar  3 2026 12:35AM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2299,12 +2341,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pelion (PP)</t>
+          <t>ANL Rotorua (SC)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mar  2 2026  4:30AM</t>
+          <t>Mar  3 2026  4:30AM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2314,12 +2356,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2336,27 +2378,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Discovery Princess (P)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:30AM</t>
+          <t>Mar  3 2026  5:15AM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2373,27 +2415,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Norwegian Spirit (P)</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mar  2 2026  6:30AM</t>
+          <t>Mar  3 2026  5:30AM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Dunedin</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2410,27 +2452,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Grande Halifax</t>
+          <t>Sydney Express (BM)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mar  2 2026  8:30AM</t>
+          <t>Mar  3 2026  5:30AM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2447,27 +2489,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Silver Dawn (P)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:26PM</t>
+          <t>Mar  3 2026  6:30AM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2526,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Arabian Sea</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:30PM</t>
+          <t>Mar  3 2026  6:56AM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2521,27 +2563,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Hong Bo 16 (T)</t>
+          <t>ZIM Falcon (PP)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mar  3 2026 12:35AM</t>
+          <t>Mar  3 2026  8:30AM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2558,27 +2600,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ANL Rotorua (SC)</t>
+          <t>Nord Missouri</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mar  3 2026  4:30AM</t>
+          <t>Mar  3 2026  2:35PM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2595,27 +2637,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Torm Troilus (T)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mar  3 2026  5:15AM</t>
+          <t>Mar  4 2026  3:35AM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2632,12 +2674,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mar  3 2026  5:30AM</t>
+          <t>Mar  4 2026  4:26AM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2647,12 +2689,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2669,27 +2711,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sydney Express (BM)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mar  3 2026  5:30AM</t>
+          <t>Mar  4 2026  5:15AM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2706,27 +2748,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Silver Dawn (P)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mar  3 2026  6:30AM</t>
+          <t>Mar  4 2026  5:30AM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2738,32 +2780,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Adelie</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mar  3 2026  6:56AM</t>
+          <t>2026-02-26 07:55:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2775,32 +2817,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ZIM Falcon (PP)</t>
+          <t>Akuna</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mar  3 2026  8:30AM</t>
+          <t>2026-02-25 19:58:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2812,32 +2854,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nord Missouri</t>
+          <t>ALS Clivia (PP)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mar  3 2026  2:35PM</t>
+          <t>2026-02-27 20:20:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2854,27 +2896,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Adelie</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-02-26 07:55:00</t>
+          <t>2026-02-26 19:50:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2891,27 +2933,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Akuna</t>
+          <t>Ardmore Gibraltar (T)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-02-25 19:58:00</t>
+          <t>2026-02-27 11:48:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2928,27 +2970,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Altair Leader</t>
+          <t>Cape Bonavista</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-24 04:22:00</t>
+          <t>2026-02-26 22:10:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -2965,27 +3007,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>Cosco Philippines (BM)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-26 19:50:00</t>
+          <t>2026-02-26 01:15:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3002,27 +3044,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ardmore Gibraltar (T)</t>
+          <t>Crystal Serenity (P)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-27 11:48:00</t>
+          <t>2026-02-26 12:25:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3039,27 +3081,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cape Bonavista</t>
+          <t>CSAV Rio Nevado</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-26 22:10:00</t>
+          <t>2026-02-26 01:50:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3076,27 +3118,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CNC Jawa</t>
+          <t>Dream Orchid</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-24 01:25:00</t>
+          <t>2026-02-26 17:30:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3113,27 +3155,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cosco Philippines (BM)</t>
+          <t>ES Care</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-26 01:15:00</t>
+          <t>2026-02-27 11:36:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3150,27 +3192,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Crystal Serenity (P)</t>
+          <t>Esprit Lotus</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-26 12:25:00</t>
+          <t>2026-02-26 07:36:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Kinuura</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Corio Quay North 4</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3187,27 +3229,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CSAV Rio Nevado</t>
+          <t>Esteem Houston (T)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-26 01:50:00</t>
+          <t>2026-02-24 19:24:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3224,27 +3266,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Dream Orchid</t>
+          <t>Eva Gold (T)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-26 17:30:00</t>
+          <t>2026-02-27 13:35:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3261,27 +3303,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ES Care</t>
+          <t>Goliath</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-27 11:36:00</t>
+          <t>2026-02-24 11:54:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3298,27 +3340,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Esprit Lotus</t>
+          <t>Hafnia Raven (T)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-26 07:36:00</t>
+          <t>2026-02-26 21:43:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Kinuura</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Corio Quay North 4</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3335,27 +3377,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Esteem Houston (T)</t>
+          <t>Horizon Highway</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-24 19:24:00</t>
+          <t>2026-02-25 17:00:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3372,27 +3414,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Eva Gold (T)</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-27 13:35:00</t>
+          <t>2026-02-25 10:55:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3409,27 +3451,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Kota Lambai</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-24 11:54:00</t>
+          <t>2026-02-25 12:55:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3446,27 +3488,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Hafnia Raven (T)</t>
+          <t>Latika Naree</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-26 21:43:00</t>
+          <t>2026-02-28 07:56:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3483,27 +3525,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Horizon Highway</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-25 17:00:00</t>
+          <t>2026-02-27 06:30:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3520,27 +3562,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-25 10:55:00</t>
+          <t>2026-02-25 06:26:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3557,27 +3599,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Kota Lambai</t>
+          <t>Maersk Mammoth (SC) (PP)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-25 12:55:00</t>
+          <t>2026-02-26 08:20:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3594,27 +3636,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-27 06:30:00</t>
+          <t>2026-02-25 22:53:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3631,27 +3673,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>MSC Chulai III</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-25 06:26:00</t>
+          <t>2026-02-26 21:30:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3668,27 +3710,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Maersk Mammoth (SC) (PP)</t>
+          <t>MSC Star R (SC)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-26 08:20:00</t>
+          <t>2026-02-26 12:45:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3705,27 +3747,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>NPDL Tahiti (SC)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-25 22:53:00</t>
+          <t>2026-02-28 06:08:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3742,27 +3784,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MSC Chulai III</t>
+          <t>OOCL Houston</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-26 21:30:00</t>
+          <t>2026-02-24 13:10:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3779,27 +3821,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MSC Star R (SC)</t>
+          <t>Papora Wisdom</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-26 12:45:00</t>
+          <t>2026-02-26 04:00:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Higashishioya</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3816,27 +3858,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>OOCL Canada (BM)</t>
+          <t>Penguin Arrow</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-24 08:45:00</t>
+          <t>2026-02-27 00:47:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3853,27 +3895,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>OOCL Houston</t>
+          <t>Peter Faber</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-24 13:10:00</t>
+          <t>2026-02-24 10:13:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3890,27 +3932,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Papora Wisdom</t>
+          <t>Phoebe (PP)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-26 04:00:00</t>
+          <t>2026-02-27 08:45:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Higashishioya</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3927,27 +3969,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Penguin Arrow</t>
+          <t>Positive Leader</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-27 00:47:00</t>
+          <t>2026-02-25 09:55:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -3964,27 +4006,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Peter Faber</t>
+          <t>Seabourn Sojourn (P)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:00</t>
+          <t>2026-02-27 11:35:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -4001,27 +4043,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Phoebe (PP)</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-27 08:45:00</t>
+          <t>2026-02-26 06:54:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -4038,27 +4080,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Positive Leader</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-25 09:55:00</t>
+          <t>2026-02-28 06:36:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -4075,27 +4117,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn (P)</t>
+          <t>Spirit of Auckland</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-27 11:35:00</t>
+          <t>2026-02-27 22:00:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -4112,12 +4154,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-26 06:54:00</t>
+          <t>2026-02-26 05:55:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4127,12 +4169,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -4149,12 +4191,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-24 07:00:00</t>
+          <t>2026-02-24 18:58:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4164,12 +4206,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4248,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -4223,12 +4265,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-26 05:55:00</t>
+          <t>2026-02-26 19:04:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4243,7 +4285,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -4260,12 +4302,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-24 18:58:00</t>
+          <t>2026-02-25 08:00:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4280,7 +4322,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4344,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-24 05:55:00</t>
+          <t>2026-02-28 05:50:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4317,7 +4359,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -4334,27 +4376,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-25 08:00:00</t>
+          <t>2026-02-26 05:45:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -4371,27 +4413,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-26 19:04:00</t>
+          <t>2026-02-28 05:45:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -4408,27 +4450,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Trans Future 6</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-02-26 05:45:00</t>
+          <t>2026-02-28 04:30:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -4445,12 +4487,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-24 06:21:00</t>
+          <t>2026-02-25 05:40:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4465,7 +4507,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4529,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-02-25 05:40:00</t>
+          <t>2026-02-27 05:42:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4502,7 +4544,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -4519,27 +4561,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>XYG Hongkong (SC)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-02-27 05:42:00</t>
+          <t>2026-02-27 04:01:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Gresik  Java</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Appleton Dock C</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -4556,64 +4598,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>XYG Hongkong (SC)</t>
+          <t>YM Essence (PP)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2026-02-27 04:01:00</t>
+          <t>2026-02-24 12:14:00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Gresik  Java</t>
+          <t>Kaohsiung</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Appleton Dock C</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>YM Essence (PP)</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2026-02-24 12:14:00</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Kaohsiung</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Swanson West 2</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>
@@ -4646,7 +4651,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-27 18:36</t>
+          <t>2026-02-28 08:54</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,22 +473,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coral Princess</t>
+          <t>MSC Magnifica</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 2 Mar04:30</t>
+          <t>Tue 3 Mar05:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -515,37 +515,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amera</t>
+          <t>Torm Gabriella</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 2 Mar05:15</t>
+          <t>Tue 3 Mar07:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>06:05</t>
+          <t>07:55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Gore Cove 1 (GOR1)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Crude/Oil Products Tanker</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -557,27 +557,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azamara Onward</t>
+          <t>Queen Mary 2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon 2 Mar06:00</t>
+          <t>Wed 4 Mar04:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -599,37 +599,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Torm Gabriella</t>
+          <t>CSL Reliance</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon 2 Mar08:30</t>
+          <t>Wed 4 Mar06:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gore Cove 1 (GOR1)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Crude/Oil Products Tanker</t>
+          <t>Bulk Carrier, Self-discharging</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -641,37 +641,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MSC Magnifica</t>
+          <t>Atlantic Dawn</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tue 3 Mar05:00</t>
+          <t>Wed 4 Mar16:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 1 (GLB1)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -683,27 +683,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Queen Mary 2</t>
+          <t>Norwegian Spirit</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wed 4 Mar04:00</t>
+          <t>Thu 5 Mar04:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -725,37 +725,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CSL Reliance</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wed 4 Mar04:00</t>
+          <t>Thu 5 Mar05:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bulk Carrier, Self-discharging</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -767,37 +767,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Atlantic Dawn</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Wed 4 Mar16:00</t>
+          <t>Fri 6 Mar05:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Port Arthur</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Glebe Island 1 (GLB1)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -809,37 +809,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Norwegian Spirit</t>
+          <t>Wyuna</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Thu 5 Mar04:00</t>
+          <t>Sat 7 Mar00:01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>00:41</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Glebe Island 8 (GLB8)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Cement Carrier</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -851,27 +851,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Thu 5 Mar05:00</t>
+          <t>Sat 7 Mar05:15</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Opua</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -893,22 +893,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fri 6 Mar05:00</t>
+          <t>Sun 8 Mar04:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Port Arthur</t>
+          <t>Noumea</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -935,37 +935,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wyuna</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sat 7 Mar00:01</t>
+          <t>Mon 9 Mar04:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:41</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gladstone</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Glebe Island 8 (GLB8)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cement Carrier</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -977,17 +977,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Seven Seas Mariner</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sat 7 Mar05:15</t>
+          <t>Tue 10 Mar08:45</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1019,37 +1019,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Pioneer</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sun 8 Mar04:45</t>
+          <t>Tue 10 Mar22:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>22:50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Bunbury</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mon 9 Mar04:30</t>
+          <t>Thu 12 Mar04:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1103,27 +1103,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Seven Seas Mariner</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tue 10 Mar08:45</t>
+          <t>Fri 13 Mar04:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>05:05</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Opua</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1145,37 +1145,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pioneer</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tue 10 Mar22:00</t>
+          <t>Fri 13 Mar04:45</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22:50</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bunbury</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1187,22 +1187,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Thu 12 Mar04:30</t>
+          <t>Sat 14 Mar05:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Noumea</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1217,133 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Carnival Adventure</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Fri 13 Mar04:15</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>05:05</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Tangalooma</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Passenger/Cruise</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2026-02-28 08:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Anthem of the Seas</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Fri 13 Mar04:45</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>05:15</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Hobart</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Passenger/Cruise</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2026-02-28 08:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Carnival Splendor</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sat 14 Mar05:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>05:30</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Noumea</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Passenger/Cruise</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1416,12 +1290,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CMA CGM Quelimane (SC)</t>
+          <t>Maersk Fukuoka (PP)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 28 2026  1:00PM</t>
+          <t>Feb 28 2026  7:00PM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1431,12 +1305,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1453,12 +1327,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 28 2026  1:15PM</t>
+          <t>Feb 28 2026  7:14PM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1468,12 +1342,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1490,27 +1364,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Stolt Yuri (T)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 28 2026  5:45PM</t>
+          <t>Feb 28 2026 11:45PM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1527,27 +1401,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Stolt Yuri (T)</t>
+          <t>MSC Acapulco IV</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feb 28 2026  7:45PM</t>
+          <t>Mar  1 2026 12:01AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1564,27 +1438,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Maersk Fukuoka (PP)</t>
+          <t>TS Singapore</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feb 28 2026  8:30PM</t>
+          <t>Mar  1 2026  1:30AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1601,27 +1475,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MSC Acapulco IV</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 28 2026  9:00PM</t>
+          <t>Mar  1 2026  5:30AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1638,27 +1512,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TS Singapore</t>
+          <t>Zaandam (P)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mar  1 2026  4:00AM</t>
+          <t>Mar  1 2026  6:30AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Penneshaw</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1675,27 +1549,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mar  1 2026  5:30AM</t>
+          <t>Mar  1 2026  6:40AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1712,27 +1586,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Zaandam (P)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mar  1 2026  6:30AM</t>
+          <t>Mar  1 2026  7:15AM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Penneshaw</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1749,27 +1623,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Molly Grace</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mar  1 2026  6:40AM</t>
+          <t>Mar  1 2026 11:30AM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>South Wharf 29</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1786,27 +1660,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Stolt Tsubaki (T)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mar  1 2026  7:15AM</t>
+          <t>Mar  1 2026  1:30PM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1823,27 +1697,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Stolt Tsubaki (T)</t>
+          <t>OOCL Texas</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mar  1 2026 12:30PM</t>
+          <t>Mar  1 2026  2:30PM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1860,27 +1734,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>OOCL Texas</t>
+          <t>Lord Vishnu</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mar  1 2026  4:30PM</t>
+          <t>Mar  1 2026  7:00PM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1897,27 +1771,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lord Vishnu</t>
+          <t>Pelion (PP)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mar  1 2026  7:00PM</t>
+          <t>Mar  1 2026 10:30PM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1934,27 +1808,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>APL Columbus (BM)</t>
+          <t>Daiwan Miracle (SC)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mar  1 2026 10:31PM</t>
+          <t>Mar  1 2026 11:45PM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -1971,27 +1845,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Daiwan Miracle (SC)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mar  1 2026 11:35PM</t>
+          <t>Mar  2 2026  4:45AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2008,27 +1882,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Discovery Princess (P)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mar  2 2026  4:26AM</t>
+          <t>Mar  2 2026  5:30AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2045,27 +1919,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>Norwegian Spirit (P)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mar  2 2026  4:30AM</t>
+          <t>Mar  2 2026  6:30AM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bay Anchorage inner</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2082,27 +1956,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pelion (PP)</t>
+          <t>Grande Halifax</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mar  2 2026  4:30AM</t>
+          <t>Mar  2 2026  8:30AM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2119,27 +1993,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Discovery Princess (P)</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:30AM</t>
+          <t>Mar  2 2026  9:30AM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Bay Anchorage inner</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2156,27 +2030,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Norwegian Spirit (P)</t>
+          <t>APL Columbus (BM)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mar  2 2026  6:30AM</t>
+          <t>Mar  2 2026 10:30AM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Dunedin</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2193,27 +2067,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Grande Halifax</t>
+          <t>Arabian Sea</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mar  2 2026  8:30AM</t>
+          <t>Mar  2 2026  5:30PM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2109,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:26PM</t>
+          <t>Mar  2 2026  5:45PM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2250,7 +2124,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2267,27 +2141,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Arabian Sea</t>
+          <t>Hong Bo 16 (T)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:30PM</t>
+          <t>Mar  3 2026 12:35AM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2304,27 +2178,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hong Bo 16 (T)</t>
+          <t>ANL Rotorua (SC)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mar  3 2026 12:35AM</t>
+          <t>Mar  3 2026  4:30AM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2341,27 +2215,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ANL Rotorua (SC)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mar  3 2026  4:30AM</t>
+          <t>Mar  3 2026  5:15AM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2378,27 +2252,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mar  3 2026  5:15AM</t>
+          <t>Mar  3 2026  5:30AM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2289,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Sydney Express (BM)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2425,17 +2299,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2326,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sydney Express (BM)</t>
+          <t>Silver Dawn (P)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mar  3 2026  5:30AM</t>
+          <t>Mar  3 2026  6:30AM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2489,27 +2363,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Silver Dawn (P)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mar  3 2026  6:30AM</t>
+          <t>Mar  3 2026  6:56AM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2526,27 +2400,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>ZIM Falcon (PP)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mar  3 2026  6:56AM</t>
+          <t>Mar  3 2026  8:30AM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2563,27 +2437,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ZIM Falcon (PP)</t>
+          <t>Nord Missouri</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mar  3 2026  8:30AM</t>
+          <t>Mar  3 2026  2:35PM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2600,27 +2474,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nord Missouri</t>
+          <t>Torm Troilus (T)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mar  3 2026  2:35PM</t>
+          <t>Mar  4 2026  3:35AM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2637,27 +2511,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Torm Troilus (T)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mar  4 2026  3:35AM</t>
+          <t>Mar  4 2026  4:26AM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2674,27 +2548,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mar  4 2026  4:26AM</t>
+          <t>Mar  4 2026  5:15AM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2711,27 +2585,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mar  4 2026  5:15AM</t>
+          <t>Mar  4 2026  5:30AM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2748,27 +2622,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Noble Ace</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mar  4 2026  5:30AM</t>
+          <t>Mar  4 2026  8:30AM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2780,32 +2654,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Adelie</t>
+          <t>Young Endeavour</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2026-02-26 07:55:00</t>
+          <t>Mar  4 2026  9:40AM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Geelong South Inner ANCO</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2817,32 +2691,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Akuna</t>
+          <t>Cosco Rotterdam (PP)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2026-02-25 19:58:00</t>
+          <t>Mar  4 2026 12:30PM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2854,32 +2728,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ALS Clivia (PP)</t>
+          <t>Taokas Wisdom (SC)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2026-02-27 20:20:00</t>
+          <t>Mar  4 2026  1:30PM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2891,32 +2765,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>M/Y Mischief</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-02-26 19:50:00</t>
+          <t>Mar  4 2026  2:30PM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Docklands Victoria Harbour</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2933,27 +2807,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ardmore Gibraltar (T)</t>
+          <t>Adelie</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-02-27 11:48:00</t>
+          <t>2026-02-26 07:55:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -2970,27 +2844,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cape Bonavista</t>
+          <t>Akuna</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-26 22:10:00</t>
+          <t>2026-02-25 19:58:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3007,27 +2881,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cosco Philippines (BM)</t>
+          <t>ALS Clivia (PP)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-26 01:15:00</t>
+          <t>2026-02-27 20:20:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3044,27 +2918,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Crystal Serenity (P)</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-26 12:25:00</t>
+          <t>2026-02-26 19:50:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3081,27 +2955,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CSAV Rio Nevado</t>
+          <t>Ardmore Gibraltar (T)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-26 01:50:00</t>
+          <t>2026-02-27 11:48:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3118,27 +2992,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Dream Orchid</t>
+          <t>Cape Bonavista</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-26 17:30:00</t>
+          <t>2026-02-26 22:10:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3155,27 +3029,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ES Care</t>
+          <t>CMA CGM Quelimane (SC)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-27 11:36:00</t>
+          <t>2026-02-28 14:12:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3192,27 +3066,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Esprit Lotus</t>
+          <t>Cosco Philippines (BM)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-26 07:36:00</t>
+          <t>2026-02-26 01:15:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Kinuura</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Corio Quay North 4</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3229,27 +3103,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Esteem Houston (T)</t>
+          <t>Crystal Serenity (P)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-24 19:24:00</t>
+          <t>2026-02-26 12:25:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3266,27 +3140,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Eva Gold (T)</t>
+          <t>CSAV Rio Nevado</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-27 13:35:00</t>
+          <t>2026-02-26 01:50:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3303,27 +3177,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Goliath</t>
+          <t>Dream Orchid</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-24 11:54:00</t>
+          <t>2026-02-26 17:30:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3340,27 +3214,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Hafnia Raven (T)</t>
+          <t>ES Care</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-26 21:43:00</t>
+          <t>2026-02-27 11:36:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3377,27 +3251,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Horizon Highway</t>
+          <t>Esprit Lotus</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-25 17:00:00</t>
+          <t>2026-02-26 07:36:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Kinuura</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Corio Quay North 4</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3414,27 +3288,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>Esteem Houston (T)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-25 10:55:00</t>
+          <t>2026-02-24 19:24:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3451,27 +3325,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Kota Lambai</t>
+          <t>Eva Gold (T)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-25 12:55:00</t>
+          <t>2026-02-27 13:35:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3488,27 +3362,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Latika Naree</t>
+          <t>Hafnia Raven (T)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-28 07:56:00</t>
+          <t>2026-02-26 21:43:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3525,27 +3399,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Horizon Highway</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-27 06:30:00</t>
+          <t>2026-02-25 17:00:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3562,27 +3436,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-25 06:26:00</t>
+          <t>2026-02-25 10:55:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3599,27 +3473,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Maersk Mammoth (SC) (PP)</t>
+          <t>Kota Lambai</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-26 08:20:00</t>
+          <t>2026-02-25 12:55:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3636,27 +3510,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>Latika Naree</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-25 22:53:00</t>
+          <t>2026-02-28 08:26:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3673,27 +3547,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MSC Chulai III</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-26 21:30:00</t>
+          <t>2026-02-25 06:26:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3710,27 +3584,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MSC Star R (SC)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-26 12:45:00</t>
+          <t>2026-02-27 06:30:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3747,27 +3621,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NPDL Tahiti (SC)</t>
+          <t>Luga</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-28 06:08:00</t>
+          <t>2026-02-28 11:42:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3784,27 +3658,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>OOCL Houston</t>
+          <t>Maersk Mammoth (SC) (PP)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-24 13:10:00</t>
+          <t>2026-02-26 08:20:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3821,27 +3695,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Papora Wisdom</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-26 04:00:00</t>
+          <t>2026-02-25 22:53:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Higashishioya</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3858,27 +3732,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Penguin Arrow</t>
+          <t>MSC Chulai III</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-27 00:47:00</t>
+          <t>2026-02-26 21:30:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3895,27 +3769,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Peter Faber</t>
+          <t>MSC Star R (SC)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:00</t>
+          <t>2026-02-26 12:45:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3932,12 +3806,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Phoebe (PP)</t>
+          <t>NPDL Tahiti (SC)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-27 08:45:00</t>
+          <t>2026-02-28 06:08:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3947,12 +3821,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -3969,27 +3843,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Positive Leader</t>
+          <t>Papora Wisdom</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-25 09:55:00</t>
+          <t>2026-02-26 04:00:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Higashishioya</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4006,27 +3880,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn (P)</t>
+          <t>Penguin Arrow</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-27 11:35:00</t>
+          <t>2026-02-27 00:47:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4043,27 +3917,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Phoebe (PP)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-26 06:54:00</t>
+          <t>2026-02-27 08:45:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4080,27 +3954,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Positive Leader</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-28 06:36:00</t>
+          <t>2026-02-25 09:55:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4117,27 +3991,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Spirit of Auckland</t>
+          <t>Seabourn Sojourn (P)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-27 22:00:00</t>
+          <t>2026-02-27 11:35:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4154,12 +4028,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-26 05:55:00</t>
+          <t>2026-02-28 06:36:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4169,12 +4043,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4191,12 +4065,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-24 18:58:00</t>
+          <t>2026-02-26 06:54:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4206,12 +4080,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4228,27 +4102,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Spirit of Auckland</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-27 08:11:00</t>
+          <t>2026-02-27 22:00:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4265,12 +4139,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-26 19:04:00</t>
+          <t>2026-02-26 05:55:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4285,7 +4159,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4302,12 +4176,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-25 08:00:00</t>
+          <t>2026-02-24 18:58:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4322,7 +4196,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4339,12 +4213,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-28 05:50:00</t>
+          <t>2026-02-27 08:11:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4359,7 +4233,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4376,27 +4250,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-26 05:45:00</t>
+          <t>2026-02-28 05:50:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4413,27 +4287,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-28 05:45:00</t>
+          <t>2026-02-25 08:00:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4450,27 +4324,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Trans Future 6</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-02-28 04:30:00</t>
+          <t>2026-02-26 19:04:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4361,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-25 05:40:00</t>
+          <t>2026-02-26 05:45:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4507,7 +4381,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4524,12 +4398,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-02-27 05:42:00</t>
+          <t>2026-02-28 05:45:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4544,7 +4418,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4561,27 +4435,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>XYG Hongkong (SC)</t>
+          <t>Trans Future 6</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-02-27 04:01:00</t>
+          <t>2026-02-28 04:30:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Gresik  Java</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Appleton Dock C</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4598,27 +4472,101 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>YM Essence (PP)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2026-02-24 12:14:00</t>
+          <t>2026-02-25 05:40:00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Kaohsiung</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Victorian Reliance II</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2026-02-27 05:42:00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2026-02-28 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>XYG Hongkong (SC)</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2026-02-27 04:01:00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Gresik  Java</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Appleton Dock C</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4599,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-28 08:54</t>
+          <t>2026-02-28 16:59</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,22 +473,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MSC Magnifica</t>
+          <t>Queen Mary 2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tue 3 Mar05:00</t>
+          <t>Wed 4 Mar04:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -515,37 +515,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Torm Gabriella</t>
+          <t>CSL Reliance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tue 3 Mar07:00</t>
+          <t>Wed 4 Mar06:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>07:55</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gore Cove 1 (GOR1)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Crude/Oil Products Tanker</t>
+          <t>Bulk Carrier, Self-discharging</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -557,37 +557,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Queen Mary 2</t>
+          <t>Atlantic Dawn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wed 4 Mar04:00</t>
+          <t>Wed 4 Mar16:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 1 (GLB1)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -599,37 +599,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CSL Reliance</t>
+          <t>Norwegian Spirit</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wed 4 Mar06:00</t>
+          <t>Thu 5 Mar04:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bulk Carrier, Self-discharging</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -641,37 +641,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Atlantic Dawn</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wed 4 Mar16:00</t>
+          <t>Thu 5 Mar05:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Glebe Island 1 (GLB1)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -683,27 +683,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Norwegian Spirit</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Thu 5 Mar04:00</t>
+          <t>Fri 6 Mar05:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Port Arthur</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -725,37 +725,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Wyuna</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Thu 5 Mar05:00</t>
+          <t>Sat 7 Mar00:01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>00:41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 8 (GLB8)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Cement Carrier</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -767,27 +767,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fri 6 Mar05:00</t>
+          <t>Sat 7 Mar05:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Port Arthur</t>
+          <t>Opua</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -809,37 +809,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wyuna</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sat 7 Mar00:01</t>
+          <t>Sun 8 Mar04:45</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:41</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gladstone</t>
+          <t>Noumea</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Glebe Island 8 (GLB8)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cement Carrier</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -851,27 +851,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sat 7 Mar05:15</t>
+          <t>Mon 9 Mar04:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Opua</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -893,22 +893,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Seven Seas Mariner</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sun 8 Mar04:45</t>
+          <t>Tue 10 Mar08:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Opua</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -935,37 +935,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Pioneer</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mon 9 Mar04:30</t>
+          <t>Tue 10 Mar22:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>22:50</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Bunbury</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -977,22 +977,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Seven Seas Mariner</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tue 10 Mar08:45</t>
+          <t>Thu 12 Mar04:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Opua</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1019,37 +1019,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pioneer</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tue 10 Mar22:00</t>
+          <t>Fri 13 Mar04:15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22:50</t>
+          <t>05:05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bunbury</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1061,17 +1061,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Thu 12 Mar04:30</t>
+          <t>Fri 13 Mar04:45</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1103,27 +1103,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fri 13 Mar04:15</t>
+          <t>Sat 14 Mar05:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>05:05</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Noumea</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1145,27 +1145,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Noordam</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fri 13 Mar04:45</t>
+          <t>Sun 15 Mar01:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>02:15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1187,37 +1187,79 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sat 14 Mar05:00</t>
+          <t>Sun 15 Mar04:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>Eden</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Overseas Passenger Terminal (SCPT)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Passenger/Cruise</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2026-03-01 08:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Riviera</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sun 15 Mar05:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>05:45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Noumea</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>White Bay Cruise Terminal (WHT5)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Passenger/Cruise</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2026-02-28 16:59</t>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1290,27 +1332,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Maersk Fukuoka (PP)</t>
+          <t>Molly Grace</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feb 28 2026  7:00PM</t>
+          <t>Mar  1 2026 11:30AM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>South Wharf 29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1327,27 +1369,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Stolt Tsubaki (T)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feb 28 2026  7:14PM</t>
+          <t>Mar  1 2026  2:00PM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1406,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Stolt Yuri (T)</t>
+          <t>Lord Vishnu</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feb 28 2026 11:45PM</t>
+          <t>Mar  1 2026  4:00PM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1401,27 +1443,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MSC Acapulco IV</t>
+          <t>OOCL Texas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mar  1 2026 12:01AM</t>
+          <t>Mar  1 2026  7:00PM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1438,27 +1480,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TS Singapore</t>
+          <t>Pelion (PP)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mar  1 2026  1:30AM</t>
+          <t>Mar  1 2026 10:30PM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1475,27 +1517,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Daiwan Miracle (SC)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mar  1 2026  5:30AM</t>
+          <t>Mar  1 2026 11:45PM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1512,27 +1554,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Zaandam (P)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mar  1 2026  6:30AM</t>
+          <t>Mar  2 2026  4:45AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Penneshaw</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1549,27 +1591,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Discovery Princess (P)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mar  1 2026  6:40AM</t>
+          <t>Mar  2 2026  5:30AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1586,27 +1628,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Norwegian Spirit (P)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mar  1 2026  7:15AM</t>
+          <t>Mar  2 2026  6:30AM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1623,27 +1665,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Molly Grace</t>
+          <t>Grande Halifax</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mar  1 2026 11:30AM</t>
+          <t>Mar  2 2026  8:30AM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>South Wharf 29</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1660,27 +1702,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Stolt Tsubaki (T)</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mar  1 2026  1:30PM</t>
+          <t>Mar  2 2026  9:30AM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Bay Anchorage inner</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1697,12 +1739,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>OOCL Texas</t>
+          <t>APL Columbus (BM)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mar  1 2026  2:30PM</t>
+          <t>Mar  2 2026 10:30AM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1717,7 +1759,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1734,12 +1776,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lord Vishnu</t>
+          <t>Arabian Sea</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mar  1 2026  7:00PM</t>
+          <t>Mar  2 2026  5:30PM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1749,12 +1791,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1771,27 +1813,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Pelion (PP)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mar  1 2026 10:30PM</t>
+          <t>Mar  2 2026  5:45PM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1808,27 +1850,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Daiwan Miracle (SC)</t>
+          <t>Hong Bo 16 (T)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mar  1 2026 11:45PM</t>
+          <t>Mar  3 2026  2:15AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1845,27 +1887,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>ANL Rotorua (SC)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mar  2 2026  4:45AM</t>
+          <t>Mar  3 2026  4:30AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1882,27 +1924,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Discovery Princess (P)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:30AM</t>
+          <t>Mar  3 2026  5:15AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1919,27 +1961,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Norwegian Spirit (P)</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mar  2 2026  6:30AM</t>
+          <t>Mar  3 2026  5:30AM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dunedin</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1956,27 +1998,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Grande Halifax</t>
+          <t>Sydney Express (BM)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mar  2 2026  8:30AM</t>
+          <t>Mar  3 2026  5:30AM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -1993,27 +2035,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>Silver Dawn (P)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mar  2 2026  9:30AM</t>
+          <t>Mar  3 2026  6:30AM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bay Anchorage inner</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2030,27 +2072,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>APL Columbus (BM)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mar  2 2026 10:30AM</t>
+          <t>Mar  3 2026  7:15AM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2067,27 +2109,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Arabian Sea</t>
+          <t>ZIM Falcon (PP)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:30PM</t>
+          <t>Mar  3 2026  8:30AM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2104,27 +2146,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Nord Missouri</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:45PM</t>
+          <t>Mar  3 2026  2:35PM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2141,27 +2183,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Hong Bo 16 (T)</t>
+          <t>Torm Troilus (T)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mar  3 2026 12:35AM</t>
+          <t>Mar  4 2026  3:35AM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2178,27 +2220,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ANL Rotorua (SC)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mar  3 2026  4:30AM</t>
+          <t>Mar  4 2026  4:26AM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2215,12 +2257,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mar  3 2026  5:15AM</t>
+          <t>Mar  4 2026  5:15AM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2235,7 +2277,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2252,12 +2294,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mar  3 2026  5:30AM</t>
+          <t>Mar  4 2026  5:30AM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2272,7 +2314,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2289,27 +2331,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sydney Express (BM)</t>
+          <t>Noble Ace</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mar  3 2026  5:30AM</t>
+          <t>Mar  4 2026  8:30AM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2326,27 +2368,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Silver Dawn (P)</t>
+          <t>Young Endeavour</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mar  3 2026  6:30AM</t>
+          <t>Mar  4 2026  9:40AM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Geelong South Inner ANCO</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2363,27 +2405,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Cosco Rotterdam (PP)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mar  3 2026  6:56AM</t>
+          <t>Mar  4 2026 12:30PM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2400,27 +2442,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ZIM Falcon (PP)</t>
+          <t>Taokas Wisdom (SC)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mar  3 2026  8:30AM</t>
+          <t>Mar  4 2026  1:30PM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2437,27 +2479,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nord Missouri</t>
+          <t>M/Y Mischief</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mar  3 2026  2:35PM</t>
+          <t>Mar  4 2026  2:30PM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Docklands Victoria Harbour</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2474,27 +2516,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Torm Troilus (T)</t>
+          <t>MSC Maria Clara</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mar  4 2026  3:35AM</t>
+          <t>Mar  4 2026  4:30PM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2553,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mar  4 2026  4:26AM</t>
+          <t>Mar  4 2026  5:26PM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2531,7 +2573,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2548,27 +2590,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Viking Paglia</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mar  4 2026  5:15AM</t>
+          <t>Mar  4 2026  6:30PM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2585,27 +2627,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>OOCL Shanghai (PP)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mar  4 2026  5:30AM</t>
+          <t>Mar  4 2026  8:00PM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Kaohsiung</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Swanson West 3</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2622,27 +2664,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Noble Ace</t>
+          <t>Kota Lumayan</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mar  4 2026  8:30AM</t>
+          <t>Mar  4 2026  8:30PM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2659,27 +2701,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Young Endeavour</t>
+          <t>Rio Grande</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mar  4 2026  9:40AM</t>
+          <t>Mar  5 2026  3:00AM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Geelong South Inner ANCO</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2696,27 +2738,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cosco Rotterdam (PP)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mar  4 2026 12:30PM</t>
+          <t>Mar  5 2026  5:15AM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2733,27 +2775,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Taokas Wisdom (SC)</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mar  4 2026  1:30PM</t>
+          <t>Mar  5 2026  5:30AM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2770,27 +2812,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>M/Y Mischief</t>
+          <t>Coral Princess (P)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mar  4 2026  2:30PM</t>
+          <t>Mar  5 2026  6:00AM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Docklands Victoria Harbour</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2802,32 +2844,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Adelie</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-02-26 07:55:00</t>
+          <t>Mar  5 2026  6:56AM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2844,27 +2886,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Akuna</t>
+          <t>Adelie</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-25 19:58:00</t>
+          <t>2026-02-26 07:55:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2881,27 +2923,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ALS Clivia (PP)</t>
+          <t>Akuna</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-27 20:20:00</t>
+          <t>2026-02-25 19:58:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2918,27 +2960,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>ALS Clivia (PP)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-26 19:50:00</t>
+          <t>2026-02-27 20:20:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2955,27 +2997,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ardmore Gibraltar (T)</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-27 11:48:00</t>
+          <t>2026-02-26 19:50:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -2992,27 +3034,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cape Bonavista</t>
+          <t>Ardmore Gibraltar (T)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-26 22:10:00</t>
+          <t>2026-02-27 11:48:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3029,27 +3071,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CMA CGM Quelimane (SC)</t>
+          <t>Cape Bonavista</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-28 14:12:00</t>
+          <t>2026-02-26 22:10:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3066,27 +3108,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cosco Philippines (BM)</t>
+          <t>CMA CGM Quelimane (SC)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-26 01:15:00</t>
+          <t>2026-02-28 14:12:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3103,27 +3145,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Crystal Serenity (P)</t>
+          <t>Cosco Philippines (BM)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-26 12:25:00</t>
+          <t>2026-02-26 01:15:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3140,27 +3182,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CSAV Rio Nevado</t>
+          <t>Crystal Serenity (P)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-26 01:50:00</t>
+          <t>2026-02-26 12:25:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3177,27 +3219,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Dream Orchid</t>
+          <t>CSAV Rio Nevado</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-26 17:30:00</t>
+          <t>2026-02-26 01:50:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3214,27 +3256,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ES Care</t>
+          <t>Dream Orchid</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-27 11:36:00</t>
+          <t>2026-02-26 17:30:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3251,27 +3293,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Esprit Lotus</t>
+          <t>ES Care</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-26 07:36:00</t>
+          <t>2026-02-27 11:36:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Kinuura</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Corio Quay North 4</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3288,27 +3330,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Esteem Houston (T)</t>
+          <t>Esprit Lotus</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-24 19:24:00</t>
+          <t>2026-02-26 07:36:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Kinuura</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Corio Quay North 4</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3387,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3424,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3461,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3498,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3493,7 +3535,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3572,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3552,7 +3594,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-25 06:26:00</t>
+          <t>2026-03-01 06:40:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3567,7 +3609,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3646,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3683,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3658,12 +3700,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Maersk Mammoth (SC) (PP)</t>
+          <t>Maersk Fukuoka (PP)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-26 08:20:00</t>
+          <t>2026-02-28 20:43:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3673,12 +3715,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3695,27 +3737,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>Maersk Mammoth (SC) (PP)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-25 22:53:00</t>
+          <t>2026-02-26 08:20:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3732,27 +3774,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MSC Chulai III</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-26 21:30:00</t>
+          <t>2026-02-25 22:53:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3769,17 +3811,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MSC Star R (SC)</t>
+          <t>MSC Acapulco IV</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-26 12:45:00</t>
+          <t>2026-03-01 08:06:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3789,7 +3831,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3806,27 +3848,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>NPDL Tahiti (SC)</t>
+          <t>MSC Chulai III</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-28 06:08:00</t>
+          <t>2026-02-26 21:30:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3843,27 +3885,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Papora Wisdom</t>
+          <t>MSC Star R (SC)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-26 04:00:00</t>
+          <t>2026-02-26 12:45:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Higashishioya</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3880,27 +3922,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Penguin Arrow</t>
+          <t>NPDL Tahiti (SC)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-27 00:47:00</t>
+          <t>2026-02-28 06:08:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3917,27 +3959,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Phoebe (PP)</t>
+          <t>Papora Wisdom</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-27 08:45:00</t>
+          <t>2026-02-26 04:00:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Higashishioya</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3954,27 +3996,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Positive Leader</t>
+          <t>Penguin Arrow</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-25 09:55:00</t>
+          <t>2026-02-27 00:47:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -3991,12 +4033,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn (P)</t>
+          <t>Phoebe (PP)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-27 11:35:00</t>
+          <t>2026-02-27 08:45:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4006,12 +4048,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -4028,27 +4070,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Positive Leader</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-28 06:36:00</t>
+          <t>2026-02-25 09:55:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -4065,27 +4107,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Seabourn Sojourn (P)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-26 06:54:00</t>
+          <t>2026-02-27 11:35:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -4102,27 +4144,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Spirit of Auckland</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-27 22:00:00</t>
+          <t>2026-02-28 06:36:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -4139,12 +4181,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-26 05:55:00</t>
+          <t>2026-02-26 06:54:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4154,12 +4196,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -4176,27 +4218,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Spirit of Auckland</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-24 18:58:00</t>
+          <t>2026-02-27 22:00:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -4218,7 +4260,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-27 08:11:00</t>
+          <t>2026-02-26 05:55:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4233,7 +4275,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -4250,12 +4292,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-28 05:50:00</t>
+          <t>2026-02-28 19:19:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4270,7 +4312,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -4287,12 +4329,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-25 08:00:00</t>
+          <t>2026-02-27 08:11:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4307,7 +4349,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4371,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-02-26 19:04:00</t>
+          <t>2026-02-28 05:50:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4344,7 +4386,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -4361,27 +4403,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-26 05:45:00</t>
+          <t>2026-02-26 19:04:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -4398,27 +4440,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-02-28 05:45:00</t>
+          <t>2026-03-01 07:52:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -4435,27 +4477,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Trans Future 6</t>
+          <t>Stolt Yuri (T)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-02-28 04:30:00</t>
+          <t>2026-03-01 01:39:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -4472,12 +4514,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2026-02-25 05:40:00</t>
+          <t>2026-02-26 05:45:00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4492,7 +4534,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -4509,12 +4551,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2026-02-27 05:42:00</t>
+          <t>2026-02-28 05:45:00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4529,7 +4571,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -4546,27 +4588,212 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>Trans Future 6</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2026-02-28 04:30:00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 West</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2026-03-01 08:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>TS Singapore</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2026-03-01 02:41:00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Swanson West 1</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2026-03-01 08:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Victorian Reliance II</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2026-03-01 07:12:00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2026-03-01 08:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Victorian Reliance II</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2026-02-27 05:42:00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2026-03-01 08:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>XYG Hongkong (SC)</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>2026-02-27 04:01:00</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>Gresik  Java</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>Appleton Dock C</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>2026-02-28 16:59</t>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2026-03-01 08:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Zaandam (P)</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2026-03-01 07:30:00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Penneshaw</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Station Pier Outer West</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4826,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-28 16:59</t>
+          <t>2026-03-01 08:39</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:09</t>
         </is>
       </c>
     </row>
@@ -520,12 +520,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Wed 4 Mar06:00</t>
+          <t>Wed 4 Mar08:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:09</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:09</t>
         </is>
       </c>
     </row>
@@ -599,37 +599,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Norwegian Spirit</t>
+          <t>ICS Reliance</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Thu 5 Mar04:00</t>
+          <t>Wed 4 Mar23:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Sydney Unspecified (BNES)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Products Tanker</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:09</t>
         </is>
       </c>
     </row>
@@ -641,27 +641,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Norwegian Spirit</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Thu 5 Mar05:00</t>
+          <t>Thu 5 Mar04:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:09</t>
         </is>
       </c>
     </row>
@@ -683,12 +683,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fri 6 Mar05:00</t>
+          <t>Thu 5 Mar05:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Port Arthur</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:09</t>
         </is>
       </c>
     </row>
@@ -725,37 +725,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Wyuna</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sat 7 Mar00:01</t>
+          <t>Fri 6 Mar05:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:41</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gladstone</t>
+          <t>Port Arthur</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Glebe Island 8 (GLB8)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cement Carrier</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:09</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:09</t>
         </is>
       </c>
     </row>
@@ -809,37 +809,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Wyuna</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sun 8 Mar04:45</t>
+          <t>Sat 7 Mar08:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>08:40</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 8 (GLB8)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Cement Carrier</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:09</t>
         </is>
       </c>
     </row>
@@ -851,22 +851,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mon 9 Mar04:30</t>
+          <t>Sun 8 Mar04:45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Noumea</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:09</t>
         </is>
       </c>
     </row>
@@ -893,22 +893,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Seven Seas Mariner</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tue 10 Mar08:45</t>
+          <t>Mon 9 Mar04:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Opua</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:09</t>
         </is>
       </c>
     </row>
@@ -935,37 +935,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pioneer</t>
+          <t>Seven Seas Mariner</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tue 10 Mar22:00</t>
+          <t>Tue 10 Mar08:45</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>22:50</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bunbury</t>
+          <t>Opua</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -977,37 +977,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Pioneer</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Thu 12 Mar04:30</t>
+          <t>Tue 10 Mar22:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>22:50</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Bunbury</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1019,27 +1019,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fri 13 Mar04:15</t>
+          <t>Thu 12 Mar04:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>05:05</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1061,27 +1061,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fri 13 Mar04:45</t>
+          <t>Fri 13 Mar04:15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>05:05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1103,22 +1103,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sat 14 Mar05:00</t>
+          <t>Fri 13 Mar04:45</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1145,27 +1145,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Noordam</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sun 15 Mar01:30</t>
+          <t>Sat 14 Mar05:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>02:15</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Noumea</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1187,27 +1187,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Noordam</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sun 15 Mar04:30</t>
+          <t>Sun 15 Mar01:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>02:15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1229,37 +1229,79 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Discovery Princess</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sun 15 Mar04:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Eden</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Overseas Passenger Terminal (SCPT)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Passenger/Cruise</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2026-03-01 18:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Riviera</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Sun 15 Mar05:00</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>05:45</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Noumea</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Passenger/Cruise</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2026-03-01 08:39</t>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1332,27 +1374,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Molly Grace</t>
+          <t>OOCL Texas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mar  1 2026 11:30AM</t>
+          <t>Mar  1 2026 11:00PM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>South Wharf 29</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1369,27 +1411,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Stolt Tsubaki (T)</t>
+          <t>Pelion (PP)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mar  1 2026  2:00PM</t>
+          <t>Mar  2 2026 12:15AM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1406,27 +1448,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lord Vishnu</t>
+          <t>Hong Bo 16 (T)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mar  1 2026  4:00PM</t>
+          <t>Mar  2 2026  4:00AM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1443,27 +1485,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>OOCL Texas</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mar  1 2026  7:00PM</t>
+          <t>Mar  2 2026  4:45AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1480,27 +1522,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pelion (PP)</t>
+          <t>Discovery Princess (P)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mar  1 2026 10:30PM</t>
+          <t>Mar  2 2026  5:30AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1517,27 +1559,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Daiwan Miracle (SC)</t>
+          <t>Norwegian Spirit (P)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mar  1 2026 11:45PM</t>
+          <t>Mar  2 2026  6:30AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1554,27 +1596,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Grande Halifax</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mar  2 2026  4:45AM</t>
+          <t>Mar  2 2026  8:30AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1591,27 +1633,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Discovery Princess (P)</t>
+          <t>Intermezzo (T)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:30AM</t>
+          <t>Mar  2 2026  9:30AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Bay Anchorage inner</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1628,27 +1670,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Norwegian Spirit (P)</t>
+          <t>Daiwan Miracle (SC)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mar  2 2026  6:30AM</t>
+          <t>Mar  2 2026 10:15AM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dunedin</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1665,27 +1707,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Grande Halifax</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mar  2 2026  8:30AM</t>
+          <t>Mar  2 2026  5:45PM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1702,27 +1744,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>APL Columbus (BM)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mar  2 2026  9:30AM</t>
+          <t>Mar  2 2026 11:30PM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bay Anchorage inner</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1739,12 +1781,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>APL Columbus (BM)</t>
+          <t>ANL Rotorua (SC)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mar  2 2026 10:30AM</t>
+          <t>Mar  3 2026  4:30AM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1754,12 +1796,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1776,27 +1818,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Arabian Sea</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:30PM</t>
+          <t>Mar  3 2026  5:15AM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1813,12 +1855,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:45PM</t>
+          <t>Mar  3 2026  5:30AM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1828,12 +1870,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1850,12 +1892,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Hong Bo 16 (T)</t>
+          <t>Sydney Express (BM)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mar  3 2026  2:15AM</t>
+          <t>Mar  3 2026  5:30AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1865,12 +1907,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1887,27 +1929,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ANL Rotorua (SC)</t>
+          <t>Silver Dawn (P)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mar  3 2026  4:30AM</t>
+          <t>Mar  3 2026  6:30AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1924,27 +1966,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mar  3 2026  5:15AM</t>
+          <t>Mar  3 2026  7:15AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1961,27 +2003,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>ZIM Falcon (PP)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mar  3 2026  5:30AM</t>
+          <t>Mar  3 2026  8:30AM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -1998,27 +2040,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sydney Express (BM)</t>
+          <t>Arabian Sea</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mar  3 2026  5:30AM</t>
+          <t>Mar  3 2026 11:30PM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2035,27 +2077,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Silver Dawn (P)</t>
+          <t>Nord Missouri</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mar  3 2026  6:30AM</t>
+          <t>Mar  4 2026  3:15AM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2072,27 +2114,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Torm Troilus (T)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mar  3 2026  7:15AM</t>
+          <t>Mar  4 2026  3:35AM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2109,27 +2151,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ZIM Falcon (PP)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mar  3 2026  8:30AM</t>
+          <t>Mar  4 2026  4:26AM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2146,27 +2188,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nord Missouri</t>
+          <t>Cosco Rotterdam (PP)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mar  3 2026  2:35PM</t>
+          <t>Mar  4 2026  4:30AM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2183,27 +2225,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Torm Troilus (T)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mar  4 2026  3:35AM</t>
+          <t>Mar  4 2026  5:15AM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2220,12 +2262,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mar  4 2026  4:26AM</t>
+          <t>Mar  4 2026  5:30AM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2235,12 +2277,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2257,27 +2299,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Noble Ace</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mar  4 2026  5:15AM</t>
+          <t>Mar  4 2026  8:30AM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2294,27 +2336,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Young Endeavour</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mar  4 2026  5:30AM</t>
+          <t>Mar  4 2026  9:40AM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Geelong South Inner ANCO</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2331,27 +2373,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Noble Ace</t>
+          <t>Taokas Wisdom (SC)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mar  4 2026  8:30AM</t>
+          <t>Mar  4 2026  1:30PM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2368,12 +2410,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Young Endeavour</t>
+          <t>M/Y Mischief</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mar  4 2026  9:40AM</t>
+          <t>Mar  4 2026  2:30PM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2383,12 +2425,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Geelong South Inner ANCO</t>
+          <t>Docklands Victoria Harbour</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2405,12 +2447,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cosco Rotterdam (PP)</t>
+          <t>MSC Maria Clara</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mar  4 2026 12:30PM</t>
+          <t>Mar  4 2026  4:30PM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2420,12 +2462,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2442,27 +2484,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Taokas Wisdom (SC)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mar  4 2026  1:30PM</t>
+          <t>Mar  4 2026  5:26PM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2479,27 +2521,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>M/Y Mischief</t>
+          <t>Viking Paglia</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mar  4 2026  2:30PM</t>
+          <t>Mar  4 2026  6:30PM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Docklands Victoria Harbour</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2558,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MSC Maria Clara</t>
+          <t>OOCL Shanghai (PP)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mar  4 2026  4:30PM</t>
+          <t>Mar  4 2026  8:00PM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Kaohsiung</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2553,27 +2595,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Kota Lumayan</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mar  4 2026  5:26PM</t>
+          <t>Mar  4 2026  8:30PM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2590,27 +2632,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Viking Paglia</t>
+          <t>Rio Grande</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mar  4 2026  6:30PM</t>
+          <t>Mar  5 2026  3:00AM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2627,27 +2669,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>OOCL Shanghai (PP)</t>
+          <t>New First</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mar  4 2026  8:00PM</t>
+          <t>Mar  5 2026  3:05AM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Kaohsiung</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Swanson West 3</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2664,27 +2706,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Kota Lumayan</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mar  4 2026  8:30PM</t>
+          <t>Mar  5 2026  5:15AM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2701,27 +2743,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Rio Grande</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mar  5 2026  3:00AM</t>
+          <t>Mar  5 2026  5:30AM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2738,12 +2780,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Coral Princess (P)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mar  5 2026  5:15AM</t>
+          <t>Mar  5 2026  6:00AM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2753,12 +2795,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2775,12 +2817,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mar  5 2026  5:30AM</t>
+          <t>Mar  5 2026  6:56AM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2790,12 +2832,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2812,27 +2854,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Coral Princess (P)</t>
+          <t>MSC Unity VI</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mar  5 2026  6:00AM</t>
+          <t>Mar  5 2026  8:30AM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2849,27 +2891,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>MSC Capetown III</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mar  5 2026  6:56AM</t>
+          <t>Mar  5 2026 10:30AM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2881,32 +2923,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Adelie</t>
+          <t>IVS Isogo</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-02-26 07:55:00</t>
+          <t>Mar  5 2026 10:35AM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2918,32 +2960,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Akuna</t>
+          <t>Maersk Yellowstone (PP) (SC)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-02-25 19:58:00</t>
+          <t>Mar  5 2026  3:00PM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2955,22 +2997,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ALS Clivia (PP)</t>
+          <t>Hansa Freyburg (SC)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-02-27 20:20:00</t>
+          <t>Mar  5 2026  4:30PM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2980,7 +3022,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -2992,32 +3034,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>MSC Durban IV</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-02-26 19:50:00</t>
+          <t>Mar  5 2026  4:30PM</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3029,32 +3071,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>actual arrivals</t>
+          <t>expected arrivals</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ardmore Gibraltar (T)</t>
+          <t>OOCL Beijing (PP)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-02-27 11:48:00</t>
+          <t>Mar  5 2026  4:30PM</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3071,27 +3113,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cape Bonavista</t>
+          <t>Adelie</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-26 22:10:00</t>
+          <t>2026-02-26 07:55:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Thevenard</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>South Wharf 27</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3108,27 +3150,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CMA CGM Quelimane (SC)</t>
+          <t>Akuna</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-28 14:12:00</t>
+          <t>2026-02-25 19:58:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3145,27 +3187,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cosco Philippines (BM)</t>
+          <t>ALS Clivia (PP)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-26 01:15:00</t>
+          <t>2026-02-27 20:20:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3182,27 +3224,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Crystal Serenity (P)</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-26 12:25:00</t>
+          <t>2026-02-26 19:50:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3219,27 +3261,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CSAV Rio Nevado</t>
+          <t>Ardmore Gibraltar (T)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-26 01:50:00</t>
+          <t>2026-02-27 11:48:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3256,27 +3298,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Dream Orchid</t>
+          <t>Cape Bonavista</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-26 17:30:00</t>
+          <t>2026-02-26 22:10:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3293,27 +3335,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ES Care</t>
+          <t>CMA CGM Quelimane (SC)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-27 11:36:00</t>
+          <t>2026-02-28 14:12:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3330,27 +3372,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Esprit Lotus</t>
+          <t>Cosco Philippines (BM)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-26 07:36:00</t>
+          <t>2026-02-26 01:15:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Kinuura</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Corio Quay North 4</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3367,27 +3409,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Eva Gold (T)</t>
+          <t>Crystal Serenity (P)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-27 13:35:00</t>
+          <t>2026-02-26 12:25:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3404,27 +3446,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Hafnia Raven (T)</t>
+          <t>CSAV Rio Nevado</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-26 21:43:00</t>
+          <t>2026-02-26 01:50:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Webb Dock 3 West</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3441,17 +3483,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Horizon Highway</t>
+          <t>Dream Orchid</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-25 17:00:00</t>
+          <t>2026-02-26 17:30:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3461,7 +3503,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3478,27 +3520,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>ES Care</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-25 10:55:00</t>
+          <t>2026-02-27 11:36:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3515,27 +3557,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Kota Lambai</t>
+          <t>Esprit Lotus</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-25 12:55:00</t>
+          <t>2026-02-26 07:36:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Kinuura</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Corio Quay North 4</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3552,27 +3594,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Latika Naree</t>
+          <t>Eva Gold (T)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-28 08:26:00</t>
+          <t>2026-02-27 13:35:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3589,27 +3631,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Hafnia Raven (T)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-03-01 06:40:00</t>
+          <t>2026-02-26 21:43:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3626,27 +3668,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Latika Naree</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-27 06:30:00</t>
+          <t>2026-02-28 08:26:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3663,27 +3705,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Luga</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-28 11:42:00</t>
+          <t>2026-02-27 06:30:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Gladstone</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3700,27 +3742,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Maersk Fukuoka (PP)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-02-28 20:43:00</t>
+          <t>2026-03-01 06:40:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3737,27 +3779,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Maersk Mammoth (SC) (PP)</t>
+          <t>Luga</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-26 08:20:00</t>
+          <t>2026-02-28 11:42:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3774,27 +3816,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>Maersk Fukuoka (PP)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-25 22:53:00</t>
+          <t>2026-02-28 20:43:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3811,27 +3853,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MSC Acapulco IV</t>
+          <t>Maersk Mammoth (SC) (PP)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-03-01 08:06:00</t>
+          <t>2026-02-26 08:20:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3848,27 +3890,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MSC Chulai III</t>
+          <t>Medi Luna (SC)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-26 21:30:00</t>
+          <t>2026-02-25 22:53:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3885,27 +3927,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MSC Star R (SC)</t>
+          <t>Molly Grace</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-02-26 12:45:00</t>
+          <t>2026-03-01 13:17:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>South Wharf 29</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3922,27 +3964,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NPDL Tahiti (SC)</t>
+          <t>MSC Acapulco IV</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-02-28 06:08:00</t>
+          <t>2026-03-01 07:50:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3959,27 +4001,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Papora Wisdom</t>
+          <t>MSC Chulai III</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-26 04:00:00</t>
+          <t>2026-02-26 21:30:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Higashishioya</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -3996,27 +4038,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Penguin Arrow</t>
+          <t>MSC Star R (SC)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-27 00:47:00</t>
+          <t>2026-02-26 12:45:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4075,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Phoebe (PP)</t>
+          <t>NPDL Tahiti (SC)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-27 08:45:00</t>
+          <t>2026-02-28 06:08:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4048,12 +4090,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4070,27 +4112,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Positive Leader</t>
+          <t>Papora Wisdom</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-25 09:55:00</t>
+          <t>2026-02-26 04:00:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Higashishioya</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4107,27 +4149,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn (P)</t>
+          <t>Penguin Arrow</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-27 11:35:00</t>
+          <t>2026-02-27 00:47:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4144,27 +4186,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Phoebe (PP)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-28 06:36:00</t>
+          <t>2026-02-27 08:45:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4181,27 +4223,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Seabourn Sojourn (P)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-26 06:54:00</t>
+          <t>2026-02-27 11:35:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4218,27 +4260,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Spirit of Auckland</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-27 22:00:00</t>
+          <t>2026-02-26 06:54:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4255,12 +4297,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-26 05:55:00</t>
+          <t>2026-02-28 06:36:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4270,12 +4312,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4292,27 +4334,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Spirit of Auckland</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-28 19:19:00</t>
+          <t>2026-02-27 22:00:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4334,7 +4376,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-27 08:11:00</t>
+          <t>2026-02-26 05:55:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4349,7 +4391,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4408,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-02-28 05:50:00</t>
+          <t>2026-02-28 19:19:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4386,7 +4428,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4403,12 +4445,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-26 19:04:00</t>
+          <t>2026-02-27 08:11:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4423,7 +4465,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4487,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-03-01 07:52:00</t>
+          <t>2026-02-28 05:50:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4460,7 +4502,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4477,27 +4519,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Stolt Yuri (T)</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-03-01 01:39:00</t>
+          <t>2026-02-26 19:04:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4514,27 +4556,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2026-02-26 05:45:00</t>
+          <t>2026-03-01 07:52:00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4551,27 +4593,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Stolt Tsubaki (T)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2026-02-28 05:45:00</t>
+          <t>2026-03-01 15:42:00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4588,27 +4630,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Trans Future 6</t>
+          <t>Stolt Yuri (T)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2026-02-28 04:30:00</t>
+          <t>2026-03-01 01:39:00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4625,27 +4667,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>TS Singapore</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2026-03-01 02:41:00</t>
+          <t>2026-02-26 05:45:00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4662,12 +4704,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2026-03-01 07:12:00</t>
+          <t>2026-02-28 05:45:00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4682,7 +4724,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4699,27 +4741,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>Trans Future 6</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2026-02-27 05:42:00</t>
+          <t>2026-02-28 04:30:00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4736,27 +4778,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>XYG Hongkong (SC)</t>
+          <t>TS Singapore</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2026-02-27 04:01:00</t>
+          <t>2026-03-01 02:41:00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Gresik  Java</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Appleton Dock C</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4773,27 +4815,138 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>Victorian Reliance II</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2026-03-01 07:12:00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2026-03-01 18:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Victorian Reliance II</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2026-02-27 05:42:00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Burnie</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Webb Dock 1 East</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2026-03-01 18:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>XYG Hongkong (SC)</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2026-02-27 04:01:00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Gresik  Java</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Appleton Dock C</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2026-03-01 18:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>actual arrivals</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>Zaandam (P)</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>2026-03-01 07:30:00</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>Penneshaw</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>Station Pier Outer West</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>2026-03-01 08:39</t>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>
@@ -4826,7 +4979,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-03-01 08:39</t>
+          <t>2026-03-01 18:10</t>
         </is>
       </c>
     </row>

--- a/output/ports_arrivals.xlsx
+++ b/output/ports_arrivals.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,37 +473,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Queen Mary 2</t>
+          <t>Atlantic Dawn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wed 4 Mar04:00</t>
+          <t>Wed 4 Mar16:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 1 (GLB1)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-03-01 18:09</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -515,37 +515,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CSL Reliance</t>
+          <t>ICS Reliance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Wed 4 Mar08:00</t>
+          <t>Wed 4 Mar23:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>Sydney Unspecified (BNES)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bulk Carrier, Self-discharging</t>
+          <t>Products Tanker</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-03-01 18:09</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -557,37 +557,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Atlantic Dawn</t>
+          <t>Norwegian Spirit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wed 4 Mar16:00</t>
+          <t>Thu 5 Mar04:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Glebe Island 1 (GLB1)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-03-01 18:09</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -599,37 +599,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ICS Reliance</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wed 4 Mar23:45</t>
+          <t>Thu 5 Mar05:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sydney Unspecified (BNES)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Products Tanker</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-03-01 18:09</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -641,27 +641,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Norwegian Spirit</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Thu 5 Mar04:00</t>
+          <t>Fri 6 Mar05:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Port Arthur</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-03-01 18:09</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -683,27 +683,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Thu 5 Mar05:00</t>
+          <t>Sat 7 Mar05:15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Opua</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-03-01 18:09</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -725,37 +725,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Wyuna</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fri 6 Mar05:00</t>
+          <t>Sat 7 Mar08:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>08:40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Port Arthur</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 8 (GLB8)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Cement Carrier</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-03-01 18:09</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -767,27 +767,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sat 7 Mar05:15</t>
+          <t>Sun 8 Mar04:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Opua</t>
+          <t>Noumea</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-03-01 18:09</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -809,37 +809,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wyuna</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sat 7 Mar08:00</t>
+          <t>Mon 9 Mar04:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>08:40</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gladstone</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Glebe Island 8 (GLB8)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cement Carrier</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-03-01 18:09</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -851,22 +851,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Seven Seas Mariner</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sun 8 Mar04:45</t>
+          <t>Tue 10 Mar08:45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Opua</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-03-01 18:09</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -893,37 +893,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Pioneer</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mon 9 Mar04:30</t>
+          <t>Tue 10 Mar22:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>22:50</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Bunbury</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Glebe Island 7 (GLB7)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>General Cargo Ship</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-03-01 18:09</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -935,22 +935,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Seven Seas Mariner</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tue 10 Mar08:45</t>
+          <t>Thu 12 Mar04:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Opua</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -977,37 +977,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pioneer</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tue 10 Mar22:00</t>
+          <t>Fri 13 Mar04:15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>22:50</t>
+          <t>05:05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bunbury</t>
+          <t>Tangalooma</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Glebe Island 7 (GLB7)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1019,17 +1019,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Thu 12 Mar04:30</t>
+          <t>Fri 13 Mar04:45</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1061,27 +1061,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fri 13 Mar04:15</t>
+          <t>Sat 14 Mar05:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>05:05</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tangalooma</t>
+          <t>Noumea</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1103,27 +1103,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Noordam</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fri 13 Mar04:45</t>
+          <t>Sun 15 Mar01:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>02:15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sat 14 Mar05:00</t>
+          <t>Sun 15 Mar04:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1187,27 +1187,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Noordam</t>
+          <t>Riviera</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sun 15 Mar01:30</t>
+          <t>Sun 15 Mar05:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>02:15</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Noumea</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1229,22 +1229,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Queen Anne</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sun 15 Mar04:30</t>
+          <t>Mon 16 Mar04:45</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1259,49 +1259,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Riviera</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Sun 15 Mar05:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>05:45</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Noumea</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Passenger/Cruise</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1374,27 +1332,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>OOCL Texas</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mar  1 2026 11:00PM</t>
+          <t>Mar  2 2026  5:45PM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1369,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pelion (PP)</t>
+          <t>APL Columbus (BM)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mar  2 2026 12:15AM</t>
+          <t>Mar  2 2026 11:30PM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1426,12 +1384,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1448,27 +1406,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hong Bo 16 (T)</t>
+          <t>Arabian Sea</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mar  2 2026  4:00AM</t>
+          <t>Mar  3 2026  3:30AM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1485,27 +1443,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>ANL Rotorua (SC)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mar  2 2026  4:45AM</t>
+          <t>Mar  3 2026  4:30AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1522,27 +1480,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Discovery Princess (P)</t>
+          <t>ZIM Falcon (PP)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:30AM</t>
+          <t>Mar  3 2026  4:30AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1559,27 +1517,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Norwegian Spirit (P)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mar  2 2026  6:30AM</t>
+          <t>Mar  3 2026  5:15AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dunedin</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1596,27 +1554,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Grande Halifax</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mar  2 2026  8:30AM</t>
+          <t>Mar  3 2026  5:30AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1633,27 +1591,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Intermezzo (T)</t>
+          <t>Sydney Express (BM)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mar  2 2026  9:30AM</t>
+          <t>Mar  3 2026  5:30AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bay Anchorage inner</t>
+          <t>Swanson East 3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1670,27 +1628,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Daiwan Miracle (SC)</t>
+          <t>Silver Dawn (P)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mar  2 2026 10:15AM</t>
+          <t>Mar  3 2026  6:30AM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1707,12 +1665,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mar  2 2026  5:45PM</t>
+          <t>Mar  3 2026  7:15AM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1727,7 +1685,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1744,27 +1702,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>APL Columbus (BM)</t>
+          <t>Nord Missouri</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mar  2 2026 11:30PM</t>
+          <t>Mar  4 2026  3:15AM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Lascelles 1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1781,27 +1739,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ANL Rotorua (SC)</t>
+          <t>Torm Troilus (T)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mar  3 2026  4:30AM</t>
+          <t>Mar  4 2026  3:35AM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1818,27 +1776,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Cosco Rotterdam (PP)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mar  3 2026  5:15AM</t>
+          <t>Mar  4 2026  4:30AM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1813,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mar  3 2026  5:30AM</t>
+          <t>Mar  4 2026  4:45AM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1870,12 +1828,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1892,27 +1850,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sydney Express (BM)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mar  3 2026  5:30AM</t>
+          <t>Mar  4 2026  5:15AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1929,27 +1887,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Silver Dawn (P)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mar  3 2026  6:30AM</t>
+          <t>Mar  4 2026  5:30AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -1966,27 +1924,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Noble Ace</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mar  3 2026  7:15AM</t>
+          <t>Mar  4 2026  8:30AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2003,27 +1961,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ZIM Falcon (PP)</t>
+          <t>Young Endeavour</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mar  3 2026  8:30AM</t>
+          <t>Mar  4 2026  9:40AM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Geelong South Inner ANCO</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2040,27 +1998,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Arabian Sea</t>
+          <t>Taokas Wisdom (SC)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mar  3 2026 11:30PM</t>
+          <t>Mar  4 2026  1:30PM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Port Lincoln</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2077,27 +2035,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nord Missouri</t>
+          <t>M/Y Mischief</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mar  4 2026  3:15AM</t>
+          <t>Mar  4 2026  2:30PM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Docklands Victoria Harbour</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2114,27 +2072,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Torm Troilus (T)</t>
+          <t>MSC Maria Clara</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mar  4 2026  3:35AM</t>
+          <t>Mar  4 2026  4:30PM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2151,12 +2109,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mar  4 2026  4:26AM</t>
+          <t>Mar  4 2026  5:26PM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2171,7 +2129,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2188,27 +2146,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cosco Rotterdam (PP)</t>
+          <t>Viking Paglia</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mar  4 2026  4:30AM</t>
+          <t>Mar  4 2026  6:30PM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2225,27 +2183,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Victorian Reliance II</t>
+          <t>OOCL Shanghai (PP)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mar  4 2026  5:15AM</t>
+          <t>Mar  4 2026  8:00PM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Kaohsiung</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2262,27 +2220,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>Kota Lumayan</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mar  4 2026  5:30AM</t>
+          <t>Mar  4 2026  8:30PM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2299,27 +2257,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Noble Ace</t>
+          <t>Rio Grande</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mar  4 2026  8:30AM</t>
+          <t>Mar  5 2026  3:00AM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2336,27 +2294,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Young Endeavour</t>
+          <t>New First</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mar  4 2026  9:40AM</t>
+          <t>Mar  5 2026  3:05AM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Geelong South Inner ANCO</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2373,27 +2331,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Taokas Wisdom (SC)</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mar  4 2026  1:30PM</t>
+          <t>Mar  5 2026  5:15AM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2410,27 +2368,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>M/Y Mischief</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mar  4 2026  2:30PM</t>
+          <t>Mar  5 2026  5:30AM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Docklands Victoria Harbour</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2447,27 +2405,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MSC Maria Clara</t>
+          <t>Coral Princess (P)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mar  4 2026  4:30PM</t>
+          <t>Mar  5 2026  6:00AM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2484,12 +2442,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mar  4 2026  5:26PM</t>
+          <t>Mar  5 2026  7:15AM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2504,7 +2462,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2521,27 +2479,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Viking Paglia</t>
+          <t>MSC Unity VI</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mar  4 2026  6:30PM</t>
+          <t>Mar  5 2026  8:30AM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Webb Dock 1 West</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2558,27 +2516,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>OOCL Shanghai (PP)</t>
+          <t>MSC Capetown III</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mar  4 2026  8:00PM</t>
+          <t>Mar  5 2026 10:30AM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Kaohsiung</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2595,27 +2553,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Kota Lumayan</t>
+          <t>IVS Isogo</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mar  4 2026  8:30PM</t>
+          <t>Mar  5 2026 10:35AM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Lascelles 2</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2632,12 +2590,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Rio Grande</t>
+          <t>Maersk Yellowstone (PP) (SC)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mar  5 2026  3:00AM</t>
+          <t>Mar  5 2026  3:00PM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2647,12 +2605,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2669,27 +2627,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>New First</t>
+          <t>Hansa Freyburg (SC)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mar  5 2026  3:05AM</t>
+          <t>Mar  5 2026  4:30PM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2706,27 +2664,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>MSC Durban IV</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mar  5 2026  5:15AM</t>
+          <t>Mar  5 2026  4:30PM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2743,27 +2701,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>OOCL Beijing (PP)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mar  5 2026  5:30AM</t>
+          <t>Mar  5 2026  4:30PM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2780,27 +2738,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Coral Princess (P)</t>
+          <t>OOCL Chicago (PP)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mar  5 2026  6:00AM</t>
+          <t>Mar  5 2026  8:30PM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2817,27 +2775,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>STI Magister (T)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mar  5 2026  6:56AM</t>
+          <t>Mar  5 2026 11:35PM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2854,27 +2812,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MSC Unity VI</t>
+          <t>Houyoshi Express II (T)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mar  5 2026  8:30AM</t>
+          <t>Mar  6 2026  1:00AM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Mizushima</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2891,27 +2849,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MSC Capetown III</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mar  5 2026 10:30AM</t>
+          <t>Mar  6 2026  4:26AM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2928,27 +2886,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>IVS Isogo</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mar  5 2026 10:35AM</t>
+          <t>Mar  6 2026  5:15AM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2965,27 +2923,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Maersk Yellowstone (PP) (SC)</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mar  5 2026  3:00PM</t>
+          <t>Mar  6 2026  5:30AM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -2997,22 +2955,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Hansa Freyburg (SC)</t>
+          <t>ALS Clivia (PP)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mar  5 2026  4:30PM</t>
+          <t>2026-02-27 20:20:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3022,7 +2980,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3034,32 +2992,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MSC Durban IV</t>
+          <t>Aquagrace</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mar  5 2026  4:30PM</t>
+          <t>2026-02-26 19:50:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Lascelles 3</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3071,32 +3029,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>expected arrivals</t>
+          <t>actual arrivals</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>OOCL Beijing (PP)</t>
+          <t>Ardmore Gibraltar (T)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mar  5 2026  4:30PM</t>
+          <t>2026-02-27 11:48:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Holden Dock</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3113,27 +3071,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Adelie</t>
+          <t>Cape Bonavista</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-02-26 07:55:00</t>
+          <t>2026-02-26 22:10:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Thevenard</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>South Wharf 27</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3150,27 +3108,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Akuna</t>
+          <t>CMA CGM Quelimane (SC)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-02-25 19:58:00</t>
+          <t>2026-02-28 14:12:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3187,27 +3145,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ALS Clivia (PP)</t>
+          <t>Crystal Serenity (P)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-02-27 20:20:00</t>
+          <t>2026-02-26 12:25:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3224,27 +3182,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Aquagrace</t>
+          <t>Discovery Princess (P)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-02-26 19:50:00</t>
+          <t>2026-03-02 06:29:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lascelles 3</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3261,27 +3219,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ardmore Gibraltar (T)</t>
+          <t>Dream Orchid</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-02-27 11:48:00</t>
+          <t>2026-02-26 17:30:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Holden Dock</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3298,27 +3256,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cape Bonavista</t>
+          <t>ES Care</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-02-26 22:10:00</t>
+          <t>2026-02-27 11:36:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3335,27 +3293,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CMA CGM Quelimane (SC)</t>
+          <t>Eva Gold (T)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-02-28 14:12:00</t>
+          <t>2026-02-27 13:35:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3372,27 +3330,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cosco Philippines (BM)</t>
+          <t>Hafnia Raven (T)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-02-26 01:15:00</t>
+          <t>2026-02-26 21:43:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Swanson East 3</t>
+          <t>Geelong Refinery3</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3409,27 +3367,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Crystal Serenity (P)</t>
+          <t>Hong Bo 16 (T)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-02-26 12:25:00</t>
+          <t>2026-03-02 05:45:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Station Pier Outer West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3446,27 +3404,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CSAV Rio Nevado</t>
+          <t>Latika Naree</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-02-26 01:50:00</t>
+          <t>2026-02-28 08:26:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Webb Dock 3 West</t>
+          <t>Bay Anchorage Outer</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3483,27 +3441,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Dream Orchid</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-02-26 17:30:00</t>
+          <t>2026-03-01 06:40:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Webb Dock 2 West</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3520,27 +3478,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ES Care</t>
+          <t>Liekut</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-02-27 11:36:00</t>
+          <t>2026-02-27 06:30:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3557,27 +3515,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Esprit Lotus</t>
+          <t>Lord Vishnu</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-02-26 07:36:00</t>
+          <t>2026-03-01 17:07:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Kinuura</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Corio Quay North 4</t>
+          <t>Webb Dock 2 West</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3594,27 +3552,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Eva Gold (T)</t>
+          <t>Luga</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-02-27 13:35:00</t>
+          <t>2026-02-28 11:42:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>South Wharf 26</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3631,27 +3589,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Hafnia Raven (T)</t>
+          <t>Maersk Fukuoka (PP)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-02-26 21:43:00</t>
+          <t>2026-02-28 20:43:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Geelong Refinery3</t>
+          <t>Swanson East 2</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3668,27 +3626,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Latika Naree</t>
+          <t>Molly Grace</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-02-28 08:26:00</t>
+          <t>2026-03-01 13:17:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bay Anchorage Outer</t>
+          <t>South Wharf 29</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3705,27 +3663,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>MSC Acapulco IV</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-02-27 06:30:00</t>
+          <t>2026-03-01 07:50:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3742,27 +3700,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Liekut</t>
+          <t>MSC Chulai III</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-03-01 06:40:00</t>
+          <t>2026-02-26 21:30:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3779,27 +3737,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Luga</t>
+          <t>MSC Star R (SC)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-02-28 11:42:00</t>
+          <t>2026-02-26 12:45:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Gladstone</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>South Wharf 26</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3816,27 +3774,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Maersk Fukuoka (PP)</t>
+          <t>Norwegian Spirit (P)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-02-28 20:43:00</t>
+          <t>2026-03-02 07:26:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Swanson East 2</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3853,27 +3811,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Maersk Mammoth (SC) (PP)</t>
+          <t>NPDL Tahiti (SC)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-02-26 08:20:00</t>
+          <t>2026-02-28 06:08:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Swanson West 2</t>
+          <t>Swanson East 1</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3890,27 +3848,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Medi Luna (SC)</t>
+          <t>OOCL Texas</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-02-25 22:53:00</t>
+          <t>2026-03-02 01:53:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Port Lincoln</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lascelles 2</t>
+          <t>Webb Dock 5 East</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3927,27 +3885,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Molly Grace</t>
+          <t>Pelion (PP)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-03-01 13:17:00</t>
+          <t>2026-03-02 02:02:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>South Wharf 29</t>
+          <t>Swanson West 2</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -3964,27 +3922,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MSC Acapulco IV</t>
+          <t>Penguin Arrow</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-03-01 07:50:00</t>
+          <t>2026-02-27 00:47:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Appleton Dock E</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4001,27 +3959,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MSC Chulai III</t>
+          <t>Phoebe (PP)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-02-26 21:30:00</t>
+          <t>2026-02-27 08:45:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Webb Dock 5 East</t>
+          <t>Webb Dock 4 East</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4038,12 +3996,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MSC Star R (SC)</t>
+          <t>Seabourn Sojourn (P)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-02-26 12:45:00</t>
+          <t>2026-02-27 11:35:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4053,12 +4011,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Station Pier Outer East</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4075,27 +4033,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>NPDL Tahiti (SC)</t>
+          <t>Searoad Mersey II</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-02-28 06:08:00</t>
+          <t>2026-02-28 06:36:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Swanson East 1</t>
+          <t>Webb Dock 2 East</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4112,27 +4070,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Papora Wisdom</t>
+          <t>Spirit of Auckland</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-02-26 04:00:00</t>
+          <t>2026-02-27 22:00:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Higashishioya</t>
+          <t>Botany Bay</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lascelles 1</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4149,27 +4107,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Penguin Arrow</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-02-27 00:47:00</t>
+          <t>2026-02-28 19:19:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Appleton Dock E</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4186,27 +4144,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Phoebe (PP)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-02-27 08:45:00</t>
+          <t>2026-03-02 05:50:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Webb Dock 4 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4223,27 +4181,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn (P)</t>
+          <t>Spirit of Tasmania I</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-02-27 11:35:00</t>
+          <t>2026-02-27 08:11:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Station Pier Outer East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4260,12 +4218,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-02-26 06:54:00</t>
+          <t>2026-02-26 19:04:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4275,12 +4233,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4297,12 +4255,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Searoad Mersey II</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-02-28 06:36:00</t>
+          <t>2026-02-28 05:50:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4312,12 +4270,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Webb Dock 2 East</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4334,27 +4292,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Spirit of Auckland</t>
+          <t>Spirit of Tasmania II</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-02-27 22:00:00</t>
+          <t>2026-03-01 07:52:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Botany Bay</t>
+          <t>Devonport</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Swanson West 1</t>
+          <t>Corio Quay South</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4371,27 +4329,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Stolt Tsubaki (T)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-02-26 05:55:00</t>
+          <t>2026-03-01 15:42:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Maribyrnong 1</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4408,27 +4366,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Stolt Yuri (T)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-02-28 19:19:00</t>
+          <t>2026-03-01 01:39:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Geelong Refinery1</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4445,27 +4403,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania I</t>
+          <t>Tasmanian Achiever 2</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-02-27 08:11:00</t>
+          <t>2026-02-28 05:45:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4482,27 +4440,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Trans Future 6</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-02-28 05:50:00</t>
+          <t>2026-02-28 04:30:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 West</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4519,27 +4477,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>TS Singapore</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-02-26 19:04:00</t>
+          <t>2026-03-01 02:41:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Swanson West 1</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4556,27 +4514,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Spirit of Tasmania II</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2026-03-01 07:52:00</t>
+          <t>2026-03-01 07:12:00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Devonport</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Corio Quay South</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4593,27 +4551,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Stolt Tsubaki (T)</t>
+          <t>Victorian Reliance II</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2026-03-01 15:42:00</t>
+          <t>2026-02-27 05:42:00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Burnie</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Maribyrnong 1</t>
+          <t>Webb Dock 1 East</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4630,27 +4588,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Stolt Yuri (T)</t>
+          <t>XYG Hongkong (SC)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2026-03-01 01:39:00</t>
+          <t>2026-02-27 04:01:00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Gresik  Java</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Geelong Refinery1</t>
+          <t>Appleton Dock C</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4667,286 +4625,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Tasmanian Achiever 2</t>
+          <t>Zaandam (P)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2026-02-26 05:45:00</t>
+          <t>2026-03-01 07:30:00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Burnie</t>
+          <t>Penneshaw</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Webb Dock 1 East</t>
+          <t>Station Pier Outer West</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Tasmanian Achiever 2</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2026-02-28 05:45:00</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Burnie</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Webb Dock 1 East</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>2026-03-01 18:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Trans Future 6</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2026-02-28 04:30:00</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Port Kembla</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Webb Dock 1 West</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>2026-03-01 18:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>TS Singapore</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2026-03-01 02:41:00</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Swanson West 1</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>2026-03-01 18:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Victorian Reliance II</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>2026-03-01 07:12:00</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Burnie</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Webb Dock 1 East</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>2026-03-01 18:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Victorian Reliance II</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>2026-02-27 05:42:00</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Burnie</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Webb Dock 1 East</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>2026-03-01 18:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>XYG Hongkong (SC)</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>2026-02-27 04:01:00</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Gresik  Java</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Appleton Dock C</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>2026-03-01 18:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>actual arrivals</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Zaandam (P)</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>2026-03-01 07:30:00</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Penneshaw</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Station Pier Outer West</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
@@ -4979,7 +4678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-03-01 18:10</t>
+          <t>2026-03-02 08:44</t>
         </is>
       </c>
     </row>
